--- a/assessments/FinOps++/assessment.xlsx
+++ b/assessments/FinOps++/assessment.xlsx
@@ -551,12 +551,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -860,1478 +859,1480 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/113.md", "113")</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/114.md", "114")</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/115.md", "115")</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/116.md", "116")</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/117.md", "117")</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/097.md", "097")</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/098.md", "098")</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/099.md", "099")</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/100.md", "100")</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/101.md", "101")</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/091.md", "091")</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/092.md", "092")</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/093.md", "093")</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/094.md", "094")</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/095.md", "095")</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/096.md", "096")</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/124.md", "124")</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/125.md", "125")</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/126.md", "126")</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/127.md", "127")</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/128.md", "128")</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/129.md", "129")</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/130.md", "130")</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/131.md", "131")</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/132.md", "132")</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/133.md", "133")</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/134.md", "134")</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/107.md", "107")</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3" t="s">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/108.md", "108")</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3" t="s">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/109.md", "109")</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3" t="s">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/110.md", "110")</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3" t="s">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/111.md", "111")</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3" t="s">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/112.md", "112")</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3" t="s">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/118.md", "118")</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/119.md", "119")</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3" t="s">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/120.md", "120")</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/121.md", "121")</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3" t="s">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/122.md", "122")</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3" t="s">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/123.md", "123")</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/061.md", "061")</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3" t="s">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/062.md", "062")</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3" t="s">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/063.md", "063")</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3" t="s">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/064.md", "064")</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3" t="s">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/065.md", "065")</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3" t="s">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/066.md", "066")</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3" t="s">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/073.md", "073")</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3" t="s">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/074.md", "074")</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3" t="s">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/075.md", "075")</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3" t="s">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/076.md", "076")</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3" t="s">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/077.md", "077")</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3" t="s">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/078.md", "078")</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3" t="s">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/079.md", "079")</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3" t="s">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/080.md", "080")</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3" t="s">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/081.md", "081")</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3" t="s">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/082.md", "082")</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3" t="s">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/083.md", "083")</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3" t="s">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/084.md", "084")</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3" t="s">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/067.md", "067")</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3" t="s">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/068.md", "068")</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3" t="s">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/069.md", "069")</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3" t="s">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/070.md", "070")</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3" t="s">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/071.md", "071")</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3" t="s">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/072.md", "072")</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3" t="s">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/009.md", "009")</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3" t="s">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/010.md", "010")</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3" t="s">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/011.md", "011")</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3" t="s">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/012.md", "012")</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3" t="s">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/013.md", "013")</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3" t="s">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/014.md", "014")</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3" t="s">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/015.md", "015")</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3" t="s">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/023.md", "023")</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3" t="s">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/024.md", "024")</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3" t="s">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/025.md", "025")</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3" t="s">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/026.md", "026")</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3" t="s">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/027.md", "027")</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3" t="s">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/028.md", "028")</f>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3" t="s">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/029.md", "029")</f>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3" t="s">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/001.md", "001")</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3" t="s">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/002.md", "002")</f>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3" t="s">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/003.md", "003")</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3" t="s">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/004.md", "004")</f>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3" t="s">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/005.md", "005")</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3" t="s">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/006.md", "006")</f>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3" t="s">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/007.md", "007")</f>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3" t="s">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/008.md", "008")</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3" t="s">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/016.md", "016")</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3" t="s">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/017.md", "017")</f>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3" t="s">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/018.md", "018")</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3" t="s">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/019.md", "019")</f>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3" t="s">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/020.md", "020")</f>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3" t="s">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/021.md", "021")</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3" t="s">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/022.md", "022")</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/049.md", "049")</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3" t="s">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/050.md", "050")</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3" t="s">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/051.md", "051")</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3" t="s">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/052.md", "052")</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3" t="s">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/053.md", "053")</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3" t="s">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/054.md", "054")</f>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3" t="s">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/043.md", "043")</f>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3" t="s">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/044.md", "044")</f>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3" t="s">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/045.md", "045")</f>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3" t="s">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/046.md", "046")</f>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3" t="s">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/047.md", "047")</f>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3" t="s">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/048.md", "048")</f>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3" t="s">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/037.md", "037")</f>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3" t="s">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/038.md", "038")</f>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3" t="s">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/039.md", "039")</f>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3" t="s">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/040.md", "040")</f>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3" t="s">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/041.md", "041")</f>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3" t="s">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/042.md", "042")</f>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3" t="s">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D112" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/030.md", "030")</f>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3" t="s">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/031.md", "031")</f>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3" t="s">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/032.md", "032")</f>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3" t="s">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/033.md", "033")</f>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3" t="s">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D116" s="2">
+      <c r="D116" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/034.md", "034")</f>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3" t="s">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/035.md", "035")</f>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3" t="s">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D118" s="2">
+      <c r="D118" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/036.md", "036")</f>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3" t="s">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D119" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/055.md", "055")</f>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3" t="s">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D120" s="2">
+      <c r="D120" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/056.md", "056")</f>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3" t="s">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D121" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/057.md", "057")</f>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3" t="s">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D122" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/058.md", "058")</f>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3" t="s">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D123" s="2">
+      <c r="D123" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/059.md", "059")</f>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3" t="s">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D124" s="2">
+      <c r="D124" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/060.md", "060")</f>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D125" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/102.md", "102")</f>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="3" t="s">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/103.md", "103")</f>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3" t="s">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D127" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/104.md", "104")</f>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3" t="s">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D128" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/105.md", "105")</f>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3" t="s">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D129" s="1">
         <f>HYPERLINK("https://github.com/FinOpsPP/Framework-Assessment/tree/main/components/actions/106.md", "106")</f>
         <v>0</v>
       </c>

--- a/assessments/FinOps++/assessment.xlsx
+++ b/assessments/FinOps++/assessment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="295">
   <si>
     <t>serial number</t>
   </si>
@@ -883,16 +883,22 @@
     <t>106</t>
   </si>
   <si>
-    <t>[{'Score': 10, 'Condition': None}]</t>
+    <t>[{'Score': 1, 'Condition': 'Test for 1'}, {'Score': 5, 'Condition': 'Test for 5'}, {'Score': 10, 'Condition': 'Test for 10'}]</t>
   </si>
   <si>
     <t>[{'Score': 0, 'Condition': None}]</t>
   </si>
   <si>
-    <t>10: None</t>
+    <t>1: Test for 1</t>
   </si>
   <si>
     <t>0: None</t>
+  </si>
+  <si>
+    <t>Sum of Weights</t>
+  </si>
+  <si>
+    <t>Weighted Average Scores</t>
   </si>
 </sst>
 </file>
@@ -975,6 +981,16 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="J1:K2" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" name="Sum of Weights"/>
+    <tableColumn id="2" name="Weighted Average Scores"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1273,8 +1289,10 @@
     <col min="3" max="3" width="75.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1301,6 +1319,12 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>293</v>
+      </c>
+      <c r="K1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3950,388 +3974,388 @@
     <mergeCell ref="B125:B129"/>
   </mergeCells>
   <dataValidations count="128">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
-      <formula1>"10: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F16">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F24">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F27">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F28">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F29">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F30">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F31">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F32">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F33">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F34">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F35">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F36">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F37">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F38">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F40">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F41">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F42">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F43">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F44">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F45">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F46">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F47">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F48">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F49">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F50">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F51">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F52">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F53">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F54">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F55">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F56">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F57">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F58">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F59">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F60">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F61">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F62">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F63">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F64">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F66">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F67">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F68">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F69">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F70">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F71">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F72">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F73">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F74">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F75">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F76">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F77">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F78">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F79">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F80">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F81">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F82">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F83">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F84">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F85">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F86">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F87">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F88">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F89">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F90">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F91">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F92">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F93">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F94">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F95">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F96">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F97">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F98">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F99">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F100">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F101">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F102">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F103">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F104">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F105">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F106">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F107">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F108">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F109">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F110">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F111">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F112">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F113">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F114">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F115">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F116">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F117">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F118">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F119">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F120">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F121">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F122">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F123">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F124">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F125">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F126">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F127">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F128">
-      <formula1>"0: None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>"1: Test for 1,5: Test for 5,10: Test for 10"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G15">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G17">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G18">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G19">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G20">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G21">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G22">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G23">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G24">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G25">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G26">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G27">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G28">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G29">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G30">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G31">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G32">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G33">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G34">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G35">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G36">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G37">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G38">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G39">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G40">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G41">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G42">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G43">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G44">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G45">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G46">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G47">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G48">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G49">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G50">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G51">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G52">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G53">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G54">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G55">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G56">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G57">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G58">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G59">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G60">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G61">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G62">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G63">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G64">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G65">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G66">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G67">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G68">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G69">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G70">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G71">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G72">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G73">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G74">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G75">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G76">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G77">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G78">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G79">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G80">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G81">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G82">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G83">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G84">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G85">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G86">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G87">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G88">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G89">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G90">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G91">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G92">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G93">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G94">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G95">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G96">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G97">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G98">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G99">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G100">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G101">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G102">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G103">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G104">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G105">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G106">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G107">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G108">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G109">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G110">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G111">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G112">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G113">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G114">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G115">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G116">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G117">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G118">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G119">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G120">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G121">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G122">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G123">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G124">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G125">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G126">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G127">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G128">
+      <formula1>"0: None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G129">
       <formula1>"0: None"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4469,5 +4493,8 @@
   <ignoredErrors>
     <ignoredError sqref="D:D" numberStoredAsText="1"/>
   </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId129"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/assessments/FinOps++/assessment.xlsx
+++ b/assessments/FinOps++/assessment.xlsx
@@ -8,13 +8,39 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
+    <sheet name="Attained Percentage" sheetId="2" r:id="rId2"/>
+    <sheet name="Scoring" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="297">
+  <si>
+    <t>Sum of Weights</t>
+  </si>
+  <si>
+    <t>Maximum Possible Score</t>
+  </si>
+  <si>
+    <t>Calculated Weighted Average Score</t>
+  </si>
+  <si>
+    <t>Difference from Maximum Score</t>
+  </si>
+  <si>
+    <t>Governance</t>
+  </si>
+  <si>
+    <t>Manage the FinOps Practice</t>
+  </si>
+  <si>
+    <t>Quantify Business Value</t>
+  </si>
+  <si>
+    <t>Usage &amp; Cost</t>
+  </si>
   <si>
     <t>serial number</t>
   </si>
@@ -40,18 +66,6 @@
     <t>action</t>
   </si>
   <si>
-    <t>Manage the FinOps Practice</t>
-  </si>
-  <si>
-    <t>Usage &amp; Cost</t>
-  </si>
-  <si>
-    <t>Quantify Business Value</t>
-  </si>
-  <si>
-    <t>Governance</t>
-  </si>
-  <si>
     <t>FinOps Assessment</t>
   </si>
   <si>
@@ -893,12 +907,6 @@
   </si>
   <si>
     <t>0: None</t>
-  </si>
-  <si>
-    <t>Sum of Weights</t>
-  </si>
-  <si>
-    <t>Weighted Average Scores</t>
   </si>
 </sst>
 </file>
@@ -983,11 +991,259 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="37"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Domains for FinOps++ by Action count</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Overview!$AA$1:$AA$4</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Governance</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Manage the FinOps Practice</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quantify Business Value</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Usage &amp; Cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overview!$BB$1:$BB$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="37"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Attained Percentage of Maximum Possible Score</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Overview!$C$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Calculated Weighted Average Score</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Difference from Maximum Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overview!$C$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2047875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9308969" cy="6078325"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="J1:K2" totalsRowShown="0">
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D2" totalsRowShown="0">
+  <tableColumns count="4">
     <tableColumn id="1" name="Sum of Weights"/>
-    <tableColumn id="2" name="Weighted Average Scores"/>
+    <tableColumn id="2" name="Maximum Possible Score"/>
+    <tableColumn id="3" name="Calculated Weighted Average Score"/>
+    <tableColumn id="4" name="Difference from Maximum Score"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1278,9 +1534,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:BB4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:54">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54">
+      <c r="A2">
+        <f>SUM(Scoring!E2:E129)</f>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <f>SUM(Scoring!H2:H129)/A2</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>B2-C2</f>
+        <v>0</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54">
+      <c r="AA3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:54">
+      <c r="AA4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB4">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H129"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1291,352 +1631,336 @@
     <col min="5" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>293</v>
-      </c>
-      <c r="K1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E2">
         <v>1.5</v>
       </c>
       <c r="G2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H2">
         <f>E2*VALUE(LEFT(G2, FIND(":", G2)-1))</f>
         <v>0</v>
       </c>
-      <c r="J2">
-        <f>SUM(E2:E129)</f>
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <f>SUM(H2:H129)/J2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H3">
         <f>E3*VALUE(LEFT(G3, FIND(":", G3)-1))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H4">
         <f>E4*VALUE(LEFT(G4, FIND(":", G4)-1))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:8">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H5">
         <f>E5*VALUE(LEFT(G5, FIND(":", G5)-1))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:8">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H6">
         <f>E6*VALUE(LEFT(G6, FIND(":", G6)-1))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:8">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H7">
         <f>E7*VALUE(LEFT(G7, FIND(":", G7)-1))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:8">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H8">
         <f>E8*VALUE(LEFT(G8, FIND(":", G8)-1))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:8">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H9">
         <f>E9*VALUE(LEFT(G9, FIND(":", G9)-1))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:8">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H10">
         <f>E10*VALUE(LEFT(G10, FIND(":", G10)-1))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:8">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H11">
         <f>E11*VALUE(LEFT(G11, FIND(":", G11)-1))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:8">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H12">
         <f>E12*VALUE(LEFT(G12, FIND(":", G12)-1))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:8">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H13">
         <f>E13*VALUE(LEFT(G13, FIND(":", G13)-1))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:8">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H14">
         <f>E14*VALUE(LEFT(G14, FIND(":", G14)-1))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:8">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H15">
         <f>E15*VALUE(LEFT(G15, FIND(":", G15)-1))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:8">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H16">
         <f>E16*VALUE(LEFT(G16, FIND(":", G16)-1))</f>
@@ -1647,16 +1971,16 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H17">
         <f>E17*VALUE(LEFT(G17, FIND(":", G17)-1))</f>
@@ -1666,19 +1990,19 @@
     <row r="18" spans="1:8">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H18">
         <f>E18*VALUE(LEFT(G18, FIND(":", G18)-1))</f>
@@ -1689,16 +2013,16 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H19">
         <f>E19*VALUE(LEFT(G19, FIND(":", G19)-1))</f>
@@ -1709,16 +2033,16 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H20">
         <f>E20*VALUE(LEFT(G20, FIND(":", G20)-1))</f>
@@ -1729,16 +2053,16 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H21">
         <f>E21*VALUE(LEFT(G21, FIND(":", G21)-1))</f>
@@ -1749,16 +2073,16 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H22">
         <f>E22*VALUE(LEFT(G22, FIND(":", G22)-1))</f>
@@ -1768,19 +2092,19 @@
     <row r="23" spans="1:8">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H23">
         <f>E23*VALUE(LEFT(G23, FIND(":", G23)-1))</f>
@@ -1791,16 +2115,16 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H24">
         <f>E24*VALUE(LEFT(G24, FIND(":", G24)-1))</f>
@@ -1811,16 +2135,16 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H25">
         <f>E25*VALUE(LEFT(G25, FIND(":", G25)-1))</f>
@@ -1831,16 +2155,16 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H26">
         <f>E26*VALUE(LEFT(G26, FIND(":", G26)-1))</f>
@@ -1851,16 +2175,16 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H27">
         <f>E27*VALUE(LEFT(G27, FIND(":", G27)-1))</f>
@@ -1871,16 +2195,16 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H28">
         <f>E28*VALUE(LEFT(G28, FIND(":", G28)-1))</f>
@@ -1890,19 +2214,19 @@
     <row r="29" spans="1:8">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H29">
         <f>E29*VALUE(LEFT(G29, FIND(":", G29)-1))</f>
@@ -1913,16 +2237,16 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H30">
         <f>E30*VALUE(LEFT(G30, FIND(":", G30)-1))</f>
@@ -1933,16 +2257,16 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H31">
         <f>E31*VALUE(LEFT(G31, FIND(":", G31)-1))</f>
@@ -1953,16 +2277,16 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H32">
         <f>E32*VALUE(LEFT(G32, FIND(":", G32)-1))</f>
@@ -1973,16 +2297,16 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H33">
         <f>E33*VALUE(LEFT(G33, FIND(":", G33)-1))</f>
@@ -1993,16 +2317,16 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H34">
         <f>E34*VALUE(LEFT(G34, FIND(":", G34)-1))</f>
@@ -2012,19 +2336,19 @@
     <row r="35" spans="1:8">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H35">
         <f>E35*VALUE(LEFT(G35, FIND(":", G35)-1))</f>
@@ -2035,16 +2359,16 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H36">
         <f>E36*VALUE(LEFT(G36, FIND(":", G36)-1))</f>
@@ -2055,16 +2379,16 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H37">
         <f>E37*VALUE(LEFT(G37, FIND(":", G37)-1))</f>
@@ -2075,16 +2399,16 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H38">
         <f>E38*VALUE(LEFT(G38, FIND(":", G38)-1))</f>
@@ -2095,16 +2419,16 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H39">
         <f>E39*VALUE(LEFT(G39, FIND(":", G39)-1))</f>
@@ -2115,16 +2439,16 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H40">
         <f>E40*VALUE(LEFT(G40, FIND(":", G40)-1))</f>
@@ -2133,22 +2457,22 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H41">
         <f>E41*VALUE(LEFT(G41, FIND(":", G41)-1))</f>
@@ -2159,16 +2483,16 @@
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H42">
         <f>E42*VALUE(LEFT(G42, FIND(":", G42)-1))</f>
@@ -2179,16 +2503,16 @@
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H43">
         <f>E43*VALUE(LEFT(G43, FIND(":", G43)-1))</f>
@@ -2199,16 +2523,16 @@
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H44">
         <f>E44*VALUE(LEFT(G44, FIND(":", G44)-1))</f>
@@ -2219,16 +2543,16 @@
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H45">
         <f>E45*VALUE(LEFT(G45, FIND(":", G45)-1))</f>
@@ -2239,16 +2563,16 @@
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H46">
         <f>E46*VALUE(LEFT(G46, FIND(":", G46)-1))</f>
@@ -2258,19 +2582,19 @@
     <row r="47" spans="1:8">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H47">
         <f>E47*VALUE(LEFT(G47, FIND(":", G47)-1))</f>
@@ -2281,16 +2605,16 @@
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H48">
         <f>E48*VALUE(LEFT(G48, FIND(":", G48)-1))</f>
@@ -2301,16 +2625,16 @@
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H49">
         <f>E49*VALUE(LEFT(G49, FIND(":", G49)-1))</f>
@@ -2321,16 +2645,16 @@
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H50">
         <f>E50*VALUE(LEFT(G50, FIND(":", G50)-1))</f>
@@ -2341,16 +2665,16 @@
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H51">
         <f>E51*VALUE(LEFT(G51, FIND(":", G51)-1))</f>
@@ -2361,16 +2685,16 @@
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H52">
         <f>E52*VALUE(LEFT(G52, FIND(":", G52)-1))</f>
@@ -2380,19 +2704,19 @@
     <row r="53" spans="1:8">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H53">
         <f>E53*VALUE(LEFT(G53, FIND(":", G53)-1))</f>
@@ -2403,16 +2727,16 @@
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H54">
         <f>E54*VALUE(LEFT(G54, FIND(":", G54)-1))</f>
@@ -2423,16 +2747,16 @@
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H55">
         <f>E55*VALUE(LEFT(G55, FIND(":", G55)-1))</f>
@@ -2443,16 +2767,16 @@
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H56">
         <f>E56*VALUE(LEFT(G56, FIND(":", G56)-1))</f>
@@ -2463,16 +2787,16 @@
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H57">
         <f>E57*VALUE(LEFT(G57, FIND(":", G57)-1))</f>
@@ -2483,16 +2807,16 @@
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H58">
         <f>E58*VALUE(LEFT(G58, FIND(":", G58)-1))</f>
@@ -2502,19 +2826,19 @@
     <row r="59" spans="1:8">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H59">
         <f>E59*VALUE(LEFT(G59, FIND(":", G59)-1))</f>
@@ -2525,16 +2849,16 @@
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H60">
         <f>E60*VALUE(LEFT(G60, FIND(":", G60)-1))</f>
@@ -2545,16 +2869,16 @@
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H61">
         <f>E61*VALUE(LEFT(G61, FIND(":", G61)-1))</f>
@@ -2565,16 +2889,16 @@
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H62">
         <f>E62*VALUE(LEFT(G62, FIND(":", G62)-1))</f>
@@ -2585,16 +2909,16 @@
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H63">
         <f>E63*VALUE(LEFT(G63, FIND(":", G63)-1))</f>
@@ -2605,16 +2929,16 @@
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H64">
         <f>E64*VALUE(LEFT(G64, FIND(":", G64)-1))</f>
@@ -2624,19 +2948,19 @@
     <row r="65" spans="1:8">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H65">
         <f>E65*VALUE(LEFT(G65, FIND(":", G65)-1))</f>
@@ -2647,16 +2971,16 @@
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H66">
         <f>E66*VALUE(LEFT(G66, FIND(":", G66)-1))</f>
@@ -2667,16 +2991,16 @@
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H67">
         <f>E67*VALUE(LEFT(G67, FIND(":", G67)-1))</f>
@@ -2687,16 +3011,16 @@
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H68">
         <f>E68*VALUE(LEFT(G68, FIND(":", G68)-1))</f>
@@ -2707,16 +3031,16 @@
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H69">
         <f>E69*VALUE(LEFT(G69, FIND(":", G69)-1))</f>
@@ -2727,16 +3051,16 @@
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H70">
         <f>E70*VALUE(LEFT(G70, FIND(":", G70)-1))</f>
@@ -2747,16 +3071,16 @@
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H71">
         <f>E71*VALUE(LEFT(G71, FIND(":", G71)-1))</f>
@@ -2766,19 +3090,19 @@
     <row r="72" spans="1:8">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H72">
         <f>E72*VALUE(LEFT(G72, FIND(":", G72)-1))</f>
@@ -2789,16 +3113,16 @@
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H73">
         <f>E73*VALUE(LEFT(G73, FIND(":", G73)-1))</f>
@@ -2809,16 +3133,16 @@
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H74">
         <f>E74*VALUE(LEFT(G74, FIND(":", G74)-1))</f>
@@ -2829,16 +3153,16 @@
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H75">
         <f>E75*VALUE(LEFT(G75, FIND(":", G75)-1))</f>
@@ -2849,16 +3173,16 @@
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H76">
         <f>E76*VALUE(LEFT(G76, FIND(":", G76)-1))</f>
@@ -2869,16 +3193,16 @@
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H77">
         <f>E77*VALUE(LEFT(G77, FIND(":", G77)-1))</f>
@@ -2889,16 +3213,16 @@
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H78">
         <f>E78*VALUE(LEFT(G78, FIND(":", G78)-1))</f>
@@ -2908,19 +3232,19 @@
     <row r="79" spans="1:8">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H79">
         <f>E79*VALUE(LEFT(G79, FIND(":", G79)-1))</f>
@@ -2931,16 +3255,16 @@
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H80">
         <f>E80*VALUE(LEFT(G80, FIND(":", G80)-1))</f>
@@ -2951,16 +3275,16 @@
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H81">
         <f>E81*VALUE(LEFT(G81, FIND(":", G81)-1))</f>
@@ -2971,16 +3295,16 @@
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H82">
         <f>E82*VALUE(LEFT(G82, FIND(":", G82)-1))</f>
@@ -2991,16 +3315,16 @@
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H83">
         <f>E83*VALUE(LEFT(G83, FIND(":", G83)-1))</f>
@@ -3011,16 +3335,16 @@
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H84">
         <f>E84*VALUE(LEFT(G84, FIND(":", G84)-1))</f>
@@ -3031,16 +3355,16 @@
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H85">
         <f>E85*VALUE(LEFT(G85, FIND(":", G85)-1))</f>
@@ -3051,16 +3375,16 @@
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H86">
         <f>E86*VALUE(LEFT(G86, FIND(":", G86)-1))</f>
@@ -3070,19 +3394,19 @@
     <row r="87" spans="1:8">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H87">
         <f>E87*VALUE(LEFT(G87, FIND(":", G87)-1))</f>
@@ -3093,16 +3417,16 @@
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H88">
         <f>E88*VALUE(LEFT(G88, FIND(":", G88)-1))</f>
@@ -3113,16 +3437,16 @@
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H89">
         <f>E89*VALUE(LEFT(G89, FIND(":", G89)-1))</f>
@@ -3133,16 +3457,16 @@
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H90">
         <f>E90*VALUE(LEFT(G90, FIND(":", G90)-1))</f>
@@ -3153,16 +3477,16 @@
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H91">
         <f>E91*VALUE(LEFT(G91, FIND(":", G91)-1))</f>
@@ -3173,16 +3497,16 @@
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H92">
         <f>E92*VALUE(LEFT(G92, FIND(":", G92)-1))</f>
@@ -3193,16 +3517,16 @@
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H93">
         <f>E93*VALUE(LEFT(G93, FIND(":", G93)-1))</f>
@@ -3211,22 +3535,22 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H94">
         <f>E94*VALUE(LEFT(G94, FIND(":", G94)-1))</f>
@@ -3237,16 +3561,16 @@
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H95">
         <f>E95*VALUE(LEFT(G95, FIND(":", G95)-1))</f>
@@ -3257,16 +3581,16 @@
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H96">
         <f>E96*VALUE(LEFT(G96, FIND(":", G96)-1))</f>
@@ -3277,16 +3601,16 @@
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H97">
         <f>E97*VALUE(LEFT(G97, FIND(":", G97)-1))</f>
@@ -3297,16 +3621,16 @@
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H98">
         <f>E98*VALUE(LEFT(G98, FIND(":", G98)-1))</f>
@@ -3317,16 +3641,16 @@
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H99">
         <f>E99*VALUE(LEFT(G99, FIND(":", G99)-1))</f>
@@ -3336,19 +3660,19 @@
     <row r="100" spans="1:8">
       <c r="A100" s="1"/>
       <c r="B100" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H100">
         <f>E100*VALUE(LEFT(G100, FIND(":", G100)-1))</f>
@@ -3359,16 +3683,16 @@
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H101">
         <f>E101*VALUE(LEFT(G101, FIND(":", G101)-1))</f>
@@ -3379,16 +3703,16 @@
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H102">
         <f>E102*VALUE(LEFT(G102, FIND(":", G102)-1))</f>
@@ -3399,16 +3723,16 @@
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H103">
         <f>E103*VALUE(LEFT(G103, FIND(":", G103)-1))</f>
@@ -3419,16 +3743,16 @@
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H104">
         <f>E104*VALUE(LEFT(G104, FIND(":", G104)-1))</f>
@@ -3439,16 +3763,16 @@
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H105">
         <f>E105*VALUE(LEFT(G105, FIND(":", G105)-1))</f>
@@ -3458,19 +3782,19 @@
     <row r="106" spans="1:8">
       <c r="A106" s="1"/>
       <c r="B106" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H106">
         <f>E106*VALUE(LEFT(G106, FIND(":", G106)-1))</f>
@@ -3481,16 +3805,16 @@
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H107">
         <f>E107*VALUE(LEFT(G107, FIND(":", G107)-1))</f>
@@ -3501,16 +3825,16 @@
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H108">
         <f>E108*VALUE(LEFT(G108, FIND(":", G108)-1))</f>
@@ -3521,16 +3845,16 @@
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E109">
         <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H109">
         <f>E109*VALUE(LEFT(G109, FIND(":", G109)-1))</f>
@@ -3541,16 +3865,16 @@
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H110">
         <f>E110*VALUE(LEFT(G110, FIND(":", G110)-1))</f>
@@ -3561,16 +3885,16 @@
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H111">
         <f>E111*VALUE(LEFT(G111, FIND(":", G111)-1))</f>
@@ -3580,19 +3904,19 @@
     <row r="112" spans="1:8">
       <c r="A112" s="1"/>
       <c r="B112" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H112">
         <f>E112*VALUE(LEFT(G112, FIND(":", G112)-1))</f>
@@ -3603,16 +3927,16 @@
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H113">
         <f>E113*VALUE(LEFT(G113, FIND(":", G113)-1))</f>
@@ -3623,16 +3947,16 @@
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H114">
         <f>E114*VALUE(LEFT(G114, FIND(":", G114)-1))</f>
@@ -3643,16 +3967,16 @@
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E115">
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H115">
         <f>E115*VALUE(LEFT(G115, FIND(":", G115)-1))</f>
@@ -3663,16 +3987,16 @@
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E116">
         <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H116">
         <f>E116*VALUE(LEFT(G116, FIND(":", G116)-1))</f>
@@ -3683,16 +4007,16 @@
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E117">
         <v>0</v>
       </c>
       <c r="G117" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H117">
         <f>E117*VALUE(LEFT(G117, FIND(":", G117)-1))</f>
@@ -3703,16 +4027,16 @@
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E118">
         <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H118">
         <f>E118*VALUE(LEFT(G118, FIND(":", G118)-1))</f>
@@ -3722,19 +4046,19 @@
     <row r="119" spans="1:8">
       <c r="A119" s="1"/>
       <c r="B119" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E119">
         <v>0</v>
       </c>
       <c r="G119" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H119">
         <f>E119*VALUE(LEFT(G119, FIND(":", G119)-1))</f>
@@ -3745,16 +4069,16 @@
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E120">
         <v>0</v>
       </c>
       <c r="G120" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H120">
         <f>E120*VALUE(LEFT(G120, FIND(":", G120)-1))</f>
@@ -3765,16 +4089,16 @@
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E121">
         <v>0</v>
       </c>
       <c r="G121" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H121">
         <f>E121*VALUE(LEFT(G121, FIND(":", G121)-1))</f>
@@ -3785,16 +4109,16 @@
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E122">
         <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H122">
         <f>E122*VALUE(LEFT(G122, FIND(":", G122)-1))</f>
@@ -3805,16 +4129,16 @@
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E123">
         <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H123">
         <f>E123*VALUE(LEFT(G123, FIND(":", G123)-1))</f>
@@ -3825,16 +4149,16 @@
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H124">
         <f>E124*VALUE(LEFT(G124, FIND(":", G124)-1))</f>
@@ -3843,22 +4167,22 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E125">
         <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H125">
         <f>E125*VALUE(LEFT(G125, FIND(":", G125)-1))</f>
@@ -3869,16 +4193,16 @@
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E126">
         <v>0</v>
       </c>
       <c r="G126" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H126">
         <f>E126*VALUE(LEFT(G126, FIND(":", G126)-1))</f>
@@ -3889,16 +4213,16 @@
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E127">
         <v>0</v>
       </c>
       <c r="G127" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H127">
         <f>E127*VALUE(LEFT(G127, FIND(":", G127)-1))</f>
@@ -3909,16 +4233,16 @@
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E128">
         <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H128">
         <f>E128*VALUE(LEFT(G128, FIND(":", G128)-1))</f>
@@ -3929,16 +4253,16 @@
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E129">
         <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H129">
         <f>E129*VALUE(LEFT(G129, FIND(":", G129)-1))</f>
@@ -4493,8 +4817,5 @@
   <ignoredErrors>
     <ignoredError sqref="D:D" numberStoredAsText="1"/>
   </ignoredErrors>
-  <tableParts count="1">
-    <tablePart r:id="rId129"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/assessments/FinOps++/assessment.xlsx
+++ b/assessments/FinOps++/assessment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="355">
   <si>
     <t>Sum of Weights</t>
   </si>
@@ -369,7 +369,7 @@
     <t>Create landing zones with access controls, retention, and permissions.</t>
   </si>
   <si>
-    <t>Define data granularity and ingestion frequency; include mandatory metadata.</t>
+    <t>Define data granularity; include mandatory metadata.</t>
   </si>
   <si>
     <t>Document normalization/augmentation rules and owners; version them.</t>
@@ -384,6 +384,9 @@
     <t>Continuously optimize pipelines for timeliness and cost.</t>
   </si>
   <si>
+    <t>Define ingestion frequency; include mandatory metadata.</t>
+  </si>
+  <si>
     <t>Gather personaâ€‘specific requirements; define KPIs/OKRs and glossary.</t>
   </si>
   <si>
@@ -897,16 +900,277 @@
     <t>106</t>
   </si>
   <si>
-    <t>[{'Score': 1, 'Condition': 'Test for 1'}, {'Score': 5, 'Condition': 'Test for 5'}, {'Score': 10, 'Condition': 'Test for 10'}]</t>
+    <t>* Define process for reviewing asking for credits from CSPs
+* Define frequency of review, etc.
+10*Ceil(x/2)</t>
+  </si>
+  <si>
+    <t>* Define communication pathways between finops and the business
+* Conduct trainings or create videos
+* Send out period newsletters
+* CI/CD governance
+* Proactive recommendations at deployment
+10*Ceil(x/5)</t>
+  </si>
+  <si>
+    <t>* Process defined for new accounts and resources deployed
+* Train teams on process
+* Automate process
+10*Ceil(x/3)</t>
+  </si>
+  <si>
+    <t>* Define process to address notifications from CSPs
+* Define cadence for review
+* Define exception criteria
+* Define thresholds to change
+* Combine with architecture analysis for SP &amp; RIs
+10*Ceil(x/5)</t>
+  </si>
+  <si>
+    <t>* Process for evaluating spot periodically
+* Tag for date last reviewed
+* New deployments get reviewed beforehand
+* Define requirements for spot
+* Have exception process and expiration date
+10*Ceil(x/5)</t>
+  </si>
+  <si>
+    <t>Increasing Granularity and Visibility
+* Define metadata to track (org, dept, cost center, team, app, etc.)
+* Create the hierarchy for each category of metadata (ex teams per dept, cost centers in an org)
+10*Ceil(x/2)</t>
+  </si>
+  <si>
+    <t>Unallocated Shared CSP Effective Cloud Cost/ Total CSP Effective Cloud Cost</t>
+  </si>
+  <si>
+    <t>Increasing Granularity and Visibility
+* Document as part of tagging strategy and enforcement
+* Teams have visibility into where their resources fit into the hierarchy
+10*Ceil(x/2)</t>
+  </si>
+  <si>
+    <t>Percentage of total costs that are tagged for Each Required Tag</t>
+  </si>
+  <si>
+    <t>Total Effective Costs Associated with Unallocated CSP Cloud Resources During a Period of Time / Total CSP Cloud Costs During a Period of Time</t>
+  </si>
+  <si>
+    <t>Effectiveness/Effort by strategy
+* Manually asking teams to tag resources
+* Remove untagged resources after time threshold
+* Block deployments without proper tags
+* Automatically tag based on CI/CD creator and team
+10*Ceil(x/4)</t>
+  </si>
+  <si>
+    <t>* Manual inspection of spikes
+* Out-of-the-box tool based anomaly alerts
+* Custom simple increase alert calculations
+* Custom alerts per business unit, team, etc.
+* Alerts per unit costs above thresholds
+10*Ceil(x/5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Defined severity tiers
+* Thresholds associated with severity tiers are defined
+* Defined and adhered to response SLAs
+* Published response runbooks
+* Runbook percent successful or completed
+* RCA completed after alerts
+10*Ceil(x/6)
+</t>
+  </si>
+  <si>
+    <t>* Number of detections per time period
+* Number of detections over threshold
+* Time to send notifications to stakeholders
+* Time to validate anomaly
+* Resolution Time/SLA adherence
+* False positive rate
+* Cost Avoidance due to detection
+* Percent anomalies addressed
+10*Ceil(x/8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Define data quality (complete, valid, etc.)
+* Manual quality checks
+* Automated checks (null % on required fields/tags)
+* Response process and triage defined
+* SLAs defined and monitored
+* Integrate with communication and alerting tools
+* Integrate into CI/CD pipelines
+10*Ceil(x/7)
+</t>
+  </si>
+  <si>
+    <t>Not in order, gain points for each task
+* Manual or basic logs
+* Define key metrics (failures, latency, etc.)
+* Static Dashboard updated manually
+* Automated alerts for failures
+* Integrate with communication and alerting tools
+* Define Process &amp; SLAs:RCAs completed for each
+* Tune out false positives
+10*Ceil(x/7)</t>
+  </si>
+  <si>
+    <t>* Manual adjustments to invoices and teams
+* Define Business Rules for sharing discounts, RI/SP, etc.
+* Automate adjustment calculations monthly in arrears
+* Automate mappings into reporting platform for realtime adjustments
+10*Ceil(x/4)</t>
+  </si>
+  <si>
+    <t>* Dashboard for showback
+* Dashboard where teams can dive in to investigate costs
+* Ad-hoc dashboards avaialble to teams
+* Dashboards for key metrics tracking (tagging, waste, etc.)
+10*Ceil(x/4)</t>
+  </si>
+  <si>
+    <t>* Data based on existing patterns
+* Proactive investigations and interviews with teams
+* Proactive self reporting by the business and/or teams
+* 100% catch rate of spikes before they happen
+10*Ceil(x/4)</t>
+  </si>
+  <si>
+    <t>((Forecasted Public Cloud Spend – Actual Public Cloud Spend) / Forecasted Public Cloud Spend)</t>
+  </si>
+  <si>
+    <t>* Periodic review of budget vs forecast
+* Track when projects are forecasted to go over budget
+* Process to request more budget for projects going over
+* RCA to determine cause of budget over run
+10*Ceil(x/4)</t>
+  </si>
+  <si>
+    <t>* Define and follow process for gathering deployment plans from teams
+* Determine timeline for each new project to adjust the forecast during that time
+* Determine how optimizations and lower run rate will impact the forecast on a rolling basis
+10*Ceil(x/3)</t>
+  </si>
+  <si>
+    <t>* Define cost drivers from finance/business
+* Gather metrics on a cadence
+* Set goals/targets
+* Set up forecasting and anomaly detection on units
+10*Ceil(x/4)</t>
   </si>
   <si>
     <t>[{'Score': 0, 'Condition': None}]</t>
   </si>
   <si>
-    <t>1: Test for 1</t>
+    <t>[{'Score': 0, 'Condition': 'No items completed'}, {'Score': 5, 'Condition': '1 item completed'}, {'Score': 10, 'Condition': '2 items completed'}]</t>
+  </si>
+  <si>
+    <t>[{'Score': 0, 'Condition': 'Not done'}, {'Score': 10, 'Condition': 'Defined'}]</t>
+  </si>
+  <si>
+    <t>[{'Score': 0, 'Condition': 'No rules established'}, {'Score': 10, 'Condition': 'Published policy'}]</t>
+  </si>
+  <si>
+    <t>[{'Score': 0, 'Condition': 'No items completed'}, {'Score': 2, 'Condition': '1 item completed'}, {'Score': 4, 'Condition': '2 items completed'}, {'Score': 6, 'Condition': '3 items completed'}, {'Score': 8, 'Condition': '4 items completed'}, {'Score': 10, 'Condition': '5 items completed'}]</t>
+  </si>
+  <si>
+    <t>[{'Score': 0, 'Condition': 'Not done'}, {'Score': 10, 'Condition': 'Done and clealy defined'}]</t>
+  </si>
+  <si>
+    <t>[{'Score': 0, 'Condition': 'No items completed'}, {'Score': 4, 'Condition': '1 item completed'}, {'Score': 7, 'Condition': '2 items completed'}, {'Score': 10, 'Condition': '3 items completed'}]</t>
+  </si>
+  <si>
+    <t>[{'Score': 0, 'Condition': 'Does not exist'}, {'Score': 10, 'Condition': 'Exists'}]</t>
+  </si>
+  <si>
+    <t>[{'Score': 0, 'Condition': 'No documented method'}, {'Score': 10, 'Condition': 'Documented method of assessing modernization efforts'}]</t>
+  </si>
+  <si>
+    <t>[{'Score': 0, 'Condition': '0%'}, {'Score': 1, 'Condition': '10%'}, {'Score': 2, 'Condition': '20%'}, {'Score': 3, 'Condition': '30%'}, {'Score': 4, 'Condition': '40%'}, {'Score': 5, 'Condition': '50%'}, {'Score': 6, 'Condition': '60%'}, {'Score': 7, 'Condition': '70%'}, {'Score': 8, 'Condition': '80%'}, {'Score': 9, 'Condition': '90%'}, {'Score': 10, 'Condition': 'Near 100%'}]</t>
+  </si>
+  <si>
+    <t>[{'Score': 0, 'Condition': 'Not done'}, {'Score': 10, 'Condition': 'Policy in place and published'}]</t>
+  </si>
+  <si>
+    <t>[{'Score': 0, 'Condition': 'No teardown/shutdown policy'}, {'Score': 3, 'Condition': 'Published policy'}, {'Score': 6, 'Condition': 'Classification tagged or otherwise identifiable'}, {'Score': 10, 'Condition': 'Enforced Policy with tagged/identifiable classifications'}]</t>
+  </si>
+  <si>
+    <t>[{'Score': 0, 'Condition': '0%'}, {'Score': 1, 'Condition': '10%'}, {'Score': 2, 'Condition': '20%'}, {'Score': 3, 'Condition': '30%'}, {'Score': 4, 'Condition': '40%'}, {'Score': 5, 'Condition': '50%'}, {'Score': 6, 'Condition': '60%'}, {'Score': 7, 'Condition': '70%'}, {'Score': 8, 'Condition': '80% '}, {'Score': 9, 'Condition': '90%'}, {'Score': 10, 'Condition': 'Near 100%'}]</t>
+  </si>
+  <si>
+    <t>[{'Score': 0, 'Condition': 'No items completed'}, {'Score': 5, 'Condition': '1 item  completed'}, {'Score': 10, 'Condition': '2 items completed'}]</t>
+  </si>
+  <si>
+    <t>[{'Score': 0, 'Condition': 'No items completed'}, {'Score': 3, 'Condition': '1 item completed'}, {'Score': 5, 'Condition': '2 items completed'}, {'Score': 8, 'Condition': '3 items completed'}, {'Score': 10, 'Condition': '4 items completed'}]</t>
+  </si>
+  <si>
+    <t>[{'Score': 0, 'Condition': 'No items completed'}, {'Score': 2, 'Condition': '1 item completed'}, {'Score': 4, 'Condition': '2 items completed'}, {'Score': 5, 'Condition': '3 items completed'}, {'Score': 7, 'Condition': '4 items completed'}, {'Score': 9, 'Condition': '5 items completed'}, {'Score': 10, 'Condition': '6 items completed'}]</t>
+  </si>
+  <si>
+    <t>[{'Score': 0, 'Condition': 'No alerting in worflow tools'}, {'Score': 1, 'Condition': 'Alerting in at least one tool'}, {'Score': 3, 'Condition': 'Alerting in some tooling [20%]'}, {'Score': 6, 'Condition': 'Alerting in most tooling [60%]'}, {'Score': 10, 'Condition': 'Alerting in all workflow tools [100%]'}]</t>
+  </si>
+  <si>
+    <t>[{'Score': 0, 'Condition': 'No items completed'}, {'Score': 2, 'Condition': '1 item completed'}, {'Score': 3, 'Condition': '2 items completed'}, {'Score': 4, 'Condition': '3 items completed'}, {'Score': 5, 'Condition': '4 items completed'}, {'Score': 7, 'Condition': '5 items completed'}, {'Score': 8, 'Condition': '6 items completed'}, {'Score': 9, 'Condition': '7 items completed'}, {'Score': 10, 'Condition': '8 items completed'}]</t>
+  </si>
+  <si>
+    <t>[{'Score': 0, 'Condition': 'Never'}, {'Score': 1, 'Condition': 'Monthly or greater'}, {'Score': 2, 'Condition': 'More than a week'}, {'Score': 3, 'Condition': '7 days'}, {'Score': 4, 'Condition': '5 days'}, {'Score': 6, 'Condition': '2 days'}, {'Score': 8, 'Condition': '1 day'}, {'Score': 10, 'Condition': 'Instant'}]</t>
+  </si>
+  <si>
+    <t>[{'Score': 0, 'Condition': 'No items completed'}, {'Score': 2, 'Condition': '1 items completed'}, {'Score': 3, 'Condition': '2 items completed'}, {'Score': 5, 'Condition': '3 items completed'}, {'Score': 6, 'Condition': '4 items completed'}, {'Score': 8, 'Condition': '5 items completed'}, {'Score': 9, 'Condition': '6 items completed'}, {'Score': 10, 'Condition': '7 items completed'}]</t>
+  </si>
+  <si>
+    <t>[{'Score': 0, 'Condition': 'No review of trends'}, {'Score': 3, 'Condition': 'Manual review of trends'}, {'Score': 6, 'Condition': 'Automated trend detection'}, {'Score': 10, 'Condition': 'Manual review and automated trend detection'}]</t>
+  </si>
+  <si>
+    <t>[{'Score': 0, 'Condition': 'None'}, {'Score': 1, 'Condition': 'Annual'}, {'Score': 2, 'Condition': 'Quarterly'}, {'Score': 5, 'Condition': 'Monthly'}, {'Score': 7, 'Condition': 'Bi-Weekly'}, {'Score': 8, 'Condition': 'Weekly'}, {'Score': 10, 'Condition': 'Daily'}]</t>
+  </si>
+  <si>
+    <t>[{'Score': 0, 'Condition': 'No alerting'}, {'Score': 10, 'Condition': 'Alerting exists'}]</t>
+  </si>
+  <si>
+    <t>[{'Score': 0, 'Condition': 'None'}, {'Score': 10, 'Condition': 'set goal thresholds for kpis and unit costs'}]</t>
+  </si>
+  <si>
+    <t>[{'Score': 0, 'Condition': 'Not monitored'}, {'Score': 2, 'Condition': 'Reported'}, {'Score': 5, 'Condition': 'Manual remediation'}, {'Score': 10, 'Condition': 'Automated remediation'}]</t>
   </si>
   <si>
     <t>0: None</t>
+  </si>
+  <si>
+    <t>0: No items completed</t>
+  </si>
+  <si>
+    <t>0: Not done</t>
+  </si>
+  <si>
+    <t>0: No rules established</t>
+  </si>
+  <si>
+    <t>0: Does not exist</t>
+  </si>
+  <si>
+    <t>0: No documented method</t>
+  </si>
+  <si>
+    <t>0: 0%</t>
+  </si>
+  <si>
+    <t>0: No teardown/shutdown policy</t>
+  </si>
+  <si>
+    <t>0: No alerting in worflow tools</t>
+  </si>
+  <si>
+    <t>0: Never</t>
+  </si>
+  <si>
+    <t>0: No review of trends</t>
+  </si>
+  <si>
+    <t>0: No alerting</t>
+  </si>
+  <si>
+    <t>0: Not monitored</t>
   </si>
 </sst>
 </file>
@@ -974,8 +1238,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1045,7 +1312,7 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1570,14 +1837,14 @@
     </row>
     <row r="2" spans="1:54">
       <c r="A2">
-        <f>SUM(Scoring!E2:E129)</f>
+        <f>SUM(Scoring!E2:E130)</f>
         <v>0</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
       <c r="C2">
-        <f>SUM(Scoring!H2:H129)/A2</f>
+        <f>SUM(Scoring!H2:H130)/A2</f>
         <v>0</v>
       </c>
       <c r="D2">
@@ -1604,7 +1871,7 @@
         <v>7</v>
       </c>
       <c r="BB4">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1618,7 +1885,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1628,55 +1895,56 @@
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="75.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="125.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>165</v>
+      <c r="D2" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="E2">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="H2">
         <f>E2*VALUE(LEFT(G2, FIND(":", G2)-1))</f>
@@ -1684,19 +1952,19 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>166</v>
+      <c r="D3" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H3">
         <f>E3*VALUE(LEFT(G3, FIND(":", G3)-1))</f>
@@ -1704,19 +1972,19 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>167</v>
+      <c r="D4" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H4">
         <f>E4*VALUE(LEFT(G4, FIND(":", G4)-1))</f>
@@ -1724,19 +1992,19 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>168</v>
+      <c r="D5" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H5">
         <f>E5*VALUE(LEFT(G5, FIND(":", G5)-1))</f>
@@ -1744,19 +2012,19 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>169</v>
+      <c r="D6" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H6">
         <f>E6*VALUE(LEFT(G6, FIND(":", G6)-1))</f>
@@ -1764,21 +2032,21 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>170</v>
+      <c r="D7" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H7">
         <f>E7*VALUE(LEFT(G7, FIND(":", G7)-1))</f>
@@ -1786,19 +2054,19 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>171</v>
+      <c r="D8" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H8">
         <f>E8*VALUE(LEFT(G8, FIND(":", G8)-1))</f>
@@ -1806,19 +2074,19 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>172</v>
+      <c r="D9" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H9">
         <f>E9*VALUE(LEFT(G9, FIND(":", G9)-1))</f>
@@ -1826,19 +2094,22 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>173</v>
+      <c r="D10" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="G10" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="H10">
         <f>E10*VALUE(LEFT(G10, FIND(":", G10)-1))</f>
@@ -1846,19 +2117,19 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>174</v>
+      <c r="D11" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H11">
         <f>E11*VALUE(LEFT(G11, FIND(":", G11)-1))</f>
@@ -1866,21 +2137,21 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>175</v>
+      <c r="D12" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="H12">
         <f>E12*VALUE(LEFT(G12, FIND(":", G12)-1))</f>
@@ -1888,19 +2159,19 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>176</v>
+      <c r="D13" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H13">
         <f>E13*VALUE(LEFT(G13, FIND(":", G13)-1))</f>
@@ -1908,19 +2179,19 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>177</v>
+      <c r="D14" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H14">
         <f>E14*VALUE(LEFT(G14, FIND(":", G14)-1))</f>
@@ -1928,19 +2199,19 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>178</v>
+      <c r="D15" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H15">
         <f>E15*VALUE(LEFT(G15, FIND(":", G15)-1))</f>
@@ -1948,19 +2219,19 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>179</v>
+      <c r="D16" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H16">
         <f>E16*VALUE(LEFT(G16, FIND(":", G16)-1))</f>
@@ -1968,19 +2239,19 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>180</v>
+      <c r="D17" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H17">
         <f>E17*VALUE(LEFT(G17, FIND(":", G17)-1))</f>
@@ -1988,21 +2259,21 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>181</v>
+      <c r="D18" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H18">
         <f>E18*VALUE(LEFT(G18, FIND(":", G18)-1))</f>
@@ -2010,19 +2281,19 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>182</v>
+      <c r="D19" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>296</v>
+        <v>345</v>
       </c>
       <c r="H19">
         <f>E19*VALUE(LEFT(G19, FIND(":", G19)-1))</f>
@@ -2030,19 +2301,19 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>183</v>
+      <c r="D20" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H20">
         <f>E20*VALUE(LEFT(G20, FIND(":", G20)-1))</f>
@@ -2050,19 +2321,22 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>184</v>
+      <c r="D21" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="G21" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="H21">
         <f>E21*VALUE(LEFT(G21, FIND(":", G21)-1))</f>
@@ -2070,19 +2344,19 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>185</v>
+      <c r="D22" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H22">
         <f>E22*VALUE(LEFT(G22, FIND(":", G22)-1))</f>
@@ -2090,21 +2364,21 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>186</v>
+      <c r="D23" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H23">
         <f>E23*VALUE(LEFT(G23, FIND(":", G23)-1))</f>
@@ -2112,19 +2386,19 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>187</v>
+      <c r="D24" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H24">
         <f>E24*VALUE(LEFT(G24, FIND(":", G24)-1))</f>
@@ -2132,19 +2406,19 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>188</v>
+      <c r="D25" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H25">
         <f>E25*VALUE(LEFT(G25, FIND(":", G25)-1))</f>
@@ -2152,19 +2426,19 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>189</v>
+      <c r="D26" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H26">
         <f>E26*VALUE(LEFT(G26, FIND(":", G26)-1))</f>
@@ -2172,19 +2446,19 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>190</v>
+      <c r="D27" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H27">
         <f>E27*VALUE(LEFT(G27, FIND(":", G27)-1))</f>
@@ -2192,19 +2466,19 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>191</v>
+      <c r="D28" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H28">
         <f>E28*VALUE(LEFT(G28, FIND(":", G28)-1))</f>
@@ -2212,21 +2486,21 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>192</v>
+      <c r="D29" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H29">
         <f>E29*VALUE(LEFT(G29, FIND(":", G29)-1))</f>
@@ -2234,19 +2508,19 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>193</v>
+      <c r="D30" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H30">
         <f>E30*VALUE(LEFT(G30, FIND(":", G30)-1))</f>
@@ -2254,19 +2528,19 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>194</v>
+      <c r="D31" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="H31">
         <f>E31*VALUE(LEFT(G31, FIND(":", G31)-1))</f>
@@ -2274,19 +2548,19 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>195</v>
+      <c r="D32" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H32">
         <f>E32*VALUE(LEFT(G32, FIND(":", G32)-1))</f>
@@ -2294,19 +2568,19 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>196</v>
+      <c r="D33" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H33">
         <f>E33*VALUE(LEFT(G33, FIND(":", G33)-1))</f>
@@ -2314,19 +2588,19 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1" t="s">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>197</v>
+      <c r="D34" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="H34">
         <f>E34*VALUE(LEFT(G34, FIND(":", G34)-1))</f>
@@ -2334,21 +2608,21 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>198</v>
+      <c r="D35" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H35">
         <f>E35*VALUE(LEFT(G35, FIND(":", G35)-1))</f>
@@ -2356,19 +2630,19 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>199</v>
+      <c r="D36" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H36">
         <f>E36*VALUE(LEFT(G36, FIND(":", G36)-1))</f>
@@ -2376,19 +2650,22 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1" t="s">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>200</v>
+      <c r="D37" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="G37" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="H37">
         <f>E37*VALUE(LEFT(G37, FIND(":", G37)-1))</f>
@@ -2396,19 +2673,19 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1" t="s">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>201</v>
+      <c r="D38" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H38">
         <f>E38*VALUE(LEFT(G38, FIND(":", G38)-1))</f>
@@ -2416,19 +2693,19 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1" t="s">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>202</v>
+      <c r="D39" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H39">
         <f>E39*VALUE(LEFT(G39, FIND(":", G39)-1))</f>
@@ -2436,19 +2713,19 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1" t="s">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>203</v>
+      <c r="D40" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H40">
         <f>E40*VALUE(LEFT(G40, FIND(":", G40)-1))</f>
@@ -2456,23 +2733,23 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>204</v>
+      <c r="D41" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="H41">
         <f>E41*VALUE(LEFT(G41, FIND(":", G41)-1))</f>
@@ -2480,19 +2757,22 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>205</v>
+      <c r="D42" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="G42" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="H42">
         <f>E42*VALUE(LEFT(G42, FIND(":", G42)-1))</f>
@@ -2500,19 +2780,19 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1" t="s">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>206</v>
+      <c r="D43" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>296</v>
+        <v>347</v>
       </c>
       <c r="H43">
         <f>E43*VALUE(LEFT(G43, FIND(":", G43)-1))</f>
@@ -2520,19 +2800,19 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1" t="s">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>207</v>
+      <c r="D44" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H44">
         <f>E44*VALUE(LEFT(G44, FIND(":", G44)-1))</f>
@@ -2540,19 +2820,19 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1" t="s">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>208</v>
+      <c r="D45" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H45">
         <f>E45*VALUE(LEFT(G45, FIND(":", G45)-1))</f>
@@ -2560,19 +2840,19 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1" t="s">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>209</v>
+      <c r="D46" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H46">
         <f>E46*VALUE(LEFT(G46, FIND(":", G46)-1))</f>
@@ -2580,21 +2860,21 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1" t="s">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>210</v>
+      <c r="D47" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="H47">
         <f>E47*VALUE(LEFT(G47, FIND(":", G47)-1))</f>
@@ -2602,19 +2882,19 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1" t="s">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>211</v>
+      <c r="D48" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H48">
         <f>E48*VALUE(LEFT(G48, FIND(":", G48)-1))</f>
@@ -2622,19 +2902,19 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1" t="s">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>212</v>
+      <c r="D49" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H49">
         <f>E49*VALUE(LEFT(G49, FIND(":", G49)-1))</f>
@@ -2642,19 +2922,19 @@
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1" t="s">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>213</v>
+      <c r="D50" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="H50">
         <f>E50*VALUE(LEFT(G50, FIND(":", G50)-1))</f>
@@ -2662,19 +2942,19 @@
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1" t="s">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>214</v>
+      <c r="D51" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H51">
         <f>E51*VALUE(LEFT(G51, FIND(":", G51)-1))</f>
@@ -2682,19 +2962,19 @@
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1" t="s">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>215</v>
+      <c r="D52" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H52">
         <f>E52*VALUE(LEFT(G52, FIND(":", G52)-1))</f>
@@ -2702,21 +2982,21 @@
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1" t="s">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>216</v>
+      <c r="D53" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="H53">
         <f>E53*VALUE(LEFT(G53, FIND(":", G53)-1))</f>
@@ -2724,19 +3004,19 @@
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1" t="s">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>217</v>
+      <c r="D54" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="H54">
         <f>E54*VALUE(LEFT(G54, FIND(":", G54)-1))</f>
@@ -2744,19 +3024,19 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1" t="s">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>218</v>
+      <c r="D55" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H55">
         <f>E55*VALUE(LEFT(G55, FIND(":", G55)-1))</f>
@@ -2764,19 +3044,19 @@
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1" t="s">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>219</v>
+      <c r="D56" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H56">
         <f>E56*VALUE(LEFT(G56, FIND(":", G56)-1))</f>
@@ -2784,19 +3064,19 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1" t="s">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>220</v>
+      <c r="D57" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H57">
         <f>E57*VALUE(LEFT(G57, FIND(":", G57)-1))</f>
@@ -2804,19 +3084,22 @@
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1" t="s">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>221</v>
+      <c r="D58" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="G58" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="H58">
         <f>E58*VALUE(LEFT(G58, FIND(":", G58)-1))</f>
@@ -2824,21 +3107,21 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1" t="s">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>222</v>
+      <c r="D59" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H59">
         <f>E59*VALUE(LEFT(G59, FIND(":", G59)-1))</f>
@@ -2846,19 +3129,19 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1" t="s">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>223</v>
+      <c r="D60" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>296</v>
+        <v>349</v>
       </c>
       <c r="H60">
         <f>E60*VALUE(LEFT(G60, FIND(":", G60)-1))</f>
@@ -2866,19 +3149,19 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1" t="s">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>224</v>
+      <c r="D61" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="H61">
         <f>E61*VALUE(LEFT(G61, FIND(":", G61)-1))</f>
@@ -2886,19 +3169,19 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1" t="s">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>225</v>
+      <c r="D62" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H62">
         <f>E62*VALUE(LEFT(G62, FIND(":", G62)-1))</f>
@@ -2906,19 +3189,19 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1" t="s">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>226</v>
+      <c r="D63" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H63">
         <f>E63*VALUE(LEFT(G63, FIND(":", G63)-1))</f>
@@ -2926,19 +3209,19 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1" t="s">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>227</v>
+      <c r="D64" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H64">
         <f>E64*VALUE(LEFT(G64, FIND(":", G64)-1))</f>
@@ -2946,21 +3229,24 @@
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1" t="s">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>228</v>
+      <c r="D65" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="G65" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="H65">
         <f>E65*VALUE(LEFT(G65, FIND(":", G65)-1))</f>
@@ -2968,19 +3254,22 @@
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1" t="s">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>229</v>
+      <c r="D66" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="G66" t="s">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="H66">
         <f>E66*VALUE(LEFT(G66, FIND(":", G66)-1))</f>
@@ -2988,19 +3277,22 @@
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1" t="s">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>230</v>
+      <c r="D67" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="G67" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="H67">
         <f>E67*VALUE(LEFT(G67, FIND(":", G67)-1))</f>
@@ -3008,19 +3300,22 @@
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1" t="s">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>231</v>
+      <c r="D68" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="G68" t="s">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="H68">
         <f>E68*VALUE(LEFT(G68, FIND(":", G68)-1))</f>
@@ -3028,19 +3323,22 @@
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1" t="s">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>232</v>
+      <c r="D69" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="G69" t="s">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="H69">
         <f>E69*VALUE(LEFT(G69, FIND(":", G69)-1))</f>
@@ -3048,19 +3346,22 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1" t="s">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>233</v>
+      <c r="D70" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="G70" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="H70">
         <f>E70*VALUE(LEFT(G70, FIND(":", G70)-1))</f>
@@ -3068,19 +3369,19 @@
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1" t="s">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>234</v>
+      <c r="D71" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H71">
         <f>E71*VALUE(LEFT(G71, FIND(":", G71)-1))</f>
@@ -3088,21 +3389,24 @@
       </c>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1" t="s">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>235</v>
+      <c r="D72" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="G72" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="H72">
         <f>E72*VALUE(LEFT(G72, FIND(":", G72)-1))</f>
@@ -3110,19 +3414,22 @@
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1" t="s">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>236</v>
+      <c r="D73" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>306</v>
       </c>
       <c r="G73" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="H73">
         <f>E73*VALUE(LEFT(G73, FIND(":", G73)-1))</f>
@@ -3130,19 +3437,19 @@
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1" t="s">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>237</v>
+      <c r="D74" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
       <c r="H74">
         <f>E74*VALUE(LEFT(G74, FIND(":", G74)-1))</f>
@@ -3150,19 +3457,19 @@
       </c>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1" t="s">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>238</v>
+      <c r="D75" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H75">
         <f>E75*VALUE(LEFT(G75, FIND(":", G75)-1))</f>
@@ -3170,19 +3477,19 @@
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1" t="s">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>239</v>
+      <c r="D76" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H76">
         <f>E76*VALUE(LEFT(G76, FIND(":", G76)-1))</f>
@@ -3190,19 +3497,22 @@
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1" t="s">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>240</v>
+      <c r="D77" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>307</v>
       </c>
       <c r="G77" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="H77">
         <f>E77*VALUE(LEFT(G77, FIND(":", G77)-1))</f>
@@ -3210,19 +3520,19 @@
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1" t="s">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>241</v>
+      <c r="D78" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H78">
         <f>E78*VALUE(LEFT(G78, FIND(":", G78)-1))</f>
@@ -3230,21 +3540,21 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1" t="s">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>242</v>
+      <c r="D79" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H79">
         <f>E79*VALUE(LEFT(G79, FIND(":", G79)-1))</f>
@@ -3252,19 +3562,19 @@
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1" t="s">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>243</v>
+      <c r="D80" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H80">
         <f>E80*VALUE(LEFT(G80, FIND(":", G80)-1))</f>
@@ -3272,19 +3582,19 @@
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1" t="s">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>244</v>
+      <c r="D81" s="3" t="s">
+        <v>245</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H81">
         <f>E81*VALUE(LEFT(G81, FIND(":", G81)-1))</f>
@@ -3292,19 +3602,19 @@
       </c>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1" t="s">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>245</v>
+      <c r="D82" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>296</v>
+        <v>351</v>
       </c>
       <c r="H82">
         <f>E82*VALUE(LEFT(G82, FIND(":", G82)-1))</f>
@@ -3312,19 +3622,19 @@
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1" t="s">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>246</v>
+      <c r="D83" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H83">
         <f>E83*VALUE(LEFT(G83, FIND(":", G83)-1))</f>
@@ -3332,19 +3642,22 @@
       </c>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1" t="s">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>247</v>
+      <c r="D84" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="G84" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="H84">
         <f>E84*VALUE(LEFT(G84, FIND(":", G84)-1))</f>
@@ -3352,19 +3665,22 @@
       </c>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1" t="s">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>248</v>
+      <c r="D85" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="G85" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="H85">
         <f>E85*VALUE(LEFT(G85, FIND(":", G85)-1))</f>
@@ -3372,19 +3688,19 @@
       </c>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1" t="s">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>249</v>
+      <c r="D86" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H86">
         <f>E86*VALUE(LEFT(G86, FIND(":", G86)-1))</f>
@@ -3392,21 +3708,19 @@
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>250</v>
+      <c r="D87" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>296</v>
+        <v>351</v>
       </c>
       <c r="H87">
         <f>E87*VALUE(LEFT(G87, FIND(":", G87)-1))</f>
@@ -3414,19 +3728,21 @@
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1" t="s">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="3" t="s">
         <v>251</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H88">
         <f>E88*VALUE(LEFT(G88, FIND(":", G88)-1))</f>
@@ -3434,19 +3750,22 @@
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1" t="s">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="3" t="s">
         <v>252</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="G89" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="H89">
         <f>E89*VALUE(LEFT(G89, FIND(":", G89)-1))</f>
@@ -3454,19 +3773,22 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1" t="s">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="3" t="s">
         <v>253</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="G90" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="H90">
         <f>E90*VALUE(LEFT(G90, FIND(":", G90)-1))</f>
@@ -3474,19 +3796,19 @@
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1" t="s">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="3" t="s">
         <v>254</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H91">
         <f>E91*VALUE(LEFT(G91, FIND(":", G91)-1))</f>
@@ -3494,19 +3816,19 @@
       </c>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1" t="s">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="3" t="s">
         <v>255</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
       <c r="H92">
         <f>E92*VALUE(LEFT(G92, FIND(":", G92)-1))</f>
@@ -3514,19 +3836,19 @@
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1" t="s">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="3" t="s">
         <v>256</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H93">
         <f>E93*VALUE(LEFT(G93, FIND(":", G93)-1))</f>
@@ -3534,23 +3856,19 @@
       </c>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C94" s="1" t="s">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="3" t="s">
         <v>257</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H94">
         <f>E94*VALUE(LEFT(G94, FIND(":", G94)-1))</f>
@@ -3558,19 +3876,23 @@
       </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1" t="s">
+      <c r="A95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="3" t="s">
         <v>258</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H95">
         <f>E95*VALUE(LEFT(G95, FIND(":", G95)-1))</f>
@@ -3578,19 +3900,19 @@
       </c>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1" t="s">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="3" t="s">
         <v>259</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H96">
         <f>E96*VALUE(LEFT(G96, FIND(":", G96)-1))</f>
@@ -3598,19 +3920,19 @@
       </c>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1" t="s">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="3" t="s">
         <v>260</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H97">
         <f>E97*VALUE(LEFT(G97, FIND(":", G97)-1))</f>
@@ -3618,19 +3940,19 @@
       </c>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1" t="s">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="3" t="s">
         <v>261</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H98">
         <f>E98*VALUE(LEFT(G98, FIND(":", G98)-1))</f>
@@ -3638,19 +3960,19 @@
       </c>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1" t="s">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="3" t="s">
         <v>262</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>296</v>
+        <v>352</v>
       </c>
       <c r="H99">
         <f>E99*VALUE(LEFT(G99, FIND(":", G99)-1))</f>
@@ -3658,21 +3980,19 @@
       </c>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C100" s="1" t="s">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="3" t="s">
         <v>263</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H100">
         <f>E100*VALUE(LEFT(G100, FIND(":", G100)-1))</f>
@@ -3680,19 +4000,21 @@
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1" t="s">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="3" t="s">
         <v>264</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="H101">
         <f>E101*VALUE(LEFT(G101, FIND(":", G101)-1))</f>
@@ -3700,19 +4022,19 @@
       </c>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1" t="s">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="3" t="s">
         <v>265</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="H102">
         <f>E102*VALUE(LEFT(G102, FIND(":", G102)-1))</f>
@@ -3720,19 +4042,19 @@
       </c>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1" t="s">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="3" t="s">
         <v>266</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H103">
         <f>E103*VALUE(LEFT(G103, FIND(":", G103)-1))</f>
@@ -3740,19 +4062,19 @@
       </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1" t="s">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="3" t="s">
         <v>267</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H104">
         <f>E104*VALUE(LEFT(G104, FIND(":", G104)-1))</f>
@@ -3760,19 +4082,19 @@
       </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1" t="s">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="3" t="s">
         <v>268</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H105">
         <f>E105*VALUE(LEFT(G105, FIND(":", G105)-1))</f>
@@ -3780,21 +4102,19 @@
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C106" s="1" t="s">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="3" t="s">
         <v>269</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H106">
         <f>E106*VALUE(LEFT(G106, FIND(":", G106)-1))</f>
@@ -3802,19 +4122,21 @@
       </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1" t="s">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" s="3" t="s">
         <v>270</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H107">
         <f>E107*VALUE(LEFT(G107, FIND(":", G107)-1))</f>
@@ -3822,19 +4144,22 @@
       </c>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1" t="s">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="3" t="s">
         <v>271</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>312</v>
       </c>
       <c r="G108" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="H108">
         <f>E108*VALUE(LEFT(G108, FIND(":", G108)-1))</f>
@@ -3842,19 +4167,19 @@
       </c>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1" t="s">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D109" s="3" t="s">
         <v>272</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H109">
         <f>E109*VALUE(LEFT(G109, FIND(":", G109)-1))</f>
@@ -3862,19 +4187,22 @@
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1" t="s">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" s="3" t="s">
         <v>273</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="G110" t="s">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="H110">
         <f>E110*VALUE(LEFT(G110, FIND(":", G110)-1))</f>
@@ -3882,19 +4210,19 @@
       </c>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1" t="s">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="3" t="s">
         <v>274</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>296</v>
+        <v>353</v>
       </c>
       <c r="H111">
         <f>E111*VALUE(LEFT(G111, FIND(":", G111)-1))</f>
@@ -3902,21 +4230,22 @@
       </c>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C112" s="1" t="s">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" s="3" t="s">
         <v>275</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="G112" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="H112">
         <f>E112*VALUE(LEFT(G112, FIND(":", G112)-1))</f>
@@ -3924,19 +4253,21 @@
       </c>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1" t="s">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D113" s="3" t="s">
         <v>276</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H113">
         <f>E113*VALUE(LEFT(G113, FIND(":", G113)-1))</f>
@@ -3944,19 +4275,19 @@
       </c>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1" t="s">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" s="3" t="s">
         <v>277</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H114">
         <f>E114*VALUE(LEFT(G114, FIND(":", G114)-1))</f>
@@ -3964,19 +4295,19 @@
       </c>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1" t="s">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D115" s="3" t="s">
         <v>278</v>
       </c>
       <c r="E115">
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H115">
         <f>E115*VALUE(LEFT(G115, FIND(":", G115)-1))</f>
@@ -3984,19 +4315,19 @@
       </c>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1" t="s">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D116" s="3" t="s">
         <v>279</v>
       </c>
       <c r="E116">
         <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H116">
         <f>E116*VALUE(LEFT(G116, FIND(":", G116)-1))</f>
@@ -4004,19 +4335,22 @@
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1" t="s">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D117" s="3" t="s">
         <v>280</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="G117" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="H117">
         <f>E117*VALUE(LEFT(G117, FIND(":", G117)-1))</f>
@@ -4024,19 +4358,19 @@
       </c>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1" t="s">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D118" s="3" t="s">
         <v>281</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="H118">
         <f>E118*VALUE(LEFT(G118, FIND(":", G118)-1))</f>
@@ -4044,21 +4378,19 @@
       </c>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C119" s="1" t="s">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D119" s="3" t="s">
         <v>282</v>
       </c>
       <c r="E119">
         <v>0</v>
       </c>
       <c r="G119" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H119">
         <f>E119*VALUE(LEFT(G119, FIND(":", G119)-1))</f>
@@ -4066,19 +4398,24 @@
       </c>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1" t="s">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D120" s="3" t="s">
         <v>283</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="G120" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="H120">
         <f>E120*VALUE(LEFT(G120, FIND(":", G120)-1))</f>
@@ -4086,19 +4423,19 @@
       </c>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1" t="s">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D121" s="3" t="s">
         <v>284</v>
       </c>
       <c r="E121">
         <v>0</v>
       </c>
       <c r="G121" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H121">
         <f>E121*VALUE(LEFT(G121, FIND(":", G121)-1))</f>
@@ -4106,19 +4443,19 @@
       </c>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1" t="s">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D122" s="3" t="s">
         <v>285</v>
       </c>
       <c r="E122">
         <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H122">
         <f>E122*VALUE(LEFT(G122, FIND(":", G122)-1))</f>
@@ -4126,19 +4463,19 @@
       </c>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1" t="s">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D123" s="3" t="s">
         <v>286</v>
       </c>
       <c r="E123">
         <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H123">
         <f>E123*VALUE(LEFT(G123, FIND(":", G123)-1))</f>
@@ -4146,19 +4483,19 @@
       </c>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1" t="s">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D124" s="3" t="s">
         <v>287</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H124">
         <f>E124*VALUE(LEFT(G124, FIND(":", G124)-1))</f>
@@ -4166,23 +4503,19 @@
       </c>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C125" s="1" t="s">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D125" s="3" t="s">
         <v>288</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H125">
         <f>E125*VALUE(LEFT(G125, FIND(":", G125)-1))</f>
@@ -4190,19 +4523,23 @@
       </c>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1" t="s">
+      <c r="A126" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D126" s="3" t="s">
         <v>289</v>
       </c>
       <c r="E126">
         <v>0</v>
       </c>
       <c r="G126" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H126">
         <f>E126*VALUE(LEFT(G126, FIND(":", G126)-1))</f>
@@ -4210,19 +4547,19 @@
       </c>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1" t="s">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D127" s="3" t="s">
         <v>290</v>
       </c>
       <c r="E127">
         <v>0</v>
       </c>
       <c r="G127" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H127">
         <f>E127*VALUE(LEFT(G127, FIND(":", G127)-1))</f>
@@ -4230,19 +4567,19 @@
       </c>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1" t="s">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D128" s="3" t="s">
         <v>291</v>
       </c>
       <c r="E128">
         <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H128">
         <f>E128*VALUE(LEFT(G128, FIND(":", G128)-1))</f>
@@ -4250,31 +4587,51 @@
       </c>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1" t="s">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D129" s="3" t="s">
         <v>292</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>296</v>
+        <v>354</v>
       </c>
       <c r="H129">
         <f>E129*VALUE(LEFT(G129, FIND(":", G129)-1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="G130" t="s">
+        <v>342</v>
+      </c>
+      <c r="H130">
+        <f>E130*VALUE(LEFT(G130, FIND(":", G130)-1))</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
     <mergeCell ref="A2:A40"/>
-    <mergeCell ref="A41:A93"/>
-    <mergeCell ref="A94:A124"/>
-    <mergeCell ref="A125:A129"/>
+    <mergeCell ref="A41:A94"/>
+    <mergeCell ref="A95:A125"/>
+    <mergeCell ref="A126:A130"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="B12:B17"/>
@@ -4288,18 +4645,18 @@
     <mergeCell ref="B59:B64"/>
     <mergeCell ref="B65:B71"/>
     <mergeCell ref="B72:B78"/>
-    <mergeCell ref="B79:B86"/>
-    <mergeCell ref="B87:B93"/>
-    <mergeCell ref="B94:B99"/>
-    <mergeCell ref="B100:B105"/>
-    <mergeCell ref="B106:B111"/>
-    <mergeCell ref="B112:B118"/>
-    <mergeCell ref="B119:B124"/>
-    <mergeCell ref="B125:B129"/>
+    <mergeCell ref="B79:B87"/>
+    <mergeCell ref="B88:B94"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="B101:B106"/>
+    <mergeCell ref="B107:B112"/>
+    <mergeCell ref="B113:B119"/>
+    <mergeCell ref="B120:B125"/>
+    <mergeCell ref="B126:B130"/>
   </mergeCells>
-  <dataValidations count="128">
+  <dataValidations count="129">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
-      <formula1>"1: Test for 1,5: Test for 5,10: Test for 10"</formula1>
+      <formula1>"0: None"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
       <formula1>"0: None"</formula1>
@@ -4323,13 +4680,13 @@
       <formula1>"0: None"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: No items completed,5: 1 item completed,10: 2 items completed"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11">
       <formula1>"0: None"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: Not done,10: Defined"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13">
       <formula1>"0: None"</formula1>
@@ -4350,13 +4707,13 @@
       <formula1>"0: None"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G19">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: No rules established,10: Published policy"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G20">
       <formula1>"0: None"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G21">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: No items completed,2: 1 item completed,4: 2 items completed,6: 3 items completed,8: 4 items completed,10: 5 items completed"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G22">
       <formula1>"0: None"</formula1>
@@ -4386,7 +4743,7 @@
       <formula1>"0: None"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G31">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: Not done,10: Done and clealy defined"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G32">
       <formula1>"0: None"</formula1>
@@ -4395,7 +4752,7 @@
       <formula1>"0: None"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G34">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: Not done,10: Defined"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G35">
       <formula1>"0: None"</formula1>
@@ -4404,7 +4761,7 @@
       <formula1>"0: None"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G37">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: No items completed,4: 1 item completed,7: 2 items completed,10: 3 items completed"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G38">
       <formula1>"0: None"</formula1>
@@ -4416,13 +4773,13 @@
       <formula1>"0: None"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G41">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: Does not exist,10: Exists"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G42">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: No items completed,2: 1 item completed,4: 2 items completed,6: 3 items completed,8: 4 items completed,10: 5 items completed"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G43">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: No documented method,10: Documented method of assessing modernization efforts"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G44">
       <formula1>"0: None"</formula1>
@@ -4434,7 +4791,7 @@
       <formula1>"0: None"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G47">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: 0%,1: 10%,2: 20%,3: 30%,4: 40%,5: 50%,6: 60%,7: 70%,8: 80%,9: 90%,10: Near 100%"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G48">
       <formula1>"0: None"</formula1>
@@ -4443,7 +4800,7 @@
       <formula1>"0: None"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G50">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: Not done,10: Policy in place and published"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G51">
       <formula1>"0: None"</formula1>
@@ -4452,10 +4809,10 @@
       <formula1>"0: None"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G53">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: Not done,10: Policy in place and published"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G54">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: Not done,10: Policy in place and published"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G55">
       <formula1>"0: None"</formula1>
@@ -4467,16 +4824,16 @@
       <formula1>"0: None"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G58">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: No items completed,2: 1 item completed,4: 2 items completed,6: 3 items completed,8: 4 items completed,10: 5 items completed"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G59">
       <formula1>"0: None"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G60">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: No teardown/shutdown policy,3: Published policy,6: Classification tagged or otherwise identifiable,10: Enforced Policy with tagged/identifiable classifications"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G61">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: 0%,1: 10%,2: 20%,3: 30%,4: 40%,5: 50%,6: 60%,7: 70%,8: 80%,9: 90%,10: Near 100%"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G62">
       <formula1>"0: None"</formula1>
@@ -4488,34 +4845,34 @@
       <formula1>"0: None"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G65">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: No items completed,5: 1 item completed,10: 2 items completed"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G66">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: 0%,1: 10%,2: 20%,3: 30%,4: 40%,5: 50%,6: 60%,7: 70%,8: 80% ,9: 90%,10: Near 100%"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G67">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: No items completed,5: 1 item  completed,10: 2 items completed"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G68">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: 0%,1: 10%,2: 20%,3: 30%,4: 40%,5: 50%,6: 60%,7: 70%,8: 80%,9: 90%,10: Near 100%"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G69">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: 0%,1: 10%,2: 20%,3: 30%,4: 40%,5: 50%,6: 60%,7: 70%,8: 80%,9: 90%,10: Near 100%"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G70">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: No items completed,3: 1 item completed,5: 2 items completed,8: 3 items completed,10: 4 items completed"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G71">
       <formula1>"0: None"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G72">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: No items completed,2: 1 item completed,4: 2 items completed,6: 3 items completed,8: 4 items completed,10: 5 items completed"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G73">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: No items completed,2: 1 item completed,4: 2 items completed,5: 3 items completed,7: 4 items completed,9: 5 items completed,10: 6 items completed"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G74">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: No alerting in worflow tools,1: Alerting in at least one tool,3: Alerting in some tooling [20%],6: Alerting in most tooling [60%],10: Alerting in all workflow tools [100%]"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G75">
       <formula1>"0: None"</formula1>
@@ -4524,7 +4881,7 @@
       <formula1>"0: None"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G77">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: No items completed,2: 1 item completed,3: 2 items completed,4: 3 items completed,5: 4 items completed,7: 5 items completed,8: 6 items completed,9: 7 items completed,10: 8 items completed"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G78">
       <formula1>"0: None"</formula1>
@@ -4539,37 +4896,37 @@
       <formula1>"0: None"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G82">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: Never,1: Monthly or greater,2: More than a week,3: 7 days,4: 5 days,6: 2 days,8: 1 day,10: Instant"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G83">
       <formula1>"0: None"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G84">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: No items completed,2: 1 items completed,3: 2 items completed,5: 3 items completed,6: 4 items completed,8: 5 items completed,9: 6 items completed,10: 7 items completed"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G85">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: No items completed,2: 1 items completed,3: 2 items completed,5: 3 items completed,6: 4 items completed,8: 5 items completed,9: 6 items completed,10: 7 items completed"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G86">
       <formula1>"0: None"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G87">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: Never,1: Monthly or greater,2: More than a week,3: 7 days,4: 5 days,6: 2 days,8: 1 day,10: Instant"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G88">
       <formula1>"0: None"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G89">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: No items completed,3: 1 item completed,5: 2 items completed,8: 3 items completed,10: 4 items completed"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G90">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: No items completed,3: 1 item completed,5: 2 items completed,8: 3 items completed,10: 4 items completed"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G91">
       <formula1>"0: None"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G92">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: No alerting in worflow tools,1: Alerting in at least one tool,3: Alerting in some tooling [20%],6: Alerting in most tooling [60%],10: Alerting in all workflow tools [100%]"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G93">
       <formula1>"0: None"</formula1>
@@ -4590,16 +4947,16 @@
       <formula1>"0: None"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G99">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: No review of trends,3: Manual review of trends,6: Automated trend detection,10: Manual review and automated trend detection"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G100">
       <formula1>"0: None"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G101">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: Does not exist,10: Exists"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G102">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: Does not exist,10: Exists"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G103">
       <formula1>"0: None"</formula1>
@@ -4617,19 +4974,19 @@
       <formula1>"0: None"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G108">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: No items completed,3: 1 item completed,5: 2 items completed,8: 3 items completed,10: 4 items completed"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G109">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: None,1: Annual,2: Quarterly,5: Monthly,7: Bi-Weekly,8: Weekly,10: Daily"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G110">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: 0%,1: 10%,2: 20%,3: 30%,4: 40%,5: 50%,6: 60%,7: 70%,8: 80%,9: 90%,10: Near 100%"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G111">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: No alerting,10: Alerting exists"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G112">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: No items completed,3: 1 item completed,5: 2 items completed,8: 3 items completed,10: 4 items completed"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G113">
       <formula1>"0: None"</formula1>
@@ -4644,16 +5001,16 @@
       <formula1>"0: None"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G117">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: No items completed,4: 1 item completed,7: 2 items completed,10: 3 items completed"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G118">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: 0%,1: 10%,2: 20%,3: 30%,4: 40%,5: 50%,6: 60%,7: 70%,8: 80%,9: 90%,10: Near 100%"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G119">
       <formula1>"0: None"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G120">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: No items completed,3: 1 item completed,5: 2 items completed,8: 3 items completed,10: 4 items completed"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G121">
       <formula1>"0: None"</formula1>
@@ -4668,7 +5025,7 @@
       <formula1>"0: None"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G125">
-      <formula1>"0: None"</formula1>
+      <formula1>"0: None,10: set goal thresholds for kpis and unit costs"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G126">
       <formula1>"0: None"</formula1>
@@ -4680,6 +5037,9 @@
       <formula1>"0: None"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G129">
+      <formula1>"0: Not monitored,2: Reported,5: Manual remediation,10: Automated remediation"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G130">
       <formula1>"0: None"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4812,6 +5172,7 @@
     <hyperlink ref="D127" r:id="rId126"/>
     <hyperlink ref="D128" r:id="rId127"/>
     <hyperlink ref="D129" r:id="rId128"/>
+    <hyperlink ref="D130" r:id="rId129"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/assessments/FinOps++/assessment.xlsx
+++ b/assessments/FinOps++/assessment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="356">
   <si>
     <t>Sum of Weights</t>
   </si>
@@ -769,6 +769,9 @@
   </si>
   <si>
     <t>008</t>
+  </si>
+  <si>
+    <t>135</t>
   </si>
   <si>
     <t>016</t>
@@ -1944,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H2">
         <f>E2*VALUE(LEFT(G2, FIND(":", G2)-1))</f>
@@ -1964,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H3">
         <f>E3*VALUE(LEFT(G3, FIND(":", G3)-1))</f>
@@ -1984,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H4">
         <f>E4*VALUE(LEFT(G4, FIND(":", G4)-1))</f>
@@ -2004,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H5">
         <f>E5*VALUE(LEFT(G5, FIND(":", G5)-1))</f>
@@ -2024,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H6">
         <f>E6*VALUE(LEFT(G6, FIND(":", G6)-1))</f>
@@ -2046,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H7">
         <f>E7*VALUE(LEFT(G7, FIND(":", G7)-1))</f>
@@ -2066,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H8">
         <f>E8*VALUE(LEFT(G8, FIND(":", G8)-1))</f>
@@ -2086,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H9">
         <f>E9*VALUE(LEFT(G9, FIND(":", G9)-1))</f>
@@ -2106,10 +2109,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H10">
         <f>E10*VALUE(LEFT(G10, FIND(":", G10)-1))</f>
@@ -2129,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H11">
         <f>E11*VALUE(LEFT(G11, FIND(":", G11)-1))</f>
@@ -2151,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H12">
         <f>E12*VALUE(LEFT(G12, FIND(":", G12)-1))</f>
@@ -2171,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H13">
         <f>E13*VALUE(LEFT(G13, FIND(":", G13)-1))</f>
@@ -2191,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H14">
         <f>E14*VALUE(LEFT(G14, FIND(":", G14)-1))</f>
@@ -2211,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H15">
         <f>E15*VALUE(LEFT(G15, FIND(":", G15)-1))</f>
@@ -2231,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H16">
         <f>E16*VALUE(LEFT(G16, FIND(":", G16)-1))</f>
@@ -2251,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H17">
         <f>E17*VALUE(LEFT(G17, FIND(":", G17)-1))</f>
@@ -2273,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H18">
         <f>E18*VALUE(LEFT(G18, FIND(":", G18)-1))</f>
@@ -2293,7 +2296,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H19">
         <f>E19*VALUE(LEFT(G19, FIND(":", G19)-1))</f>
@@ -2313,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H20">
         <f>E20*VALUE(LEFT(G20, FIND(":", G20)-1))</f>
@@ -2333,10 +2336,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H21">
         <f>E21*VALUE(LEFT(G21, FIND(":", G21)-1))</f>
@@ -2356,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H22">
         <f>E22*VALUE(LEFT(G22, FIND(":", G22)-1))</f>
@@ -2378,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H23">
         <f>E23*VALUE(LEFT(G23, FIND(":", G23)-1))</f>
@@ -2398,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H24">
         <f>E24*VALUE(LEFT(G24, FIND(":", G24)-1))</f>
@@ -2418,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H25">
         <f>E25*VALUE(LEFT(G25, FIND(":", G25)-1))</f>
@@ -2438,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H26">
         <f>E26*VALUE(LEFT(G26, FIND(":", G26)-1))</f>
@@ -2458,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H27">
         <f>E27*VALUE(LEFT(G27, FIND(":", G27)-1))</f>
@@ -2478,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H28">
         <f>E28*VALUE(LEFT(G28, FIND(":", G28)-1))</f>
@@ -2500,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H29">
         <f>E29*VALUE(LEFT(G29, FIND(":", G29)-1))</f>
@@ -2520,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H30">
         <f>E30*VALUE(LEFT(G30, FIND(":", G30)-1))</f>
@@ -2540,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H31">
         <f>E31*VALUE(LEFT(G31, FIND(":", G31)-1))</f>
@@ -2560,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H32">
         <f>E32*VALUE(LEFT(G32, FIND(":", G32)-1))</f>
@@ -2580,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H33">
         <f>E33*VALUE(LEFT(G33, FIND(":", G33)-1))</f>
@@ -2600,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H34">
         <f>E34*VALUE(LEFT(G34, FIND(":", G34)-1))</f>
@@ -2622,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H35">
         <f>E35*VALUE(LEFT(G35, FIND(":", G35)-1))</f>
@@ -2642,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H36">
         <f>E36*VALUE(LEFT(G36, FIND(":", G36)-1))</f>
@@ -2662,10 +2665,10 @@
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G37" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H37">
         <f>E37*VALUE(LEFT(G37, FIND(":", G37)-1))</f>
@@ -2685,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H38">
         <f>E38*VALUE(LEFT(G38, FIND(":", G38)-1))</f>
@@ -2705,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H39">
         <f>E39*VALUE(LEFT(G39, FIND(":", G39)-1))</f>
@@ -2725,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H40">
         <f>E40*VALUE(LEFT(G40, FIND(":", G40)-1))</f>
@@ -2749,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H41">
         <f>E41*VALUE(LEFT(G41, FIND(":", G41)-1))</f>
@@ -2769,10 +2772,10 @@
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G42" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H42">
         <f>E42*VALUE(LEFT(G42, FIND(":", G42)-1))</f>
@@ -2792,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H43">
         <f>E43*VALUE(LEFT(G43, FIND(":", G43)-1))</f>
@@ -2812,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H44">
         <f>E44*VALUE(LEFT(G44, FIND(":", G44)-1))</f>
@@ -2832,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H45">
         <f>E45*VALUE(LEFT(G45, FIND(":", G45)-1))</f>
@@ -2852,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H46">
         <f>E46*VALUE(LEFT(G46, FIND(":", G46)-1))</f>
@@ -2874,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H47">
         <f>E47*VALUE(LEFT(G47, FIND(":", G47)-1))</f>
@@ -2894,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H48">
         <f>E48*VALUE(LEFT(G48, FIND(":", G48)-1))</f>
@@ -2914,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H49">
         <f>E49*VALUE(LEFT(G49, FIND(":", G49)-1))</f>
@@ -2934,7 +2937,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H50">
         <f>E50*VALUE(LEFT(G50, FIND(":", G50)-1))</f>
@@ -2954,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H51">
         <f>E51*VALUE(LEFT(G51, FIND(":", G51)-1))</f>
@@ -2974,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H52">
         <f>E52*VALUE(LEFT(G52, FIND(":", G52)-1))</f>
@@ -2996,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H53">
         <f>E53*VALUE(LEFT(G53, FIND(":", G53)-1))</f>
@@ -3016,7 +3019,7 @@
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H54">
         <f>E54*VALUE(LEFT(G54, FIND(":", G54)-1))</f>
@@ -3036,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H55">
         <f>E55*VALUE(LEFT(G55, FIND(":", G55)-1))</f>
@@ -3056,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H56">
         <f>E56*VALUE(LEFT(G56, FIND(":", G56)-1))</f>
@@ -3076,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H57">
         <f>E57*VALUE(LEFT(G57, FIND(":", G57)-1))</f>
@@ -3096,10 +3099,10 @@
         <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G58" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H58">
         <f>E58*VALUE(LEFT(G58, FIND(":", G58)-1))</f>
@@ -3121,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H59">
         <f>E59*VALUE(LEFT(G59, FIND(":", G59)-1))</f>
@@ -3141,7 +3144,7 @@
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H60">
         <f>E60*VALUE(LEFT(G60, FIND(":", G60)-1))</f>
@@ -3161,7 +3164,7 @@
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H61">
         <f>E61*VALUE(LEFT(G61, FIND(":", G61)-1))</f>
@@ -3181,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H62">
         <f>E62*VALUE(LEFT(G62, FIND(":", G62)-1))</f>
@@ -3201,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H63">
         <f>E63*VALUE(LEFT(G63, FIND(":", G63)-1))</f>
@@ -3221,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H64">
         <f>E64*VALUE(LEFT(G64, FIND(":", G64)-1))</f>
@@ -3243,10 +3246,10 @@
         <v>1</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G65" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H65">
         <f>E65*VALUE(LEFT(G65, FIND(":", G65)-1))</f>
@@ -3266,10 +3269,10 @@
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G66" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H66">
         <f>E66*VALUE(LEFT(G66, FIND(":", G66)-1))</f>
@@ -3289,10 +3292,10 @@
         <v>1</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G67" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H67">
         <f>E67*VALUE(LEFT(G67, FIND(":", G67)-1))</f>
@@ -3312,10 +3315,10 @@
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G68" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H68">
         <f>E68*VALUE(LEFT(G68, FIND(":", G68)-1))</f>
@@ -3335,10 +3338,10 @@
         <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G69" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H69">
         <f>E69*VALUE(LEFT(G69, FIND(":", G69)-1))</f>
@@ -3358,10 +3361,10 @@
         <v>1</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G70" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H70">
         <f>E70*VALUE(LEFT(G70, FIND(":", G70)-1))</f>
@@ -3381,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H71">
         <f>E71*VALUE(LEFT(G71, FIND(":", G71)-1))</f>
@@ -3403,10 +3406,10 @@
         <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G72" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H72">
         <f>E72*VALUE(LEFT(G72, FIND(":", G72)-1))</f>
@@ -3426,10 +3429,10 @@
         <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G73" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H73">
         <f>E73*VALUE(LEFT(G73, FIND(":", G73)-1))</f>
@@ -3449,7 +3452,7 @@
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H74">
         <f>E74*VALUE(LEFT(G74, FIND(":", G74)-1))</f>
@@ -3469,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H75">
         <f>E75*VALUE(LEFT(G75, FIND(":", G75)-1))</f>
@@ -3489,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H76">
         <f>E76*VALUE(LEFT(G76, FIND(":", G76)-1))</f>
@@ -3509,10 +3512,10 @@
         <v>1</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G77" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H77">
         <f>E77*VALUE(LEFT(G77, FIND(":", G77)-1))</f>
@@ -3532,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H78">
         <f>E78*VALUE(LEFT(G78, FIND(":", G78)-1))</f>
@@ -3554,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H79">
         <f>E79*VALUE(LEFT(G79, FIND(":", G79)-1))</f>
@@ -3574,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H80">
         <f>E80*VALUE(LEFT(G80, FIND(":", G80)-1))</f>
@@ -3594,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H81">
         <f>E81*VALUE(LEFT(G81, FIND(":", G81)-1))</f>
@@ -3614,7 +3617,7 @@
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H82">
         <f>E82*VALUE(LEFT(G82, FIND(":", G82)-1))</f>
@@ -3634,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H83">
         <f>E83*VALUE(LEFT(G83, FIND(":", G83)-1))</f>
@@ -3654,10 +3657,10 @@
         <v>1</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G84" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H84">
         <f>E84*VALUE(LEFT(G84, FIND(":", G84)-1))</f>
@@ -3677,10 +3680,10 @@
         <v>1</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G85" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H85">
         <f>E85*VALUE(LEFT(G85, FIND(":", G85)-1))</f>
@@ -3700,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H86">
         <f>E86*VALUE(LEFT(G86, FIND(":", G86)-1))</f>
@@ -3714,13 +3717,13 @@
         <v>122</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E87">
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H87">
         <f>E87*VALUE(LEFT(G87, FIND(":", G87)-1))</f>
@@ -3736,13 +3739,13 @@
         <v>123</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H88">
         <f>E88*VALUE(LEFT(G88, FIND(":", G88)-1))</f>
@@ -3756,16 +3759,16 @@
         <v>124</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G89" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H89">
         <f>E89*VALUE(LEFT(G89, FIND(":", G89)-1))</f>
@@ -3779,16 +3782,16 @@
         <v>125</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E90">
         <v>1</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G90" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H90">
         <f>E90*VALUE(LEFT(G90, FIND(":", G90)-1))</f>
@@ -3802,13 +3805,13 @@
         <v>126</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H91">
         <f>E91*VALUE(LEFT(G91, FIND(":", G91)-1))</f>
@@ -3822,13 +3825,13 @@
         <v>127</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H92">
         <f>E92*VALUE(LEFT(G92, FIND(":", G92)-1))</f>
@@ -3842,13 +3845,13 @@
         <v>128</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H93">
         <f>E93*VALUE(LEFT(G93, FIND(":", G93)-1))</f>
@@ -3862,13 +3865,13 @@
         <v>129</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H94">
         <f>E94*VALUE(LEFT(G94, FIND(":", G94)-1))</f>
@@ -3886,13 +3889,13 @@
         <v>130</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H95">
         <f>E95*VALUE(LEFT(G95, FIND(":", G95)-1))</f>
@@ -3906,13 +3909,13 @@
         <v>131</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H96">
         <f>E96*VALUE(LEFT(G96, FIND(":", G96)-1))</f>
@@ -3926,13 +3929,13 @@
         <v>132</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H97">
         <f>E97*VALUE(LEFT(G97, FIND(":", G97)-1))</f>
@@ -3946,13 +3949,13 @@
         <v>133</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H98">
         <f>E98*VALUE(LEFT(G98, FIND(":", G98)-1))</f>
@@ -3966,13 +3969,13 @@
         <v>134</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E99">
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H99">
         <f>E99*VALUE(LEFT(G99, FIND(":", G99)-1))</f>
@@ -3986,13 +3989,13 @@
         <v>135</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H100">
         <f>E100*VALUE(LEFT(G100, FIND(":", G100)-1))</f>
@@ -4008,13 +4011,13 @@
         <v>136</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H101">
         <f>E101*VALUE(LEFT(G101, FIND(":", G101)-1))</f>
@@ -4028,13 +4031,13 @@
         <v>137</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E102">
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H102">
         <f>E102*VALUE(LEFT(G102, FIND(":", G102)-1))</f>
@@ -4048,13 +4051,13 @@
         <v>138</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H103">
         <f>E103*VALUE(LEFT(G103, FIND(":", G103)-1))</f>
@@ -4068,13 +4071,13 @@
         <v>139</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H104">
         <f>E104*VALUE(LEFT(G104, FIND(":", G104)-1))</f>
@@ -4088,13 +4091,13 @@
         <v>140</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H105">
         <f>E105*VALUE(LEFT(G105, FIND(":", G105)-1))</f>
@@ -4108,13 +4111,13 @@
         <v>141</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H106">
         <f>E106*VALUE(LEFT(G106, FIND(":", G106)-1))</f>
@@ -4130,13 +4133,13 @@
         <v>142</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H107">
         <f>E107*VALUE(LEFT(G107, FIND(":", G107)-1))</f>
@@ -4150,16 +4153,16 @@
         <v>143</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E108">
         <v>1</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G108" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H108">
         <f>E108*VALUE(LEFT(G108, FIND(":", G108)-1))</f>
@@ -4173,13 +4176,13 @@
         <v>144</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H109">
         <f>E109*VALUE(LEFT(G109, FIND(":", G109)-1))</f>
@@ -4193,16 +4196,16 @@
         <v>145</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E110">
         <v>1</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G110" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H110">
         <f>E110*VALUE(LEFT(G110, FIND(":", G110)-1))</f>
@@ -4216,13 +4219,13 @@
         <v>146</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E111">
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H111">
         <f>E111*VALUE(LEFT(G111, FIND(":", G111)-1))</f>
@@ -4236,16 +4239,16 @@
         <v>147</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E112">
         <v>1</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G112" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H112">
         <f>E112*VALUE(LEFT(G112, FIND(":", G112)-1))</f>
@@ -4261,13 +4264,13 @@
         <v>148</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H113">
         <f>E113*VALUE(LEFT(G113, FIND(":", G113)-1))</f>
@@ -4281,13 +4284,13 @@
         <v>149</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H114">
         <f>E114*VALUE(LEFT(G114, FIND(":", G114)-1))</f>
@@ -4301,13 +4304,13 @@
         <v>150</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E115">
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H115">
         <f>E115*VALUE(LEFT(G115, FIND(":", G115)-1))</f>
@@ -4321,13 +4324,13 @@
         <v>151</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E116">
         <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H116">
         <f>E116*VALUE(LEFT(G116, FIND(":", G116)-1))</f>
@@ -4341,16 +4344,16 @@
         <v>152</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E117">
         <v>1</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G117" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H117">
         <f>E117*VALUE(LEFT(G117, FIND(":", G117)-1))</f>
@@ -4364,13 +4367,13 @@
         <v>153</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E118">
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H118">
         <f>E118*VALUE(LEFT(G118, FIND(":", G118)-1))</f>
@@ -4384,13 +4387,13 @@
         <v>154</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E119">
         <v>0</v>
       </c>
       <c r="G119" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H119">
         <f>E119*VALUE(LEFT(G119, FIND(":", G119)-1))</f>
@@ -4406,16 +4409,16 @@
         <v>155</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E120">
         <v>1</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G120" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H120">
         <f>E120*VALUE(LEFT(G120, FIND(":", G120)-1))</f>
@@ -4429,13 +4432,13 @@
         <v>156</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E121">
         <v>0</v>
       </c>
       <c r="G121" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H121">
         <f>E121*VALUE(LEFT(G121, FIND(":", G121)-1))</f>
@@ -4449,13 +4452,13 @@
         <v>157</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E122">
         <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H122">
         <f>E122*VALUE(LEFT(G122, FIND(":", G122)-1))</f>
@@ -4469,13 +4472,13 @@
         <v>158</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E123">
         <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H123">
         <f>E123*VALUE(LEFT(G123, FIND(":", G123)-1))</f>
@@ -4489,13 +4492,13 @@
         <v>159</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H124">
         <f>E124*VALUE(LEFT(G124, FIND(":", G124)-1))</f>
@@ -4509,13 +4512,13 @@
         <v>160</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E125">
         <v>1</v>
       </c>
       <c r="G125" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H125">
         <f>E125*VALUE(LEFT(G125, FIND(":", G125)-1))</f>
@@ -4533,13 +4536,13 @@
         <v>161</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E126">
         <v>0</v>
       </c>
       <c r="G126" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H126">
         <f>E126*VALUE(LEFT(G126, FIND(":", G126)-1))</f>
@@ -4553,13 +4556,13 @@
         <v>162</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E127">
         <v>0</v>
       </c>
       <c r="G127" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H127">
         <f>E127*VALUE(LEFT(G127, FIND(":", G127)-1))</f>
@@ -4573,13 +4576,13 @@
         <v>163</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E128">
         <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H128">
         <f>E128*VALUE(LEFT(G128, FIND(":", G128)-1))</f>
@@ -4593,13 +4596,13 @@
         <v>164</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E129">
         <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H129">
         <f>E129*VALUE(LEFT(G129, FIND(":", G129)-1))</f>
@@ -4613,13 +4616,13 @@
         <v>165</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E130">
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H130">
         <f>E130*VALUE(LEFT(G130, FIND(":", G130)-1))</f>

--- a/assessments/FinOps++/assessment.xlsx
+++ b/assessments/FinOps++/assessment.xlsx
@@ -387,7 +387,7 @@
     <t>Define ingestion frequency; include mandatory metadata.</t>
   </si>
   <si>
-    <t>Gather personaâ€‘specific requirements; define KPIs/OKRs and glossary.</t>
+    <t>Gather persona–specific requirements; define KPIs/OKRs and glossary.</t>
   </si>
   <si>
     <t>Enrich billing with business logic (amortization, discounts, mappings).</t>

--- a/assessments/FinOps++/assessment.xlsx
+++ b/assessments/FinOps++/assessment.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
-    <sheet name="Attained Percentage" sheetId="2" r:id="rId2"/>
-    <sheet name="Scoring" sheetId="3" r:id="rId3"/>
+    <sheet name="Maturity - Domains" sheetId="2" r:id="rId2"/>
+    <sheet name="Maturity - Capabilities" sheetId="3" r:id="rId3"/>
+    <sheet name="Scoring" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="361">
   <si>
     <t>Sum of Weights</t>
   </si>
@@ -30,6 +31,12 @@
     <t>Difference from Maximum Score</t>
   </si>
   <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Action Count</t>
+  </si>
+  <si>
     <t>Governance</t>
   </si>
   <si>
@@ -42,6 +49,72 @@
     <t>Usage &amp; Cost</t>
   </si>
   <si>
+    <t>Capability</t>
+  </si>
+  <si>
+    <t>Allocation</t>
+  </si>
+  <si>
+    <t>Anomaly Management</t>
+  </si>
+  <si>
+    <t>Architecting for Cloud</t>
+  </si>
+  <si>
+    <t>Benchmarking</t>
+  </si>
+  <si>
+    <t>Budgeting</t>
+  </si>
+  <si>
+    <t>Data Ingestion</t>
+  </si>
+  <si>
+    <t>FinOps Assessment</t>
+  </si>
+  <si>
+    <t>FinOps Education &amp; Enablement</t>
+  </si>
+  <si>
+    <t>FinOps Practice Operations</t>
+  </si>
+  <si>
+    <t>FinOps Tools &amp; Services</t>
+  </si>
+  <si>
+    <t>Forecasting</t>
+  </si>
+  <si>
+    <t>Intersecting Disciplines</t>
+  </si>
+  <si>
+    <t>Invoicing &amp; Chargeback</t>
+  </si>
+  <si>
+    <t>Licensing &amp; SaaS</t>
+  </si>
+  <si>
+    <t>Onboarding Workloads</t>
+  </si>
+  <si>
+    <t>Planning &amp; Estimating</t>
+  </si>
+  <si>
+    <t>Policy</t>
+  </si>
+  <si>
+    <t>Rate Optimization</t>
+  </si>
+  <si>
+    <t>Reporting &amp; Analytics</t>
+  </si>
+  <si>
+    <t>Unit Economics</t>
+  </si>
+  <si>
+    <t>Workload Optimization</t>
+  </si>
+  <si>
     <t>serial number</t>
   </si>
   <si>
@@ -57,6 +130,12 @@
     <t>weighted score</t>
   </si>
   <si>
+    <t>_domain</t>
+  </si>
+  <si>
+    <t>_capability</t>
+  </si>
+  <si>
     <t>domain</t>
   </si>
   <si>
@@ -64,69 +143,6 @@
   </si>
   <si>
     <t>action</t>
-  </si>
-  <si>
-    <t>FinOps Assessment</t>
-  </si>
-  <si>
-    <t>FinOps Education &amp; Enablement</t>
-  </si>
-  <si>
-    <t>FinOps Practice Operations</t>
-  </si>
-  <si>
-    <t>FinOps Tools &amp; Services</t>
-  </si>
-  <si>
-    <t>Intersecting Disciplines</t>
-  </si>
-  <si>
-    <t>Invoicing &amp; Chargeback</t>
-  </si>
-  <si>
-    <t>Onboarding Workloads</t>
-  </si>
-  <si>
-    <t>Architecting for Cloud</t>
-  </si>
-  <si>
-    <t>Licensing &amp; SaaS</t>
-  </si>
-  <si>
-    <t>Rate Optimization</t>
-  </si>
-  <si>
-    <t>Workload Optimization</t>
-  </si>
-  <si>
-    <t>Allocation</t>
-  </si>
-  <si>
-    <t>Anomaly Management</t>
-  </si>
-  <si>
-    <t>Data Ingestion</t>
-  </si>
-  <si>
-    <t>Reporting &amp; Analytics</t>
-  </si>
-  <si>
-    <t>Benchmarking</t>
-  </si>
-  <si>
-    <t>Budgeting</t>
-  </si>
-  <si>
-    <t>Forecasting</t>
-  </si>
-  <si>
-    <t>Planning &amp; Estimating</t>
-  </si>
-  <si>
-    <t>Unit Economics</t>
-  </si>
-  <si>
-    <t>Policy</t>
   </si>
   <si>
     <t>Define goals/scope; pick capabilities to measure this cycle.</t>
@@ -1268,117 +1284,14 @@
   <c:chart>
     <c:plotArea>
       <c:layout/>
-      <c:doughnutChart>
+      <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Domains for FinOps++ by Action count</c:v>
+            <c:v>Attained Percentage of Maximum Possible Score for FinOps++</c:v>
           </c:tx>
-          <c:dLbls>
-            <c:showVal val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Overview!$AA$1:$AA$4</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Governance</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Manage the FinOps Practice</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Quantify Business Value</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Usage &amp; Cost</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Overview!$BB$1:$BB$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>54</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="50"/>
-      </c:doughnutChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:style val="37"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Attained Percentage of Maximum Possible Score</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
           <c:dLbls>
             <c:showPercent val="1"/>
           </c:dLbls>
@@ -1431,6 +1344,301 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="37"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="filled"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Attained Maturity by Domain</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Overview!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Governance</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Manage the FinOps Practice</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quantify Business Value</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Usage &amp; Cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overview!$U$5:$U$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50020001"/>
+        <c:axId val="50020002"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="50020001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50020002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="37"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="filled"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Attained Maturity by Capability</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Overview!$A$12:$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>Allocation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Anomaly Management</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Architecting for Cloud</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Benchmarking</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Budgeting</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Data Ingestion</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FinOps Assessment</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FinOps Education &amp; Enablement</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FinOps Practice Operations</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FinOps Tools &amp; Services</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Forecasting</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Intersecting Disciplines</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Invoicing &amp; Chargeback</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Licensing &amp; SaaS</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Onboarding Workloads</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Planning &amp; Estimating</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Policy</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Rate Optimization</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Reporting &amp; Analytics</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Unit Economics</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Workload Optimization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overview!$U$12:$U$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50030001"/>
+        <c:axId val="50030002"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="50030001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50030002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50030002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50030001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
 </c:chartSpace>
 </file>
 
@@ -1445,18 +1653,29 @@
 </chartsheet>
 </file>
 
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2047875</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -1507,6 +1726,33 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9308969" cy="6078325"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D2" totalsRowShown="0">
   <tableColumns count="4">
@@ -1514,6 +1760,26 @@
     <tableColumn id="2" name="Maximum Possible Score"/>
     <tableColumn id="3" name="Calculated Weighted Average Score"/>
     <tableColumn id="4" name="Difference from Maximum Score"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:B8" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" name="Domain"/>
+    <tableColumn id="2" name="Action Count"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A11:B32" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" name="Capability"/>
+    <tableColumn id="2" name="Action Count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1804,21 +2070,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB4"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1831,14 +2095,8 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BB1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:54">
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2">
         <f>SUM(Scoring!E2:E130)</f>
         <v>0</v>
@@ -1854,41 +2112,349 @@
         <f>B2-C2</f>
         <v>0</v>
       </c>
-      <c r="AA2" t="s">
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="BB2">
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="U5">
+        <f>SUMIF(Scoring!I2:I130,A5,Scoring!H2:H130)/SUMIF(Scoring!I2:I130,A5,Scoring!E2:E130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:54">
-      <c r="AA3" t="s">
+      <c r="U6">
+        <f>SUMIF(Scoring!I2:I130,A6,Scoring!H2:H130)/SUMIF(Scoring!I2:I130,A6,Scoring!E2:E130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>31</v>
+      </c>
+      <c r="U7">
+        <f>SUMIF(Scoring!I2:I130,A7,Scoring!H2:H130)/SUMIF(Scoring!I2:I130,A7,Scoring!E2:E130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>54</v>
+      </c>
+      <c r="U8">
+        <f>SUMIF(Scoring!I2:I130,A8,Scoring!H2:H130)/SUMIF(Scoring!I2:I130,A8,Scoring!E2:E130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="B9">
+        <f>SUM(Overview!$B$5:$B$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="U12">
+        <f>SUMIF(Scoring!J2:J130,A12,Scoring!H2:H130)/SUMIF(Scoring!J2:J130,A12,Scoring!E2:E130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="U13">
+        <f>SUMIF(Scoring!J2:J130,A13,Scoring!H2:H130)/SUMIF(Scoring!J2:J130,A13,Scoring!E2:E130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>6</v>
       </c>
-      <c r="BB3">
+      <c r="U14">
+        <f>SUMIF(Scoring!J2:J130,A14,Scoring!H2:H130)/SUMIF(Scoring!J2:J130,A14,Scoring!E2:E130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="U15">
+        <f>SUMIF(Scoring!J2:J130,A15,Scoring!H2:H130)/SUMIF(Scoring!J2:J130,A15,Scoring!E2:E130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="U16">
+        <f>SUMIF(Scoring!J2:J130,A16,Scoring!H2:H130)/SUMIF(Scoring!J2:J130,A16,Scoring!E2:E130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="U17">
+        <f>SUMIF(Scoring!J2:J130,A17,Scoring!H2:H130)/SUMIF(Scoring!J2:J130,A17,Scoring!E2:E130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="U18">
+        <f>SUMIF(Scoring!J2:J130,A18,Scoring!H2:H130)/SUMIF(Scoring!J2:J130,A18,Scoring!E2:E130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="U19">
+        <f>SUMIF(Scoring!J2:J130,A19,Scoring!H2:H130)/SUMIF(Scoring!J2:J130,A19,Scoring!E2:E130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="U20">
+        <f>SUMIF(Scoring!J2:J130,A20,Scoring!H2:H130)/SUMIF(Scoring!J2:J130,A20,Scoring!E2:E130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="U21">
+        <f>SUMIF(Scoring!J2:J130,A21,Scoring!H2:H130)/SUMIF(Scoring!J2:J130,A21,Scoring!E2:E130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="U22">
+        <f>SUMIF(Scoring!J2:J130,A22,Scoring!H2:H130)/SUMIF(Scoring!J2:J130,A22,Scoring!E2:E130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="U23">
+        <f>SUMIF(Scoring!J2:J130,A23,Scoring!H2:H130)/SUMIF(Scoring!J2:J130,A23,Scoring!E2:E130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="U24">
+        <f>SUMIF(Scoring!J2:J130,A24,Scoring!H2:H130)/SUMIF(Scoring!J2:J130,A24,Scoring!E2:E130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="U25">
+        <f>SUMIF(Scoring!J2:J130,A25,Scoring!H2:H130)/SUMIF(Scoring!J2:J130,A25,Scoring!E2:E130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="U26">
+        <f>SUMIF(Scoring!J2:J130,A26,Scoring!H2:H130)/SUMIF(Scoring!J2:J130,A26,Scoring!E2:E130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="U27">
+        <f>SUMIF(Scoring!J2:J130,A27,Scoring!H2:H130)/SUMIF(Scoring!J2:J130,A27,Scoring!E2:E130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="U28">
+        <f>SUMIF(Scoring!J2:J130,A28,Scoring!H2:H130)/SUMIF(Scoring!J2:J130,A28,Scoring!E2:E130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="U29">
+        <f>SUMIF(Scoring!J2:J130,A29,Scoring!H2:H130)/SUMIF(Scoring!J2:J130,A29,Scoring!E2:E130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="U30">
+        <f>SUMIF(Scoring!J2:J130,A30,Scoring!H2:H130)/SUMIF(Scoring!J2:J130,A30,Scoring!E2:E130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="U31">
+        <f>SUMIF(Scoring!J2:J130,A31,Scoring!H2:H130)/SUMIF(Scoring!J2:J130,A31,Scoring!E2:E130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:54">
-      <c r="AA4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BB4">
-        <v>54</v>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="U32">
+        <f>SUMIF(Scoring!J2:J130,A32,Scoring!H2:H130)/SUMIF(Scoring!J2:J130,A32,Scoring!E2:E130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33">
+        <f>SUM(Overview!$B$12:$B$32)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1902,2731 +2468,3514 @@
     <col min="6" max="6" width="125.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.28515625" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H2">
         <f>E2*VALUE(LEFT(G2, FIND(":", G2)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H3">
         <f>E3*VALUE(LEFT(G3, FIND(":", G3)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H4">
         <f>E4*VALUE(LEFT(G4, FIND(":", G4)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H5">
         <f>E5*VALUE(LEFT(G5, FIND(":", G5)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H6">
         <f>E6*VALUE(LEFT(G6, FIND(":", G6)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H7">
         <f>E7*VALUE(LEFT(G7, FIND(":", G7)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H8">
         <f>E8*VALUE(LEFT(G8, FIND(":", G8)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H9">
         <f>E9*VALUE(LEFT(G9, FIND(":", G9)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="G10" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H10">
         <f>E10*VALUE(LEFT(G10, FIND(":", G10)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H11">
         <f>E11*VALUE(LEFT(G11, FIND(":", G11)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="H12">
         <f>E12*VALUE(LEFT(G12, FIND(":", G12)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H13">
         <f>E13*VALUE(LEFT(G13, FIND(":", G13)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H14">
         <f>E14*VALUE(LEFT(G14, FIND(":", G14)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H15">
         <f>E15*VALUE(LEFT(G15, FIND(":", G15)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H16">
         <f>E16*VALUE(LEFT(G16, FIND(":", G16)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H17">
         <f>E17*VALUE(LEFT(G17, FIND(":", G17)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H18">
         <f>E18*VALUE(LEFT(G18, FIND(":", G18)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="H19">
         <f>E19*VALUE(LEFT(G19, FIND(":", G19)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H20">
         <f>E20*VALUE(LEFT(G20, FIND(":", G20)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="G21" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H21">
         <f>E21*VALUE(LEFT(G21, FIND(":", G21)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H22">
         <f>E22*VALUE(LEFT(G22, FIND(":", G22)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H23">
         <f>E23*VALUE(LEFT(G23, FIND(":", G23)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H24">
         <f>E24*VALUE(LEFT(G24, FIND(":", G24)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H25">
         <f>E25*VALUE(LEFT(G25, FIND(":", G25)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H26">
         <f>E26*VALUE(LEFT(G26, FIND(":", G26)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H27">
         <f>E27*VALUE(LEFT(G27, FIND(":", G27)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H28">
         <f>E28*VALUE(LEFT(G28, FIND(":", G28)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H29">
         <f>E29*VALUE(LEFT(G29, FIND(":", G29)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H30">
         <f>E30*VALUE(LEFT(G30, FIND(":", G30)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="H31">
         <f>E31*VALUE(LEFT(G31, FIND(":", G31)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H32">
         <f>E32*VALUE(LEFT(G32, FIND(":", G32)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H33">
         <f>E33*VALUE(LEFT(G33, FIND(":", G33)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="H34">
         <f>E34*VALUE(LEFT(G34, FIND(":", G34)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H35">
         <f>E35*VALUE(LEFT(G35, FIND(":", G35)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H36">
         <f>E36*VALUE(LEFT(G36, FIND(":", G36)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="G37" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H37">
         <f>E37*VALUE(LEFT(G37, FIND(":", G37)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H38">
         <f>E38*VALUE(LEFT(G38, FIND(":", G38)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H39">
         <f>E39*VALUE(LEFT(G39, FIND(":", G39)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H40">
         <f>E40*VALUE(LEFT(G40, FIND(":", G40)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="H41">
         <f>E41*VALUE(LEFT(G41, FIND(":", G41)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="G42" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H42">
         <f>E42*VALUE(LEFT(G42, FIND(":", G42)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" t="s">
+        <v>9</v>
+      </c>
+      <c r="J42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="H43">
         <f>E43*VALUE(LEFT(G43, FIND(":", G43)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" t="s">
+        <v>9</v>
+      </c>
+      <c r="J43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H44">
         <f>E44*VALUE(LEFT(G44, FIND(":", G44)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H45">
         <f>E45*VALUE(LEFT(G45, FIND(":", G45)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" t="s">
+        <v>9</v>
+      </c>
+      <c r="J45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H46">
         <f>E46*VALUE(LEFT(G46, FIND(":", G46)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" t="s">
+        <v>9</v>
+      </c>
+      <c r="J46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="H47">
         <f>E47*VALUE(LEFT(G47, FIND(":", G47)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H48">
         <f>E48*VALUE(LEFT(G48, FIND(":", G48)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H49">
         <f>E49*VALUE(LEFT(G49, FIND(":", G49)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" t="s">
+        <v>9</v>
+      </c>
+      <c r="J49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="H50">
         <f>E50*VALUE(LEFT(G50, FIND(":", G50)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" t="s">
+        <v>9</v>
+      </c>
+      <c r="J50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H51">
         <f>E51*VALUE(LEFT(G51, FIND(":", G51)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51" t="s">
+        <v>9</v>
+      </c>
+      <c r="J51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H52">
         <f>E52*VALUE(LEFT(G52, FIND(":", G52)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52" t="s">
+        <v>9</v>
+      </c>
+      <c r="J52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="H53">
         <f>E53*VALUE(LEFT(G53, FIND(":", G53)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53" t="s">
+        <v>9</v>
+      </c>
+      <c r="J53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="H54">
         <f>E54*VALUE(LEFT(G54, FIND(":", G54)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54" t="s">
+        <v>9</v>
+      </c>
+      <c r="J54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H55">
         <f>E55*VALUE(LEFT(G55, FIND(":", G55)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55" t="s">
+        <v>9</v>
+      </c>
+      <c r="J55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H56">
         <f>E56*VALUE(LEFT(G56, FIND(":", G56)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56" t="s">
+        <v>9</v>
+      </c>
+      <c r="J56" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H57">
         <f>E57*VALUE(LEFT(G57, FIND(":", G57)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57" t="s">
+        <v>9</v>
+      </c>
+      <c r="J57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G58" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H58">
         <f>E58*VALUE(LEFT(G58, FIND(":", G58)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58" t="s">
+        <v>9</v>
+      </c>
+      <c r="J58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H59">
         <f>E59*VALUE(LEFT(G59, FIND(":", G59)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59" t="s">
+        <v>9</v>
+      </c>
+      <c r="J59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="H60">
         <f>E60*VALUE(LEFT(G60, FIND(":", G60)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60" t="s">
+        <v>9</v>
+      </c>
+      <c r="J60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="H61">
         <f>E61*VALUE(LEFT(G61, FIND(":", G61)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61" t="s">
+        <v>9</v>
+      </c>
+      <c r="J61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H62">
         <f>E62*VALUE(LEFT(G62, FIND(":", G62)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62" t="s">
+        <v>9</v>
+      </c>
+      <c r="J62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H63">
         <f>E63*VALUE(LEFT(G63, FIND(":", G63)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63" t="s">
+        <v>9</v>
+      </c>
+      <c r="J63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H64">
         <f>E64*VALUE(LEFT(G64, FIND(":", G64)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64" t="s">
+        <v>9</v>
+      </c>
+      <c r="J64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="G65" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H65">
         <f>E65*VALUE(LEFT(G65, FIND(":", G65)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65" t="s">
+        <v>9</v>
+      </c>
+      <c r="J65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G66" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="H66">
         <f>E66*VALUE(LEFT(G66, FIND(":", G66)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66" t="s">
+        <v>9</v>
+      </c>
+      <c r="J66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G67" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H67">
         <f>E67*VALUE(LEFT(G67, FIND(":", G67)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67" t="s">
+        <v>9</v>
+      </c>
+      <c r="J67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="G68" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="H68">
         <f>E68*VALUE(LEFT(G68, FIND(":", G68)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68" t="s">
+        <v>9</v>
+      </c>
+      <c r="J68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="G69" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="H69">
         <f>E69*VALUE(LEFT(G69, FIND(":", G69)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69" t="s">
+        <v>9</v>
+      </c>
+      <c r="J69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G70" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H70">
         <f>E70*VALUE(LEFT(G70, FIND(":", G70)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" t="s">
+        <v>9</v>
+      </c>
+      <c r="J70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H71">
         <f>E71*VALUE(LEFT(G71, FIND(":", G71)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71" t="s">
+        <v>9</v>
+      </c>
+      <c r="J71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G72" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H72">
         <f>E72*VALUE(LEFT(G72, FIND(":", G72)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72" t="s">
+        <v>9</v>
+      </c>
+      <c r="J72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="G73" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H73">
         <f>E73*VALUE(LEFT(G73, FIND(":", G73)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73" t="s">
+        <v>9</v>
+      </c>
+      <c r="J73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="H74">
         <f>E74*VALUE(LEFT(G74, FIND(":", G74)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="I74" t="s">
+        <v>9</v>
+      </c>
+      <c r="J74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H75">
         <f>E75*VALUE(LEFT(G75, FIND(":", G75)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75" t="s">
+        <v>9</v>
+      </c>
+      <c r="J75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H76">
         <f>E76*VALUE(LEFT(G76, FIND(":", G76)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="I76" t="s">
+        <v>9</v>
+      </c>
+      <c r="J76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G77" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H77">
         <f>E77*VALUE(LEFT(G77, FIND(":", G77)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="I77" t="s">
+        <v>9</v>
+      </c>
+      <c r="J77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H78">
         <f>E78*VALUE(LEFT(G78, FIND(":", G78)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78" t="s">
+        <v>9</v>
+      </c>
+      <c r="J78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="2"/>
       <c r="B79" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H79">
         <f>E79*VALUE(LEFT(G79, FIND(":", G79)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="I79" t="s">
+        <v>9</v>
+      </c>
+      <c r="J79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H80">
         <f>E80*VALUE(LEFT(G80, FIND(":", G80)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80" t="s">
+        <v>9</v>
+      </c>
+      <c r="J80" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H81">
         <f>E81*VALUE(LEFT(G81, FIND(":", G81)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81" t="s">
+        <v>9</v>
+      </c>
+      <c r="J81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="H82">
         <f>E82*VALUE(LEFT(G82, FIND(":", G82)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82" t="s">
+        <v>9</v>
+      </c>
+      <c r="J82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H83">
         <f>E83*VALUE(LEFT(G83, FIND(":", G83)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I83" t="s">
+        <v>9</v>
+      </c>
+      <c r="J83" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E84">
         <v>1</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="G84" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H84">
         <f>E84*VALUE(LEFT(G84, FIND(":", G84)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84" t="s">
+        <v>9</v>
+      </c>
+      <c r="J84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E85">
         <v>1</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G85" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H85">
         <f>E85*VALUE(LEFT(G85, FIND(":", G85)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85" t="s">
+        <v>9</v>
+      </c>
+      <c r="J85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H86">
         <f>E86*VALUE(LEFT(G86, FIND(":", G86)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="I86" t="s">
+        <v>9</v>
+      </c>
+      <c r="J86" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E87">
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="H87">
         <f>E87*VALUE(LEFT(G87, FIND(":", G87)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87" t="s">
+        <v>9</v>
+      </c>
+      <c r="J87" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H88">
         <f>E88*VALUE(LEFT(G88, FIND(":", G88)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88" t="s">
+        <v>9</v>
+      </c>
+      <c r="J88" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="G89" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H89">
         <f>E89*VALUE(LEFT(G89, FIND(":", G89)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="I89" t="s">
+        <v>9</v>
+      </c>
+      <c r="J89" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E90">
         <v>1</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="G90" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H90">
         <f>E90*VALUE(LEFT(G90, FIND(":", G90)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="I90" t="s">
+        <v>9</v>
+      </c>
+      <c r="J90" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H91">
         <f>E91*VALUE(LEFT(G91, FIND(":", G91)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="I91" t="s">
+        <v>9</v>
+      </c>
+      <c r="J91" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="H92">
         <f>E92*VALUE(LEFT(G92, FIND(":", G92)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="I92" t="s">
+        <v>9</v>
+      </c>
+      <c r="J92" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H93">
         <f>E93*VALUE(LEFT(G93, FIND(":", G93)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="I93" t="s">
+        <v>9</v>
+      </c>
+      <c r="J93" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H94">
         <f>E94*VALUE(LEFT(G94, FIND(":", G94)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="I94" t="s">
+        <v>9</v>
+      </c>
+      <c r="J94" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H95">
         <f>E95*VALUE(LEFT(G95, FIND(":", G95)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="I95" t="s">
+        <v>8</v>
+      </c>
+      <c r="J95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H96">
         <f>E96*VALUE(LEFT(G96, FIND(":", G96)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96" t="s">
+        <v>8</v>
+      </c>
+      <c r="J96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H97">
         <f>E97*VALUE(LEFT(G97, FIND(":", G97)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="I97" t="s">
+        <v>8</v>
+      </c>
+      <c r="J97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H98">
         <f>E98*VALUE(LEFT(G98, FIND(":", G98)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="I98" t="s">
+        <v>8</v>
+      </c>
+      <c r="J98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E99">
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="H99">
         <f>E99*VALUE(LEFT(G99, FIND(":", G99)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="I99" t="s">
+        <v>8</v>
+      </c>
+      <c r="J99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H100">
         <f>E100*VALUE(LEFT(G100, FIND(":", G100)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="2"/>
       <c r="B101" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="H101">
         <f>E101*VALUE(LEFT(G101, FIND(":", G101)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="I101" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E102">
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="H102">
         <f>E102*VALUE(LEFT(G102, FIND(":", G102)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H103">
         <f>E103*VALUE(LEFT(G103, FIND(":", G103)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103" t="s">
+        <v>8</v>
+      </c>
+      <c r="J103" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H104">
         <f>E104*VALUE(LEFT(G104, FIND(":", G104)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="I104" t="s">
+        <v>8</v>
+      </c>
+      <c r="J104" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H105">
         <f>E105*VALUE(LEFT(G105, FIND(":", G105)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="I105" t="s">
+        <v>8</v>
+      </c>
+      <c r="J105" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H106">
         <f>E106*VALUE(LEFT(G106, FIND(":", G106)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="I106" t="s">
+        <v>8</v>
+      </c>
+      <c r="J106" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="2"/>
       <c r="B107" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H107">
         <f>E107*VALUE(LEFT(G107, FIND(":", G107)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="I107" t="s">
+        <v>8</v>
+      </c>
+      <c r="J107" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E108">
         <v>1</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="G108" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H108">
         <f>E108*VALUE(LEFT(G108, FIND(":", G108)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="I108" t="s">
+        <v>8</v>
+      </c>
+      <c r="J108" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H109">
         <f>E109*VALUE(LEFT(G109, FIND(":", G109)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="I109" t="s">
+        <v>8</v>
+      </c>
+      <c r="J109" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E110">
         <v>1</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="G110" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="H110">
         <f>E110*VALUE(LEFT(G110, FIND(":", G110)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="I110" t="s">
+        <v>8</v>
+      </c>
+      <c r="J110" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="E111">
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H111">
         <f>E111*VALUE(LEFT(G111, FIND(":", G111)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="I111" t="s">
+        <v>8</v>
+      </c>
+      <c r="J111" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E112">
         <v>1</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G112" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H112">
         <f>E112*VALUE(LEFT(G112, FIND(":", G112)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="I112" t="s">
+        <v>8</v>
+      </c>
+      <c r="J112" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="2"/>
       <c r="B113" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H113">
         <f>E113*VALUE(LEFT(G113, FIND(":", G113)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="I113" t="s">
+        <v>8</v>
+      </c>
+      <c r="J113" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H114">
         <f>E114*VALUE(LEFT(G114, FIND(":", G114)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="I114" t="s">
+        <v>8</v>
+      </c>
+      <c r="J114" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E115">
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H115">
         <f>E115*VALUE(LEFT(G115, FIND(":", G115)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="I115" t="s">
+        <v>8</v>
+      </c>
+      <c r="J115" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="E116">
         <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H116">
         <f>E116*VALUE(LEFT(G116, FIND(":", G116)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="I116" t="s">
+        <v>8</v>
+      </c>
+      <c r="J116" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="E117">
         <v>1</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="G117" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H117">
         <f>E117*VALUE(LEFT(G117, FIND(":", G117)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="I117" t="s">
+        <v>8</v>
+      </c>
+      <c r="J117" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="E118">
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="H118">
         <f>E118*VALUE(LEFT(G118, FIND(":", G118)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="I118" t="s">
+        <v>8</v>
+      </c>
+      <c r="J118" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E119">
         <v>0</v>
       </c>
       <c r="G119" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H119">
         <f>E119*VALUE(LEFT(G119, FIND(":", G119)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:8">
+      <c r="I119" t="s">
+        <v>8</v>
+      </c>
+      <c r="J119" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="2"/>
       <c r="B120" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E120">
         <v>1</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="G120" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H120">
         <f>E120*VALUE(LEFT(G120, FIND(":", G120)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="I120" t="s">
+        <v>8</v>
+      </c>
+      <c r="J120" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E121">
         <v>0</v>
       </c>
       <c r="G121" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H121">
         <f>E121*VALUE(LEFT(G121, FIND(":", G121)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="I121" t="s">
+        <v>8</v>
+      </c>
+      <c r="J121" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="E122">
         <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H122">
         <f>E122*VALUE(LEFT(G122, FIND(":", G122)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="I122" t="s">
+        <v>8</v>
+      </c>
+      <c r="J122" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E123">
         <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H123">
         <f>E123*VALUE(LEFT(G123, FIND(":", G123)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="I123" t="s">
+        <v>8</v>
+      </c>
+      <c r="J123" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H124">
         <f>E124*VALUE(LEFT(G124, FIND(":", G124)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:8">
+      <c r="I124" t="s">
+        <v>8</v>
+      </c>
+      <c r="J124" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="E125">
         <v>1</v>
       </c>
       <c r="G125" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H125">
         <f>E125*VALUE(LEFT(G125, FIND(":", G125)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="I125" t="s">
+        <v>8</v>
+      </c>
+      <c r="J125" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E126">
         <v>0</v>
       </c>
       <c r="G126" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H126">
         <f>E126*VALUE(LEFT(G126, FIND(":", G126)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:8">
+      <c r="I126" t="s">
+        <v>6</v>
+      </c>
+      <c r="J126" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E127">
         <v>0</v>
       </c>
       <c r="G127" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H127">
         <f>E127*VALUE(LEFT(G127, FIND(":", G127)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:8">
+      <c r="I127" t="s">
+        <v>6</v>
+      </c>
+      <c r="J127" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E128">
         <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H128">
         <f>E128*VALUE(LEFT(G128, FIND(":", G128)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:8">
+      <c r="I128" t="s">
+        <v>6</v>
+      </c>
+      <c r="J128" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E129">
         <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="H129">
         <f>E129*VALUE(LEFT(G129, FIND(":", G129)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="I129" t="s">
+        <v>6</v>
+      </c>
+      <c r="J129" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E130">
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H130">
         <f>E130*VALUE(LEFT(G130, FIND(":", G130)-1))</f>
         <v>0</v>
+      </c>
+      <c r="I130" t="s">
+        <v>6</v>
+      </c>
+      <c r="J130" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/assessments/FinOps++/assessment.xlsx
+++ b/assessments/FinOps++/assessment.xlsx
@@ -2465,8 +2465,7 @@
     <col min="3" max="3" width="75.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="125.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="40.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.42578125" hidden="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.28515625" hidden="1" bestFit="1" customWidth="1"/>
@@ -2521,7 +2520,7 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H2">
@@ -2547,7 +2546,7 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H3">
@@ -2573,7 +2572,7 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H4">
@@ -2599,7 +2598,7 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H5">
@@ -2625,7 +2624,7 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H6">
@@ -2653,7 +2652,7 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H7">
@@ -2679,7 +2678,7 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H8">
@@ -2705,7 +2704,7 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H9">
@@ -2734,7 +2733,7 @@
       <c r="F10" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>349</v>
       </c>
       <c r="H10">
@@ -2760,7 +2759,7 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H11">
@@ -2788,7 +2787,7 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>350</v>
       </c>
       <c r="H12">
@@ -2814,7 +2813,7 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H13">
@@ -2840,7 +2839,7 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H14">
@@ -2866,7 +2865,7 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H15">
@@ -2892,7 +2891,7 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H16">
@@ -2918,7 +2917,7 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H17">
@@ -2946,7 +2945,7 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H18">
@@ -2972,7 +2971,7 @@
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>351</v>
       </c>
       <c r="H19">
@@ -2998,7 +2997,7 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H20">
@@ -3027,7 +3026,7 @@
       <c r="F21" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1" t="s">
         <v>349</v>
       </c>
       <c r="H21">
@@ -3053,7 +3052,7 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H22">
@@ -3081,7 +3080,7 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H23">
@@ -3107,7 +3106,7 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H24">
@@ -3133,7 +3132,7 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H25">
@@ -3159,7 +3158,7 @@
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H26">
@@ -3185,7 +3184,7 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H27">
@@ -3211,7 +3210,7 @@
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H28">
@@ -3239,7 +3238,7 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H29">
@@ -3265,7 +3264,7 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H30">
@@ -3291,7 +3290,7 @@
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="1" t="s">
         <v>350</v>
       </c>
       <c r="H31">
@@ -3317,7 +3316,7 @@
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H32">
@@ -3343,7 +3342,7 @@
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H33">
@@ -3369,7 +3368,7 @@
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="1" t="s">
         <v>350</v>
       </c>
       <c r="H34">
@@ -3397,7 +3396,7 @@
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H35">
@@ -3423,7 +3422,7 @@
       <c r="E36">
         <v>0</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H36">
@@ -3452,7 +3451,7 @@
       <c r="F37" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="1" t="s">
         <v>349</v>
       </c>
       <c r="H37">
@@ -3478,7 +3477,7 @@
       <c r="E38">
         <v>0</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H38">
@@ -3504,7 +3503,7 @@
       <c r="E39">
         <v>0</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H39">
@@ -3530,7 +3529,7 @@
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H40">
@@ -3560,7 +3559,7 @@
       <c r="E41">
         <v>1</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="1" t="s">
         <v>352</v>
       </c>
       <c r="H41">
@@ -3589,7 +3588,7 @@
       <c r="F42" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="1" t="s">
         <v>349</v>
       </c>
       <c r="H42">
@@ -3615,7 +3614,7 @@
       <c r="E43">
         <v>1</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="1" t="s">
         <v>353</v>
       </c>
       <c r="H43">
@@ -3641,7 +3640,7 @@
       <c r="E44">
         <v>0</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H44">
@@ -3667,7 +3666,7 @@
       <c r="E45">
         <v>0</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H45">
@@ -3693,7 +3692,7 @@
       <c r="E46">
         <v>0</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H46">
@@ -3721,7 +3720,7 @@
       <c r="E47">
         <v>1</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="1" t="s">
         <v>354</v>
       </c>
       <c r="H47">
@@ -3747,7 +3746,7 @@
       <c r="E48">
         <v>0</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H48">
@@ -3773,7 +3772,7 @@
       <c r="E49">
         <v>0</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H49">
@@ -3799,7 +3798,7 @@
       <c r="E50">
         <v>1</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="1" t="s">
         <v>350</v>
       </c>
       <c r="H50">
@@ -3825,7 +3824,7 @@
       <c r="E51">
         <v>0</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H51">
@@ -3851,7 +3850,7 @@
       <c r="E52">
         <v>0</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H52">
@@ -3879,7 +3878,7 @@
       <c r="E53">
         <v>1</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="1" t="s">
         <v>350</v>
       </c>
       <c r="H53">
@@ -3905,7 +3904,7 @@
       <c r="E54">
         <v>1</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="1" t="s">
         <v>350</v>
       </c>
       <c r="H54">
@@ -3931,7 +3930,7 @@
       <c r="E55">
         <v>0</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H55">
@@ -3957,7 +3956,7 @@
       <c r="E56">
         <v>0</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H56">
@@ -3983,7 +3982,7 @@
       <c r="E57">
         <v>0</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H57">
@@ -4012,7 +4011,7 @@
       <c r="F58" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="1" t="s">
         <v>349</v>
       </c>
       <c r="H58">
@@ -4040,7 +4039,7 @@
       <c r="E59">
         <v>0</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H59">
@@ -4066,7 +4065,7 @@
       <c r="E60">
         <v>1</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="1" t="s">
         <v>355</v>
       </c>
       <c r="H60">
@@ -4092,7 +4091,7 @@
       <c r="E61">
         <v>1</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="1" t="s">
         <v>354</v>
       </c>
       <c r="H61">
@@ -4118,7 +4117,7 @@
       <c r="E62">
         <v>0</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H62">
@@ -4144,7 +4143,7 @@
       <c r="E63">
         <v>0</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H63">
@@ -4170,7 +4169,7 @@
       <c r="E64">
         <v>0</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H64">
@@ -4201,7 +4200,7 @@
       <c r="F65" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="1" t="s">
         <v>349</v>
       </c>
       <c r="H65">
@@ -4230,7 +4229,7 @@
       <c r="F66" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="1" t="s">
         <v>354</v>
       </c>
       <c r="H66">
@@ -4259,7 +4258,7 @@
       <c r="F67" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="1" t="s">
         <v>349</v>
       </c>
       <c r="H67">
@@ -4288,7 +4287,7 @@
       <c r="F68" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="1" t="s">
         <v>354</v>
       </c>
       <c r="H68">
@@ -4317,7 +4316,7 @@
       <c r="F69" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="1" t="s">
         <v>354</v>
       </c>
       <c r="H69">
@@ -4346,7 +4345,7 @@
       <c r="F70" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="1" t="s">
         <v>349</v>
       </c>
       <c r="H70">
@@ -4372,7 +4371,7 @@
       <c r="E71">
         <v>0</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H71">
@@ -4403,7 +4402,7 @@
       <c r="F72" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="1" t="s">
         <v>349</v>
       </c>
       <c r="H72">
@@ -4432,7 +4431,7 @@
       <c r="F73" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="1" t="s">
         <v>349</v>
       </c>
       <c r="H73">
@@ -4458,7 +4457,7 @@
       <c r="E74">
         <v>1</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="1" t="s">
         <v>356</v>
       </c>
       <c r="H74">
@@ -4484,7 +4483,7 @@
       <c r="E75">
         <v>0</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H75">
@@ -4510,7 +4509,7 @@
       <c r="E76">
         <v>0</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H76">
@@ -4539,7 +4538,7 @@
       <c r="F77" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="1" t="s">
         <v>349</v>
       </c>
       <c r="H77">
@@ -4565,7 +4564,7 @@
       <c r="E78">
         <v>0</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H78">
@@ -4593,7 +4592,7 @@
       <c r="E79">
         <v>0</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H79">
@@ -4619,7 +4618,7 @@
       <c r="E80">
         <v>0</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H80">
@@ -4645,7 +4644,7 @@
       <c r="E81">
         <v>0</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H81">
@@ -4671,7 +4670,7 @@
       <c r="E82">
         <v>1</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="1" t="s">
         <v>357</v>
       </c>
       <c r="H82">
@@ -4697,7 +4696,7 @@
       <c r="E83">
         <v>0</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H83">
@@ -4726,7 +4725,7 @@
       <c r="F84" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="1" t="s">
         <v>349</v>
       </c>
       <c r="H84">
@@ -4755,7 +4754,7 @@
       <c r="F85" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="1" t="s">
         <v>349</v>
       </c>
       <c r="H85">
@@ -4781,7 +4780,7 @@
       <c r="E86">
         <v>0</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H86">
@@ -4807,7 +4806,7 @@
       <c r="E87">
         <v>1</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="1" t="s">
         <v>357</v>
       </c>
       <c r="H87">
@@ -4835,7 +4834,7 @@
       <c r="E88">
         <v>0</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H88">
@@ -4864,7 +4863,7 @@
       <c r="F89" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="1" t="s">
         <v>349</v>
       </c>
       <c r="H89">
@@ -4893,7 +4892,7 @@
       <c r="F90" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="1" t="s">
         <v>349</v>
       </c>
       <c r="H90">
@@ -4919,7 +4918,7 @@
       <c r="E91">
         <v>0</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H91">
@@ -4945,7 +4944,7 @@
       <c r="E92">
         <v>1</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="1" t="s">
         <v>356</v>
       </c>
       <c r="H92">
@@ -4971,7 +4970,7 @@
       <c r="E93">
         <v>0</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H93">
@@ -4997,7 +4996,7 @@
       <c r="E94">
         <v>0</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H94">
@@ -5027,7 +5026,7 @@
       <c r="E95">
         <v>0</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H95">
@@ -5053,7 +5052,7 @@
       <c r="E96">
         <v>0</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H96">
@@ -5079,7 +5078,7 @@
       <c r="E97">
         <v>0</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H97">
@@ -5105,7 +5104,7 @@
       <c r="E98">
         <v>0</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H98">
@@ -5131,7 +5130,7 @@
       <c r="E99">
         <v>1</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="1" t="s">
         <v>358</v>
       </c>
       <c r="H99">
@@ -5157,7 +5156,7 @@
       <c r="E100">
         <v>0</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H100">
@@ -5185,7 +5184,7 @@
       <c r="E101">
         <v>1</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="1" t="s">
         <v>352</v>
       </c>
       <c r="H101">
@@ -5211,7 +5210,7 @@
       <c r="E102">
         <v>1</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="1" t="s">
         <v>352</v>
       </c>
       <c r="H102">
@@ -5237,7 +5236,7 @@
       <c r="E103">
         <v>0</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H103">
@@ -5263,7 +5262,7 @@
       <c r="E104">
         <v>0</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H104">
@@ -5289,7 +5288,7 @@
       <c r="E105">
         <v>0</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H105">
@@ -5315,7 +5314,7 @@
       <c r="E106">
         <v>0</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H106">
@@ -5343,7 +5342,7 @@
       <c r="E107">
         <v>0</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H107">
@@ -5372,7 +5371,7 @@
       <c r="F108" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" s="1" t="s">
         <v>349</v>
       </c>
       <c r="H108">
@@ -5398,7 +5397,7 @@
       <c r="E109">
         <v>1</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H109">
@@ -5427,7 +5426,7 @@
       <c r="F110" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="1" t="s">
         <v>354</v>
       </c>
       <c r="H110">
@@ -5453,7 +5452,7 @@
       <c r="E111">
         <v>1</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="1" t="s">
         <v>359</v>
       </c>
       <c r="H111">
@@ -5482,7 +5481,7 @@
       <c r="F112" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="1" t="s">
         <v>349</v>
       </c>
       <c r="H112">
@@ -5510,7 +5509,7 @@
       <c r="E113">
         <v>0</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H113">
@@ -5536,7 +5535,7 @@
       <c r="E114">
         <v>0</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H114">
@@ -5562,7 +5561,7 @@
       <c r="E115">
         <v>0</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H115">
@@ -5588,7 +5587,7 @@
       <c r="E116">
         <v>0</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H116">
@@ -5617,7 +5616,7 @@
       <c r="F117" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="1" t="s">
         <v>349</v>
       </c>
       <c r="H117">
@@ -5643,7 +5642,7 @@
       <c r="E118">
         <v>1</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="1" t="s">
         <v>354</v>
       </c>
       <c r="H118">
@@ -5669,7 +5668,7 @@
       <c r="E119">
         <v>0</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H119">
@@ -5700,7 +5699,7 @@
       <c r="F120" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" s="1" t="s">
         <v>349</v>
       </c>
       <c r="H120">
@@ -5726,7 +5725,7 @@
       <c r="E121">
         <v>0</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H121">
@@ -5752,7 +5751,7 @@
       <c r="E122">
         <v>0</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H122">
@@ -5778,7 +5777,7 @@
       <c r="E123">
         <v>0</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H123">
@@ -5804,7 +5803,7 @@
       <c r="E124">
         <v>0</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H124">
@@ -5830,7 +5829,7 @@
       <c r="E125">
         <v>1</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G125" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H125">
@@ -5860,7 +5859,7 @@
       <c r="E126">
         <v>0</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G126" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H126">
@@ -5886,7 +5885,7 @@
       <c r="E127">
         <v>0</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H127">
@@ -5912,7 +5911,7 @@
       <c r="E128">
         <v>0</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H128">
@@ -5938,7 +5937,7 @@
       <c r="E129">
         <v>1</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" s="1" t="s">
         <v>360</v>
       </c>
       <c r="H129">
@@ -5964,7 +5963,7 @@
       <c r="E130">
         <v>0</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H130">

--- a/assessments/FinOps++/assessment.xlsx
+++ b/assessments/FinOps++/assessment.xlsx
@@ -924,7 +924,7 @@
 10*Ceil(x/2)</t>
   </si>
   <si>
-    <t>* Define communication pathways between finops and the business
+    <t>* Define communication pathways between FinOps and the business
 * Conduct trainings or create videos
 * Send out period newsletters
 * CI/CD governance

--- a/assessments/FinOps++/assessment.xlsx
+++ b/assessments/FinOps++/assessment.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="360">
   <si>
     <t>Sum of Weights</t>
   </si>
@@ -145,391 +145,388 @@
     <t>action</t>
   </si>
   <si>
-    <t>Define goals/scope; pick capabilities to measure this cycle.</t>
-  </si>
-  <si>
-    <t>Collect evidence-based inputs; reduce bias with standardized questions.</t>
-  </si>
-  <si>
-    <t>Establish baselines; identify outliers, patterns, and trends.</t>
-  </si>
-  <si>
-    <t>Prioritize actions; publish an improvement roadmap with owners/dates.</t>
-  </si>
-  <si>
-    <t>Re-assess on a set cadence; show progress and re-prioritize.</t>
-  </si>
-  <si>
-    <t>Run needs/skills gap assessment across personas and teams.</t>
-  </si>
-  <si>
-    <t>Develop role-based curricula, playbooks, and onboarding content.</t>
-  </si>
-  <si>
-    <t>Offer certifications and informal learning (office hours, lunch-and-learns).</t>
-  </si>
-  <si>
-    <t>Leverage CSP/vendor training; contextualize to your environment.</t>
-  </si>
-  <si>
-    <t>Track participation and effect on KPIs; refresh content on cadence.</t>
-  </si>
-  <si>
-    <t>Define org model, staffing/skills, and operating budget for FinOps.</t>
-  </si>
-  <si>
-    <t>Create an implementation roadmap and prioritized backlog.</t>
-  </si>
-  <si>
-    <t>Integrate cost data into forecasting, budgeting, procurement workflows.</t>
-  </si>
-  <si>
-    <t>Publish KPIs (adoption, tagging compliance, anomaly response, savings rate).</t>
-  </si>
-  <si>
-    <t>Drive stakeholder engagement; make wins and misses visible.</t>
-  </si>
-  <si>
-    <t>Automate repetitive tasks; review practice maturity quarterly.</t>
-  </si>
-  <si>
-    <t>Run a needs-based assessment; define success criteria and constraints.</t>
-  </si>
-  <si>
-    <t>Evaluate build vs buy; map requirements to vendor capabilities.</t>
-  </si>
-  <si>
-    <t>Implement/configure; tailor access/permissions and integrations.</t>
-  </si>
-  <si>
-    <t>Train users; "put data in the path" of existing workflows and tools.</t>
-  </si>
-  <si>
-    <t>Monitor adoption, data quality, ROI; iterate or replace when needed.</t>
-  </si>
-  <si>
-    <t>Establish collaboration with TBM, ITAM, Security, SRE, and PMO.</t>
-  </si>
-  <si>
-    <t>Align goals, data models, taxonomies, and decision workflows.</t>
-  </si>
-  <si>
-    <t>Share reporting infrastructure and common definitions; avoid duplication.</t>
-  </si>
-  <si>
-    <t>Provide allied teams the cloud metrics they need.</t>
-  </si>
-  <si>
-    <t>Coordinate policy/gov changes cross-functionally; communicate broadly.</t>
-  </si>
-  <si>
-    <t>Use shared influence to drive adoption and resolve conflicts quickly.</t>
-  </si>
-  <si>
-    <t>Map CSP invoices to allocation model and financial systems (GL, ERP).</t>
-  </si>
-  <si>
-    <t>Reconcile rates/discounts/credits quickly; track completion SLA.</t>
-  </si>
-  <si>
-    <t>Co-design chargeback/showback with Finance; document rules and cadence.</t>
-  </si>
-  <si>
-    <t>Automate data flows and chargeback runs; minimize manual effort.</t>
-  </si>
-  <si>
-    <t>Distribute chargeback reports; track accuracy, cycle time, and disputes.</t>
-  </si>
-  <si>
-    <t>Resolve variances; increase shared-cost coverage over time.</t>
-  </si>
-  <si>
-    <t>Create selection criteria and a value-vs-effort matrix.</t>
-  </si>
-  <si>
-    <t>Define success criteria, in/out of scope, constraints, timelines.</t>
-  </si>
-  <si>
-    <t>Enforce tagging, compliance, and automation standards at onboarding.</t>
-  </si>
-  <si>
-    <t>Align project timelines with budgets, dependencies, and releases.</t>
-  </si>
-  <si>
-    <t>Start with lower envs; have a rollback plan before production cutover.</t>
-  </si>
-  <si>
-    <t>Review post-onboard outcomes vs estimates and KPIs; adjust patterns.</t>
-  </si>
-  <si>
-    <t>Establish intake/review process for new and existing architectures.</t>
-  </si>
-  <si>
-    <t>Assess workloads for modernization (managed services, serverless, data tiers).</t>
-  </si>
-  <si>
-    <t>Estimate cost/performance/resiliency/security trade-offs; document cases.</t>
-  </si>
-  <si>
-    <t>Implement iteratively; test, measure, and capture before/after results.</t>
-  </si>
-  <si>
-    <t>Publish realized benefits and lessons; update reference architectures.</t>
-  </si>
-  <si>
-    <t>Strengthen app/security/infra architect collaboration and approvals.</t>
-  </si>
-  <si>
-    <t>Inventory licenses/SaaS (marketplace, BYOL); map to cloud resources.</t>
-  </si>
-  <si>
-    <t>Document licensing models and constraints; tag for allocation/chargeback.</t>
-  </si>
-  <si>
-    <t>Integrate billing + entitlement data with Procurement/ITAM/SAM.</t>
-  </si>
-  <si>
-    <t>Validate utilization/compliance; remediate idle/over-provisioned licenses.</t>
-  </si>
-  <si>
-    <t>Influence workload design (IaaS vs PaaS vs SaaS) with cost/compliance input.</t>
-  </si>
-  <si>
-    <t>Publish license/SaaS spend and utilization to stakeholders regularly.</t>
-  </si>
-  <si>
-    <t>Document commitment strategy (RIs/Savings Plans/CUDs) and guardrails.</t>
-  </si>
-  <si>
-    <t>Build repeatable analysis for coverage, utilization, and breakeven.</t>
-  </si>
-  <si>
-    <t>Purchase commitments frequently; target healthy utilization.</t>
-  </si>
-  <si>
-    <t>Track ROI, coverage gaps, expirations; notify owners early.</t>
-  </si>
-  <si>
-    <t>Allocate upfront costs appropriately and transparently.</t>
-  </si>
-  <si>
-    <t>Leverage spot/negotiated discounts where safe; reassess after architecture shifts.</t>
-  </si>
-  <si>
-    <t>Define strategy (value vs risk thresholds, target utilization/efficiency).</t>
-  </si>
-  <si>
-    <t>Inventory workloads; classify variable vs consistent.</t>
-  </si>
-  <si>
-    <t>Collect usage/perf metrics; identify rightsizing/scheduling candidates.</t>
-  </si>
-  <si>
-    <t>Partner with engineers on schedules (stop/scale/resize/storage tiers).</t>
-  </si>
-  <si>
-    <t>Gamify adoption (leaderboards, goals) and celebrate wins.</t>
-  </si>
-  <si>
-    <t>Track KPI deltas (CPU/GB-hrs, idle %, savings rate); document playbooks.</t>
-  </si>
-  <si>
-    <t>Define metadata &amp; hierarchy strategy; map to business units/products.</t>
-  </si>
-  <si>
-    <t>Identify shared costs; agree apportionment rules and document them.</t>
-  </si>
-  <si>
-    <t>Publish allocation taxonomy; include overlays (project, app ID, cost center).</t>
-  </si>
-  <si>
-    <t>Implement tagging/labeling standards; educate and enforce.</t>
-  </si>
-  <si>
-    <t>Validate allocation compliance; report gaps and financial impact.</t>
-  </si>
-  <si>
-    <t>Automate parsing/enforcement (policies, CI/CD checks, tag bots).</t>
-  </si>
-  <si>
-    <t>Iterate strategies and communicate changes broadly.</t>
-  </si>
-  <si>
-    <t>Configure detection for total cost spikes, cost/usage rate shifts, unit drops.</t>
-  </si>
-  <si>
-    <t>Define severity tiers, thresholds, and response SLAs; publish runbooks.</t>
-  </si>
-  <si>
-    <t>Automate alert routing to owners via existing channels (email/Slack/Teams).</t>
-  </si>
-  <si>
-    <t>Record each anomaly with context, scope, impact, and timeline.</t>
-  </si>
-  <si>
-    <t>Analyze root causes; fix tags, allocation rules, or usage issues.</t>
-  </si>
-  <si>
-    <t>Track metrics (detection/notification/resolution time, false positives, avoidance).</t>
-  </si>
-  <si>
-    <t>Tune thresholds regularly to reduce noise, increase trust.</t>
-  </si>
-  <si>
-    <t>Inventory all data sources (CSP cost/usage, performance, on-prem, internal).</t>
-  </si>
-  <si>
-    <t>Choose tooling to land/validate datasets.</t>
-  </si>
-  <si>
-    <t>Create landing zones with access controls, retention, and permissions.</t>
-  </si>
-  <si>
-    <t>Define data granularity; include mandatory metadata.</t>
-  </si>
-  <si>
-    <t>Document normalization/augmentation rules and owners; version them.</t>
-  </si>
-  <si>
-    <t>Implement data quality checks, SLAs, and runbooks; monitor failures.</t>
-  </si>
-  <si>
-    <t>Build dashboards/alerts for ingestion anomalies; triage and resolve.</t>
-  </si>
-  <si>
-    <t>Continuously optimize pipelines for timeliness and cost.</t>
-  </si>
-  <si>
-    <t>Define ingestion frequency; include mandatory metadata.</t>
-  </si>
-  <si>
-    <t>Gather persona–specific requirements; define KPIs/OKRs and glossary.</t>
-  </si>
-  <si>
-    <t>Enrich billing with business logic (amortization, discounts, mappings).</t>
-  </si>
-  <si>
-    <t>Build dashboards for routine, showback, investigative, and ad hoc views.</t>
-  </si>
-  <si>
-    <t>Publish documentation, data sensitivity rules, and support channels.</t>
-  </si>
-  <si>
-    <t>Embed reports into workflows (Slack/Jira/Teams) and set alerting.</t>
-  </si>
-  <si>
-    <t>Track adoption/usage; run A/B revisions; manage changes via staging.</t>
-  </si>
-  <si>
-    <t>Iterate based on feedback and outcome metrics, not just views.</t>
-  </si>
-  <si>
-    <t>Select meaningful KPIs and unit metrics; define measurement scope.</t>
-  </si>
-  <si>
-    <t>Validate tagging/allocation health to ensure comparable data.</t>
-  </si>
-  <si>
-    <t>Choose internal vs external benchmarks; align apples-to-apples units.</t>
-  </si>
-  <si>
-    <t>Stand up internal benchmarking across teams/products; share league tables.</t>
-  </si>
-  <si>
-    <t>Track trends; compare like-for-like and measure unique items against self over time.</t>
-  </si>
-  <si>
-    <t>Translate benchmark gaps into specific optimization initiatives.</t>
-  </si>
-  <si>
-    <t>Define budgeting strategy (granularity, owners, holdbacks, thresholds).</t>
-  </si>
-  <si>
-    <t>Integrate rolling forecasts to adjust budgets as drivers change.</t>
-  </si>
-  <si>
-    <t>Increase allocation coverage of shared costs; automate where possible.</t>
-  </si>
-  <si>
-    <t>Publish "budget vs actual vs forecast" by business dimensions.</t>
-  </si>
-  <si>
-    <t>Automate threshold alerts; surface in the tools budget owners use.</t>
-  </si>
-  <si>
-    <t>Review/adapt strategy when KPIs stagnate or org factors change (M&amp;A, regs).</t>
-  </si>
-  <si>
-    <t>Establish "why," approach (simple/trend/driver-based), cadence, and horizon.</t>
-  </si>
-  <si>
-    <t>Collect business drivers (launches, promos, growth) on a set schedule.</t>
-  </si>
-  <si>
-    <t>Run rolling forecasts; refresh weekly/biweekly for accuracy.</t>
-  </si>
-  <si>
-    <t>Compare forecast vs actual; produce variance narratives and actions.</t>
-  </si>
-  <si>
-    <t>Automate variance alerts for budget owners and product leaders.</t>
-  </si>
-  <si>
-    <t>Feed learnings into budgeting, commitments, and optimization backlogs.</t>
-  </si>
-  <si>
-    <t>Define estimating scope, inputs, assumptions, and policy constraints.</t>
-  </si>
-  <si>
-    <t>Agree pricing assumptions (on-demand vs commitments), shared/platform costs.</t>
-  </si>
-  <si>
-    <t>Select methods (calculator, similar apps, extrapolation, trial runs).</t>
-  </si>
-  <si>
-    <t>Include sustainability/operational impacts when relevant.</t>
-  </si>
-  <si>
-    <t>Establish decision process for which scenarios feed the forecast.</t>
-  </si>
-  <si>
-    <t>Report estimate accuracy; enforce variance thresholds by maturity.</t>
-  </si>
-  <si>
-    <t>Coach engineering to own estimates; compare isolated components first.</t>
-  </si>
-  <si>
-    <t>Define business-relevant unit(s) (e.g., cost per order/user/GB-item).</t>
-  </si>
-  <si>
-    <t>Document included financial inputs and exact formulas; version control.</t>
-  </si>
-  <si>
-    <t>Build dashboards to expose unit costs by product/segment/region.</t>
-  </si>
-  <si>
-    <t>Set review cadence; align targets with product and finance goals.</t>
-  </si>
-  <si>
-    <t>Use unit metrics to prioritize engineering/architecture investments.</t>
-  </si>
-  <si>
-    <t>Communicate wins (unit cost reductions) to drive cultural adoption.</t>
-  </si>
-  <si>
-    <t>Draft clear, goal-aligned cloud financial policies (what "good" looks like).</t>
-  </si>
-  <si>
-    <t>Publish guidelines, guardrails, and automation controls.</t>
-  </si>
-  <si>
-    <t>Enable/educate stakeholders on policy expectations and exceptions.</t>
-  </si>
-  <si>
-    <t>Monitor compliance; report breaches with remediation paths.</t>
-  </si>
-  <si>
-    <t>Iterate policies based on outcomes and stakeholder feedback.</t>
+    <t>Define Assessment Scope &amp; Goals</t>
+  </si>
+  <si>
+    <t>Collect Standardized Assessment Inputs</t>
+  </si>
+  <si>
+    <t>Establish Baselines &amp; Identify Trends</t>
+  </si>
+  <si>
+    <t>Prioritize Actions &amp; Publish Roadmap</t>
+  </si>
+  <si>
+    <t>Reassess Progress &amp; Update Priorities</t>
+  </si>
+  <si>
+    <t>Assess Skills &amp; Training Needs</t>
+  </si>
+  <si>
+    <t>Develop Role-Based Learning Content</t>
+  </si>
+  <si>
+    <t>Offer Certifications &amp; Informal Learning</t>
+  </si>
+  <si>
+    <t>Leverage Vendor Training Resources</t>
+  </si>
+  <si>
+    <t>Track Training Impact &amp; Refresh Content</t>
+  </si>
+  <si>
+    <t>Define Org Model &amp; Budget</t>
+  </si>
+  <si>
+    <t>Create Implementation Roadmap</t>
+  </si>
+  <si>
+    <t>Integrate Cost Data in Workflows</t>
+  </si>
+  <si>
+    <t>Publish FinOps KPIs</t>
+  </si>
+  <si>
+    <t>Drive Stakeholder Engagement</t>
+  </si>
+  <si>
+    <t>Automate Tasks &amp; Review Maturity</t>
+  </si>
+  <si>
+    <t>Assess Tooling Needs &amp; Criteria</t>
+  </si>
+  <si>
+    <t>Evaluate Build vs Buy Options</t>
+  </si>
+  <si>
+    <t>Implement &amp; Configure Tools</t>
+  </si>
+  <si>
+    <t>Train Users &amp; Integrate Data</t>
+  </si>
+  <si>
+    <t>Monitor Adoption &amp; Iterate Tools</t>
+  </si>
+  <si>
+    <t>Establish Cross-Team Collab</t>
+  </si>
+  <si>
+    <t>Align Goals &amp; Data Models</t>
+  </si>
+  <si>
+    <t>Share Reporting &amp; Definitions</t>
+  </si>
+  <si>
+    <t>Provide Cloud Metrics to Teams</t>
+  </si>
+  <si>
+    <t>Coordinate Policy Changes Broadly</t>
+  </si>
+  <si>
+    <t>Drive Adoption &amp; Resolve Conflicts</t>
+  </si>
+  <si>
+    <t>Map Invoices to Allocation Model</t>
+  </si>
+  <si>
+    <t>Reconcile Rates &amp; Track Completion</t>
+  </si>
+  <si>
+    <t>Design Chargeback with Finance</t>
+  </si>
+  <si>
+    <t>Automate Chargeback Data Flows</t>
+  </si>
+  <si>
+    <t>Distribute Reports &amp; Track Accuracy</t>
+  </si>
+  <si>
+    <t>Resolve Variances &amp; Increase Coverage</t>
+  </si>
+  <si>
+    <t>Create Workload Selection Criteria</t>
+  </si>
+  <si>
+    <t>Define Success Criteria &amp; Scope</t>
+  </si>
+  <si>
+    <t>Enforce Tagging at Onboarding</t>
+  </si>
+  <si>
+    <t>Align Timelines with Budgets</t>
+  </si>
+  <si>
+    <t>Start with Lower Environments</t>
+  </si>
+  <si>
+    <t>Review Outcomes &amp; Adjust Patterns</t>
+  </si>
+  <si>
+    <t>Establish Architecture Review Process</t>
+  </si>
+  <si>
+    <t>Assess Workloads for Modernization</t>
+  </si>
+  <si>
+    <t>Estimate Trade-Offs &amp; Document Cases</t>
+  </si>
+  <si>
+    <t>Implement Iteratively &amp; Measure Results</t>
+  </si>
+  <si>
+    <t>Publish Benefits &amp; Update References</t>
+  </si>
+  <si>
+    <t>Strengthen Architecture Collaboration</t>
+  </si>
+  <si>
+    <t>Inventory Licenses &amp; Map Resources</t>
+  </si>
+  <si>
+    <t>Document Licensing Models</t>
+  </si>
+  <si>
+    <t>Integrate Billing with Procurement</t>
+  </si>
+  <si>
+    <t>Validate Utilization &amp; Remediate</t>
+  </si>
+  <si>
+    <t>Influence Workload Design Choices</t>
+  </si>
+  <si>
+    <t>Publish License Spend &amp; Utilization</t>
+  </si>
+  <si>
+    <t>Document Commitment Strategy</t>
+  </si>
+  <si>
+    <t>Build Commitment Analysis Process</t>
+  </si>
+  <si>
+    <t>Purchase Commitments Regularly</t>
+  </si>
+  <si>
+    <t>Track ROI &amp; Notify Owners</t>
+  </si>
+  <si>
+    <t>Allocate Upfront Costs Transparently</t>
+  </si>
+  <si>
+    <t>Leverage Spot &amp; Negotiated Discounts</t>
+  </si>
+  <si>
+    <t>Define Optimization Strategy</t>
+  </si>
+  <si>
+    <t>Inventory &amp; Classify Workloads</t>
+  </si>
+  <si>
+    <t>Collect Metrics &amp; Identify Candidates</t>
+  </si>
+  <si>
+    <t>Partner on Scheduling Actions</t>
+  </si>
+  <si>
+    <t>Gamify Adoption &amp; Celebrate Wins</t>
+  </si>
+  <si>
+    <t>Track KPIs &amp; Document Playbooks</t>
+  </si>
+  <si>
+    <t>Define Metadata &amp; Hierarchy Strategy</t>
+  </si>
+  <si>
+    <t>Identify Shared Costs &amp; Rules</t>
+  </si>
+  <si>
+    <t>Publish Allocation Taxonomy</t>
+  </si>
+  <si>
+    <t>Implement Tagging Standards</t>
+  </si>
+  <si>
+    <t>Validate Compliance &amp; Report Gaps</t>
+  </si>
+  <si>
+    <t>Automate Tagging &amp; Enforcement</t>
+  </si>
+  <si>
+    <t>Iterate Strategies &amp; Communicate</t>
+  </si>
+  <si>
+    <t>Configure Cost Spike Detection</t>
+  </si>
+  <si>
+    <t>Define Severity &amp; Response SLAs</t>
+  </si>
+  <si>
+    <t>Automate Alert Routing</t>
+  </si>
+  <si>
+    <t>Record Anomaly Context &amp; Timeline</t>
+  </si>
+  <si>
+    <t>Analyze Root Causes &amp; Fix Issues</t>
+  </si>
+  <si>
+    <t>Track Metrics &amp; Avoidance Rates</t>
+  </si>
+  <si>
+    <t>Tune Thresholds to Reduce Noise</t>
+  </si>
+  <si>
+    <t>Inventory All Data Sources</t>
+  </si>
+  <si>
+    <t>Choose Data Landing Tooling</t>
+  </si>
+  <si>
+    <t>Create Landing Zones &amp; Controls</t>
+  </si>
+  <si>
+    <t>Define Data Granularity &amp; Frequency</t>
+  </si>
+  <si>
+    <t>Document Normalization Rules</t>
+  </si>
+  <si>
+    <t>Implement Data Quality Checks</t>
+  </si>
+  <si>
+    <t>Build Ingestion Anomaly Dashboards</t>
+  </si>
+  <si>
+    <t>Optimize Pipelines for Timeliness</t>
+  </si>
+  <si>
+    <t>Gather Requirements &amp; Define KPIs</t>
+  </si>
+  <si>
+    <t>Enrich Billing with Business Logic</t>
+  </si>
+  <si>
+    <t>Build Dashboards for All Views</t>
+  </si>
+  <si>
+    <t>Publish Documentation &amp; Support</t>
+  </si>
+  <si>
+    <t>Embed Reports in Workflows</t>
+  </si>
+  <si>
+    <t>Track Adoption &amp; Manage Changes</t>
+  </si>
+  <si>
+    <t>Iterate Based on Feedback</t>
+  </si>
+  <si>
+    <t>Select KPIs &amp; Measurement Scope</t>
+  </si>
+  <si>
+    <t>Validate Tagging for Comparability</t>
+  </si>
+  <si>
+    <t>Choose Internal vs External Benchmarks</t>
+  </si>
+  <si>
+    <t>Stand Up Internal Benchmarking</t>
+  </si>
+  <si>
+    <t>Track Trends &amp; Compare Over Time</t>
+  </si>
+  <si>
+    <t>Translate Gaps to Initiatives</t>
+  </si>
+  <si>
+    <t>Define Budgeting Strategy</t>
+  </si>
+  <si>
+    <t>Integrate Rolling Forecasts</t>
+  </si>
+  <si>
+    <t>Increase Shared Cost Coverage</t>
+  </si>
+  <si>
+    <t>Publish Budget vs Actual Reports</t>
+  </si>
+  <si>
+    <t>Automate Budget Threshold Alerts</t>
+  </si>
+  <si>
+    <t>Review &amp; Adapt Budget Strategy</t>
+  </si>
+  <si>
+    <t>Establish Forecasting Approach</t>
+  </si>
+  <si>
+    <t>Collect Business Drivers Regularly</t>
+  </si>
+  <si>
+    <t>Run &amp; Refresh Rolling Forecasts</t>
+  </si>
+  <si>
+    <t>Compare Forecast vs Actuals</t>
+  </si>
+  <si>
+    <t>Automate Variance Alerts</t>
+  </si>
+  <si>
+    <t>Feed Learnings into Budgeting &amp; Commitments</t>
+  </si>
+  <si>
+    <t>Define Estimating Scope &amp; Policy</t>
+  </si>
+  <si>
+    <t>Agree on Pricing Assumptions</t>
+  </si>
+  <si>
+    <t>Select Estimation Methods</t>
+  </si>
+  <si>
+    <t>Include Sustainability Impacts</t>
+  </si>
+  <si>
+    <t>Establish Scenario Decision Process</t>
+  </si>
+  <si>
+    <t>Report Estimate Accuracy</t>
+  </si>
+  <si>
+    <t>Coach Engineering on Estimates</t>
+  </si>
+  <si>
+    <t>Define Business-Relevant Units</t>
+  </si>
+  <si>
+    <t>Document Inputs &amp; Formulas</t>
+  </si>
+  <si>
+    <t>Build Unit Cost Dashboards</t>
+  </si>
+  <si>
+    <t>Set Review Cadence &amp; Targets</t>
+  </si>
+  <si>
+    <t>Use Metrics to Prioritize Investments</t>
+  </si>
+  <si>
+    <t>Communicate Unit Cost Wins</t>
+  </si>
+  <si>
+    <t>Draft Cloud Financial Policies</t>
+  </si>
+  <si>
+    <t>Publish Guidelines &amp; Guardrails</t>
+  </si>
+  <si>
+    <t>Educate Stakeholders on Policy</t>
+  </si>
+  <si>
+    <t>Monitor Compliance &amp; Report Breaches</t>
+  </si>
+  <si>
+    <t>Iterate Policies Based on Feedback</t>
   </si>
   <si>
     <t>113</t>
@@ -972,7 +969,10 @@
     <t>Percentage of total costs that are tagged for Each Required Tag</t>
   </si>
   <si>
-    <t>Total Effective Costs Associated with Unallocated CSP Cloud Resources During a Period of Time / Total CSP Cloud Costs During a Period of Time</t>
+    <t xml:space="preserve">x = Total Effective Costs Associated with Unallocated CSP Cloud Resources During
+y = Total CSP Cloud Costs During a Period of Time
+x / y
+</t>
   </si>
   <si>
     <t>Effectiveness/Effort by strategy
@@ -2462,7 +2462,7 @@
   <cols>
     <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="40.7109375" style="1" customWidth="1"/>
@@ -2515,13 +2515,13 @@
         <v>42</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H2">
         <f>E2*VALUE(LEFT(G2, FIND(":", G2)-1))</f>
@@ -2541,13 +2541,13 @@
         <v>43</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H3">
         <f>E3*VALUE(LEFT(G3, FIND(":", G3)-1))</f>
@@ -2567,13 +2567,13 @@
         <v>44</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H4">
         <f>E4*VALUE(LEFT(G4, FIND(":", G4)-1))</f>
@@ -2593,13 +2593,13 @@
         <v>45</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H5">
         <f>E5*VALUE(LEFT(G5, FIND(":", G5)-1))</f>
@@ -2619,13 +2619,13 @@
         <v>46</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H6">
         <f>E6*VALUE(LEFT(G6, FIND(":", G6)-1))</f>
@@ -2647,13 +2647,13 @@
         <v>47</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H7">
         <f>E7*VALUE(LEFT(G7, FIND(":", G7)-1))</f>
@@ -2673,13 +2673,13 @@
         <v>48</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H8">
         <f>E8*VALUE(LEFT(G8, FIND(":", G8)-1))</f>
@@ -2699,13 +2699,13 @@
         <v>49</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H9">
         <f>E9*VALUE(LEFT(G9, FIND(":", G9)-1))</f>
@@ -2725,16 +2725,16 @@
         <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H10">
         <f>E10*VALUE(LEFT(G10, FIND(":", G10)-1))</f>
@@ -2754,13 +2754,13 @@
         <v>51</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H11">
         <f>E11*VALUE(LEFT(G11, FIND(":", G11)-1))</f>
@@ -2782,13 +2782,13 @@
         <v>52</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H12">
         <f>E12*VALUE(LEFT(G12, FIND(":", G12)-1))</f>
@@ -2808,13 +2808,13 @@
         <v>53</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H13">
         <f>E13*VALUE(LEFT(G13, FIND(":", G13)-1))</f>
@@ -2834,13 +2834,13 @@
         <v>54</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H14">
         <f>E14*VALUE(LEFT(G14, FIND(":", G14)-1))</f>
@@ -2860,13 +2860,13 @@
         <v>55</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H15">
         <f>E15*VALUE(LEFT(G15, FIND(":", G15)-1))</f>
@@ -2886,13 +2886,13 @@
         <v>56</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H16">
         <f>E16*VALUE(LEFT(G16, FIND(":", G16)-1))</f>
@@ -2912,13 +2912,13 @@
         <v>57</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H17">
         <f>E17*VALUE(LEFT(G17, FIND(":", G17)-1))</f>
@@ -2940,13 +2940,13 @@
         <v>58</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H18">
         <f>E18*VALUE(LEFT(G18, FIND(":", G18)-1))</f>
@@ -2966,13 +2966,13 @@
         <v>59</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H19">
         <f>E19*VALUE(LEFT(G19, FIND(":", G19)-1))</f>
@@ -2992,13 +2992,13 @@
         <v>60</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H20">
         <f>E20*VALUE(LEFT(G20, FIND(":", G20)-1))</f>
@@ -3018,16 +3018,16 @@
         <v>61</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H21">
         <f>E21*VALUE(LEFT(G21, FIND(":", G21)-1))</f>
@@ -3047,13 +3047,13 @@
         <v>62</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H22">
         <f>E22*VALUE(LEFT(G22, FIND(":", G22)-1))</f>
@@ -3075,13 +3075,13 @@
         <v>63</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H23">
         <f>E23*VALUE(LEFT(G23, FIND(":", G23)-1))</f>
@@ -3101,13 +3101,13 @@
         <v>64</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H24">
         <f>E24*VALUE(LEFT(G24, FIND(":", G24)-1))</f>
@@ -3127,13 +3127,13 @@
         <v>65</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H25">
         <f>E25*VALUE(LEFT(G25, FIND(":", G25)-1))</f>
@@ -3153,13 +3153,13 @@
         <v>66</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H26">
         <f>E26*VALUE(LEFT(G26, FIND(":", G26)-1))</f>
@@ -3179,13 +3179,13 @@
         <v>67</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H27">
         <f>E27*VALUE(LEFT(G27, FIND(":", G27)-1))</f>
@@ -3205,13 +3205,13 @@
         <v>68</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H28">
         <f>E28*VALUE(LEFT(G28, FIND(":", G28)-1))</f>
@@ -3233,13 +3233,13 @@
         <v>69</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H29">
         <f>E29*VALUE(LEFT(G29, FIND(":", G29)-1))</f>
@@ -3259,13 +3259,13 @@
         <v>70</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H30">
         <f>E30*VALUE(LEFT(G30, FIND(":", G30)-1))</f>
@@ -3285,13 +3285,13 @@
         <v>71</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H31">
         <f>E31*VALUE(LEFT(G31, FIND(":", G31)-1))</f>
@@ -3311,13 +3311,13 @@
         <v>72</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H32">
         <f>E32*VALUE(LEFT(G32, FIND(":", G32)-1))</f>
@@ -3337,13 +3337,13 @@
         <v>73</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H33">
         <f>E33*VALUE(LEFT(G33, FIND(":", G33)-1))</f>
@@ -3363,13 +3363,13 @@
         <v>74</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H34">
         <f>E34*VALUE(LEFT(G34, FIND(":", G34)-1))</f>
@@ -3391,13 +3391,13 @@
         <v>75</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H35">
         <f>E35*VALUE(LEFT(G35, FIND(":", G35)-1))</f>
@@ -3417,13 +3417,13 @@
         <v>76</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H36">
         <f>E36*VALUE(LEFT(G36, FIND(":", G36)-1))</f>
@@ -3443,16 +3443,16 @@
         <v>77</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H37">
         <f>E37*VALUE(LEFT(G37, FIND(":", G37)-1))</f>
@@ -3472,13 +3472,13 @@
         <v>78</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H38">
         <f>E38*VALUE(LEFT(G38, FIND(":", G38)-1))</f>
@@ -3498,13 +3498,13 @@
         <v>79</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H39">
         <f>E39*VALUE(LEFT(G39, FIND(":", G39)-1))</f>
@@ -3524,13 +3524,13 @@
         <v>80</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H40">
         <f>E40*VALUE(LEFT(G40, FIND(":", G40)-1))</f>
@@ -3554,13 +3554,13 @@
         <v>81</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H41">
         <f>E41*VALUE(LEFT(G41, FIND(":", G41)-1))</f>
@@ -3580,16 +3580,16 @@
         <v>82</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H42">
         <f>E42*VALUE(LEFT(G42, FIND(":", G42)-1))</f>
@@ -3609,13 +3609,13 @@
         <v>83</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H43">
         <f>E43*VALUE(LEFT(G43, FIND(":", G43)-1))</f>
@@ -3635,13 +3635,13 @@
         <v>84</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H44">
         <f>E44*VALUE(LEFT(G44, FIND(":", G44)-1))</f>
@@ -3661,13 +3661,13 @@
         <v>85</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H45">
         <f>E45*VALUE(LEFT(G45, FIND(":", G45)-1))</f>
@@ -3687,13 +3687,13 @@
         <v>86</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H46">
         <f>E46*VALUE(LEFT(G46, FIND(":", G46)-1))</f>
@@ -3715,13 +3715,13 @@
         <v>87</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H47">
         <f>E47*VALUE(LEFT(G47, FIND(":", G47)-1))</f>
@@ -3741,13 +3741,13 @@
         <v>88</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H48">
         <f>E48*VALUE(LEFT(G48, FIND(":", G48)-1))</f>
@@ -3767,13 +3767,13 @@
         <v>89</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H49">
         <f>E49*VALUE(LEFT(G49, FIND(":", G49)-1))</f>
@@ -3793,13 +3793,13 @@
         <v>90</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H50">
         <f>E50*VALUE(LEFT(G50, FIND(":", G50)-1))</f>
@@ -3819,13 +3819,13 @@
         <v>91</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H51">
         <f>E51*VALUE(LEFT(G51, FIND(":", G51)-1))</f>
@@ -3845,13 +3845,13 @@
         <v>92</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H52">
         <f>E52*VALUE(LEFT(G52, FIND(":", G52)-1))</f>
@@ -3873,13 +3873,13 @@
         <v>93</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H53">
         <f>E53*VALUE(LEFT(G53, FIND(":", G53)-1))</f>
@@ -3899,13 +3899,13 @@
         <v>94</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H54">
         <f>E54*VALUE(LEFT(G54, FIND(":", G54)-1))</f>
@@ -3925,13 +3925,13 @@
         <v>95</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H55">
         <f>E55*VALUE(LEFT(G55, FIND(":", G55)-1))</f>
@@ -3951,13 +3951,13 @@
         <v>96</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H56">
         <f>E56*VALUE(LEFT(G56, FIND(":", G56)-1))</f>
@@ -3977,13 +3977,13 @@
         <v>97</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H57">
         <f>E57*VALUE(LEFT(G57, FIND(":", G57)-1))</f>
@@ -4003,16 +4003,16 @@
         <v>98</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H58">
         <f>E58*VALUE(LEFT(G58, FIND(":", G58)-1))</f>
@@ -4034,13 +4034,13 @@
         <v>99</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H59">
         <f>E59*VALUE(LEFT(G59, FIND(":", G59)-1))</f>
@@ -4060,13 +4060,13 @@
         <v>100</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H60">
         <f>E60*VALUE(LEFT(G60, FIND(":", G60)-1))</f>
@@ -4086,13 +4086,13 @@
         <v>101</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H61">
         <f>E61*VALUE(LEFT(G61, FIND(":", G61)-1))</f>
@@ -4112,13 +4112,13 @@
         <v>102</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H62">
         <f>E62*VALUE(LEFT(G62, FIND(":", G62)-1))</f>
@@ -4138,13 +4138,13 @@
         <v>103</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H63">
         <f>E63*VALUE(LEFT(G63, FIND(":", G63)-1))</f>
@@ -4164,13 +4164,13 @@
         <v>104</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H64">
         <f>E64*VALUE(LEFT(G64, FIND(":", G64)-1))</f>
@@ -4192,16 +4192,16 @@
         <v>105</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H65">
         <f>E65*VALUE(LEFT(G65, FIND(":", G65)-1))</f>
@@ -4221,16 +4221,16 @@
         <v>106</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H66">
         <f>E66*VALUE(LEFT(G66, FIND(":", G66)-1))</f>
@@ -4250,16 +4250,16 @@
         <v>107</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H67">
         <f>E67*VALUE(LEFT(G67, FIND(":", G67)-1))</f>
@@ -4279,16 +4279,16 @@
         <v>108</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H68">
         <f>E68*VALUE(LEFT(G68, FIND(":", G68)-1))</f>
@@ -4308,16 +4308,16 @@
         <v>109</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H69">
         <f>E69*VALUE(LEFT(G69, FIND(":", G69)-1))</f>
@@ -4337,16 +4337,16 @@
         <v>110</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H70">
         <f>E70*VALUE(LEFT(G70, FIND(":", G70)-1))</f>
@@ -4366,13 +4366,13 @@
         <v>111</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H71">
         <f>E71*VALUE(LEFT(G71, FIND(":", G71)-1))</f>
@@ -4394,16 +4394,16 @@
         <v>112</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H72">
         <f>E72*VALUE(LEFT(G72, FIND(":", G72)-1))</f>
@@ -4423,16 +4423,16 @@
         <v>113</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H73">
         <f>E73*VALUE(LEFT(G73, FIND(":", G73)-1))</f>
@@ -4452,13 +4452,13 @@
         <v>114</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H74">
         <f>E74*VALUE(LEFT(G74, FIND(":", G74)-1))</f>
@@ -4478,13 +4478,13 @@
         <v>115</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H75">
         <f>E75*VALUE(LEFT(G75, FIND(":", G75)-1))</f>
@@ -4504,13 +4504,13 @@
         <v>116</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H76">
         <f>E76*VALUE(LEFT(G76, FIND(":", G76)-1))</f>
@@ -4530,16 +4530,16 @@
         <v>117</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H77">
         <f>E77*VALUE(LEFT(G77, FIND(":", G77)-1))</f>
@@ -4559,13 +4559,13 @@
         <v>118</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H78">
         <f>E78*VALUE(LEFT(G78, FIND(":", G78)-1))</f>
@@ -4587,13 +4587,13 @@
         <v>119</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H79">
         <f>E79*VALUE(LEFT(G79, FIND(":", G79)-1))</f>
@@ -4613,13 +4613,13 @@
         <v>120</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H80">
         <f>E80*VALUE(LEFT(G80, FIND(":", G80)-1))</f>
@@ -4639,13 +4639,13 @@
         <v>121</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H81">
         <f>E81*VALUE(LEFT(G81, FIND(":", G81)-1))</f>
@@ -4665,13 +4665,13 @@
         <v>122</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H82">
         <f>E82*VALUE(LEFT(G82, FIND(":", G82)-1))</f>
@@ -4691,13 +4691,13 @@
         <v>123</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H83">
         <f>E83*VALUE(LEFT(G83, FIND(":", G83)-1))</f>
@@ -4717,16 +4717,16 @@
         <v>124</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E84">
         <v>1</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H84">
         <f>E84*VALUE(LEFT(G84, FIND(":", G84)-1))</f>
@@ -4746,16 +4746,16 @@
         <v>125</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E85">
         <v>1</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H85">
         <f>E85*VALUE(LEFT(G85, FIND(":", G85)-1))</f>
@@ -4775,13 +4775,13 @@
         <v>126</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H86">
         <f>E86*VALUE(LEFT(G86, FIND(":", G86)-1))</f>
@@ -4797,17 +4797,15 @@
     <row r="87" spans="1:10">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
-      <c r="C87" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="C87" s="2"/>
       <c r="D87" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E87">
         <v>1</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H87">
         <f>E87*VALUE(LEFT(G87, FIND(":", G87)-1))</f>
@@ -4826,16 +4824,16 @@
         <v>29</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H88">
         <f>E88*VALUE(LEFT(G88, FIND(":", G88)-1))</f>
@@ -4852,19 +4850,19 @@
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H89">
         <f>E89*VALUE(LEFT(G89, FIND(":", G89)-1))</f>
@@ -4881,19 +4879,19 @@
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E90">
         <v>1</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H90">
         <f>E90*VALUE(LEFT(G90, FIND(":", G90)-1))</f>
@@ -4910,16 +4908,16 @@
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H91">
         <f>E91*VALUE(LEFT(G91, FIND(":", G91)-1))</f>
@@ -4936,16 +4934,16 @@
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H92">
         <f>E92*VALUE(LEFT(G92, FIND(":", G92)-1))</f>
@@ -4962,16 +4960,16 @@
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H93">
         <f>E93*VALUE(LEFT(G93, FIND(":", G93)-1))</f>
@@ -4988,16 +4986,16 @@
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H94">
         <f>E94*VALUE(LEFT(G94, FIND(":", G94)-1))</f>
@@ -5018,16 +5016,16 @@
         <v>14</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H95">
         <f>E95*VALUE(LEFT(G95, FIND(":", G95)-1))</f>
@@ -5044,16 +5042,16 @@
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H96">
         <f>E96*VALUE(LEFT(G96, FIND(":", G96)-1))</f>
@@ -5070,16 +5068,16 @@
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H97">
         <f>E97*VALUE(LEFT(G97, FIND(":", G97)-1))</f>
@@ -5096,16 +5094,16 @@
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H98">
         <f>E98*VALUE(LEFT(G98, FIND(":", G98)-1))</f>
@@ -5122,16 +5120,16 @@
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E99">
         <v>1</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H99">
         <f>E99*VALUE(LEFT(G99, FIND(":", G99)-1))</f>
@@ -5148,16 +5146,16 @@
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H100">
         <f>E100*VALUE(LEFT(G100, FIND(":", G100)-1))</f>
@@ -5176,16 +5174,16 @@
         <v>15</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H101">
         <f>E101*VALUE(LEFT(G101, FIND(":", G101)-1))</f>
@@ -5202,16 +5200,16 @@
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E102">
         <v>1</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H102">
         <f>E102*VALUE(LEFT(G102, FIND(":", G102)-1))</f>
@@ -5228,16 +5226,16 @@
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H103">
         <f>E103*VALUE(LEFT(G103, FIND(":", G103)-1))</f>
@@ -5254,16 +5252,16 @@
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H104">
         <f>E104*VALUE(LEFT(G104, FIND(":", G104)-1))</f>
@@ -5280,16 +5278,16 @@
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H105">
         <f>E105*VALUE(LEFT(G105, FIND(":", G105)-1))</f>
@@ -5306,16 +5304,16 @@
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H106">
         <f>E106*VALUE(LEFT(G106, FIND(":", G106)-1))</f>
@@ -5334,16 +5332,16 @@
         <v>21</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H107">
         <f>E107*VALUE(LEFT(G107, FIND(":", G107)-1))</f>
@@ -5360,19 +5358,19 @@
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E108">
         <v>1</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H108">
         <f>E108*VALUE(LEFT(G108, FIND(":", G108)-1))</f>
@@ -5389,16 +5387,16 @@
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H109">
         <f>E109*VALUE(LEFT(G109, FIND(":", G109)-1))</f>
@@ -5415,19 +5413,19 @@
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E110">
         <v>1</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H110">
         <f>E110*VALUE(LEFT(G110, FIND(":", G110)-1))</f>
@@ -5444,16 +5442,16 @@
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E111">
         <v>1</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H111">
         <f>E111*VALUE(LEFT(G111, FIND(":", G111)-1))</f>
@@ -5470,19 +5468,19 @@
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E112">
         <v>1</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H112">
         <f>E112*VALUE(LEFT(G112, FIND(":", G112)-1))</f>
@@ -5501,16 +5499,16 @@
         <v>26</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H113">
         <f>E113*VALUE(LEFT(G113, FIND(":", G113)-1))</f>
@@ -5527,16 +5525,16 @@
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H114">
         <f>E114*VALUE(LEFT(G114, FIND(":", G114)-1))</f>
@@ -5553,16 +5551,16 @@
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E115">
         <v>0</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H115">
         <f>E115*VALUE(LEFT(G115, FIND(":", G115)-1))</f>
@@ -5579,16 +5577,16 @@
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E116">
         <v>0</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H116">
         <f>E116*VALUE(LEFT(G116, FIND(":", G116)-1))</f>
@@ -5605,19 +5603,19 @@
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E117">
         <v>1</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H117">
         <f>E117*VALUE(LEFT(G117, FIND(":", G117)-1))</f>
@@ -5634,16 +5632,16 @@
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E118">
         <v>1</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H118">
         <f>E118*VALUE(LEFT(G118, FIND(":", G118)-1))</f>
@@ -5660,16 +5658,16 @@
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E119">
         <v>0</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H119">
         <f>E119*VALUE(LEFT(G119, FIND(":", G119)-1))</f>
@@ -5688,19 +5686,19 @@
         <v>30</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E120">
         <v>1</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H120">
         <f>E120*VALUE(LEFT(G120, FIND(":", G120)-1))</f>
@@ -5717,16 +5715,16 @@
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E121">
         <v>0</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H121">
         <f>E121*VALUE(LEFT(G121, FIND(":", G121)-1))</f>
@@ -5743,16 +5741,16 @@
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E122">
         <v>0</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H122">
         <f>E122*VALUE(LEFT(G122, FIND(":", G122)-1))</f>
@@ -5769,16 +5767,16 @@
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E123">
         <v>0</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H123">
         <f>E123*VALUE(LEFT(G123, FIND(":", G123)-1))</f>
@@ -5795,16 +5793,16 @@
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H124">
         <f>E124*VALUE(LEFT(G124, FIND(":", G124)-1))</f>
@@ -5821,16 +5819,16 @@
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E125">
         <v>1</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H125">
         <f>E125*VALUE(LEFT(G125, FIND(":", G125)-1))</f>
@@ -5851,16 +5849,16 @@
         <v>27</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E126">
         <v>0</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H126">
         <f>E126*VALUE(LEFT(G126, FIND(":", G126)-1))</f>
@@ -5877,16 +5875,16 @@
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E127">
         <v>0</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H127">
         <f>E127*VALUE(LEFT(G127, FIND(":", G127)-1))</f>
@@ -5903,16 +5901,16 @@
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E128">
         <v>0</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H128">
         <f>E128*VALUE(LEFT(G128, FIND(":", G128)-1))</f>
@@ -5929,16 +5927,16 @@
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E129">
         <v>1</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H129">
         <f>E129*VALUE(LEFT(G129, FIND(":", G129)-1))</f>
@@ -5955,16 +5953,16 @@
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E130">
         <v>0</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H130">
         <f>E130*VALUE(LEFT(G130, FIND(":", G130)-1))</f>

--- a/assessments/FinOps++/assessment.xlsx
+++ b/assessments/FinOps++/assessment.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="361">
   <si>
     <t>Sum of Weights</t>
   </si>
@@ -398,6 +398,9 @@
   </si>
   <si>
     <t>Optimize Pipelines for Timeliness</t>
+  </si>
+  <si>
+    <t>Define ingestion frequency; include mandatory metadata.</t>
   </si>
   <si>
     <t>Gather Requirements &amp; Define KPIs</t>
@@ -2462,7 +2465,7 @@
   <cols>
     <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="40.7109375" style="1" customWidth="1"/>
@@ -2515,13 +2518,13 @@
         <v>42</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H2">
         <f>E2*VALUE(LEFT(G2, FIND(":", G2)-1))</f>
@@ -2541,13 +2544,13 @@
         <v>43</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H3">
         <f>E3*VALUE(LEFT(G3, FIND(":", G3)-1))</f>
@@ -2567,13 +2570,13 @@
         <v>44</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H4">
         <f>E4*VALUE(LEFT(G4, FIND(":", G4)-1))</f>
@@ -2593,13 +2596,13 @@
         <v>45</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H5">
         <f>E5*VALUE(LEFT(G5, FIND(":", G5)-1))</f>
@@ -2619,13 +2622,13 @@
         <v>46</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H6">
         <f>E6*VALUE(LEFT(G6, FIND(":", G6)-1))</f>
@@ -2647,13 +2650,13 @@
         <v>47</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H7">
         <f>E7*VALUE(LEFT(G7, FIND(":", G7)-1))</f>
@@ -2673,13 +2676,13 @@
         <v>48</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H8">
         <f>E8*VALUE(LEFT(G8, FIND(":", G8)-1))</f>
@@ -2699,13 +2702,13 @@
         <v>49</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H9">
         <f>E9*VALUE(LEFT(G9, FIND(":", G9)-1))</f>
@@ -2725,16 +2728,16 @@
         <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H10">
         <f>E10*VALUE(LEFT(G10, FIND(":", G10)-1))</f>
@@ -2754,13 +2757,13 @@
         <v>51</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H11">
         <f>E11*VALUE(LEFT(G11, FIND(":", G11)-1))</f>
@@ -2782,13 +2785,13 @@
         <v>52</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H12">
         <f>E12*VALUE(LEFT(G12, FIND(":", G12)-1))</f>
@@ -2808,13 +2811,13 @@
         <v>53</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H13">
         <f>E13*VALUE(LEFT(G13, FIND(":", G13)-1))</f>
@@ -2834,13 +2837,13 @@
         <v>54</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H14">
         <f>E14*VALUE(LEFT(G14, FIND(":", G14)-1))</f>
@@ -2860,13 +2863,13 @@
         <v>55</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H15">
         <f>E15*VALUE(LEFT(G15, FIND(":", G15)-1))</f>
@@ -2886,13 +2889,13 @@
         <v>56</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H16">
         <f>E16*VALUE(LEFT(G16, FIND(":", G16)-1))</f>
@@ -2912,13 +2915,13 @@
         <v>57</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H17">
         <f>E17*VALUE(LEFT(G17, FIND(":", G17)-1))</f>
@@ -2940,13 +2943,13 @@
         <v>58</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H18">
         <f>E18*VALUE(LEFT(G18, FIND(":", G18)-1))</f>
@@ -2966,13 +2969,13 @@
         <v>59</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H19">
         <f>E19*VALUE(LEFT(G19, FIND(":", G19)-1))</f>
@@ -2992,13 +2995,13 @@
         <v>60</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H20">
         <f>E20*VALUE(LEFT(G20, FIND(":", G20)-1))</f>
@@ -3018,16 +3021,16 @@
         <v>61</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H21">
         <f>E21*VALUE(LEFT(G21, FIND(":", G21)-1))</f>
@@ -3047,13 +3050,13 @@
         <v>62</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H22">
         <f>E22*VALUE(LEFT(G22, FIND(":", G22)-1))</f>
@@ -3075,13 +3078,13 @@
         <v>63</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H23">
         <f>E23*VALUE(LEFT(G23, FIND(":", G23)-1))</f>
@@ -3101,13 +3104,13 @@
         <v>64</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H24">
         <f>E24*VALUE(LEFT(G24, FIND(":", G24)-1))</f>
@@ -3127,13 +3130,13 @@
         <v>65</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H25">
         <f>E25*VALUE(LEFT(G25, FIND(":", G25)-1))</f>
@@ -3153,13 +3156,13 @@
         <v>66</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H26">
         <f>E26*VALUE(LEFT(G26, FIND(":", G26)-1))</f>
@@ -3179,13 +3182,13 @@
         <v>67</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H27">
         <f>E27*VALUE(LEFT(G27, FIND(":", G27)-1))</f>
@@ -3205,13 +3208,13 @@
         <v>68</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H28">
         <f>E28*VALUE(LEFT(G28, FIND(":", G28)-1))</f>
@@ -3233,13 +3236,13 @@
         <v>69</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H29">
         <f>E29*VALUE(LEFT(G29, FIND(":", G29)-1))</f>
@@ -3259,13 +3262,13 @@
         <v>70</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H30">
         <f>E30*VALUE(LEFT(G30, FIND(":", G30)-1))</f>
@@ -3285,13 +3288,13 @@
         <v>71</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H31">
         <f>E31*VALUE(LEFT(G31, FIND(":", G31)-1))</f>
@@ -3311,13 +3314,13 @@
         <v>72</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H32">
         <f>E32*VALUE(LEFT(G32, FIND(":", G32)-1))</f>
@@ -3337,13 +3340,13 @@
         <v>73</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H33">
         <f>E33*VALUE(LEFT(G33, FIND(":", G33)-1))</f>
@@ -3363,13 +3366,13 @@
         <v>74</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H34">
         <f>E34*VALUE(LEFT(G34, FIND(":", G34)-1))</f>
@@ -3391,13 +3394,13 @@
         <v>75</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H35">
         <f>E35*VALUE(LEFT(G35, FIND(":", G35)-1))</f>
@@ -3417,13 +3420,13 @@
         <v>76</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H36">
         <f>E36*VALUE(LEFT(G36, FIND(":", G36)-1))</f>
@@ -3443,16 +3446,16 @@
         <v>77</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H37">
         <f>E37*VALUE(LEFT(G37, FIND(":", G37)-1))</f>
@@ -3472,13 +3475,13 @@
         <v>78</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H38">
         <f>E38*VALUE(LEFT(G38, FIND(":", G38)-1))</f>
@@ -3498,13 +3501,13 @@
         <v>79</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H39">
         <f>E39*VALUE(LEFT(G39, FIND(":", G39)-1))</f>
@@ -3524,13 +3527,13 @@
         <v>80</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H40">
         <f>E40*VALUE(LEFT(G40, FIND(":", G40)-1))</f>
@@ -3554,13 +3557,13 @@
         <v>81</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H41">
         <f>E41*VALUE(LEFT(G41, FIND(":", G41)-1))</f>
@@ -3580,16 +3583,16 @@
         <v>82</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H42">
         <f>E42*VALUE(LEFT(G42, FIND(":", G42)-1))</f>
@@ -3609,13 +3612,13 @@
         <v>83</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H43">
         <f>E43*VALUE(LEFT(G43, FIND(":", G43)-1))</f>
@@ -3635,13 +3638,13 @@
         <v>84</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H44">
         <f>E44*VALUE(LEFT(G44, FIND(":", G44)-1))</f>
@@ -3661,13 +3664,13 @@
         <v>85</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H45">
         <f>E45*VALUE(LEFT(G45, FIND(":", G45)-1))</f>
@@ -3687,13 +3690,13 @@
         <v>86</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H46">
         <f>E46*VALUE(LEFT(G46, FIND(":", G46)-1))</f>
@@ -3715,13 +3718,13 @@
         <v>87</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H47">
         <f>E47*VALUE(LEFT(G47, FIND(":", G47)-1))</f>
@@ -3741,13 +3744,13 @@
         <v>88</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H48">
         <f>E48*VALUE(LEFT(G48, FIND(":", G48)-1))</f>
@@ -3767,13 +3770,13 @@
         <v>89</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H49">
         <f>E49*VALUE(LEFT(G49, FIND(":", G49)-1))</f>
@@ -3793,13 +3796,13 @@
         <v>90</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H50">
         <f>E50*VALUE(LEFT(G50, FIND(":", G50)-1))</f>
@@ -3819,13 +3822,13 @@
         <v>91</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H51">
         <f>E51*VALUE(LEFT(G51, FIND(":", G51)-1))</f>
@@ -3845,13 +3848,13 @@
         <v>92</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H52">
         <f>E52*VALUE(LEFT(G52, FIND(":", G52)-1))</f>
@@ -3873,13 +3876,13 @@
         <v>93</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H53">
         <f>E53*VALUE(LEFT(G53, FIND(":", G53)-1))</f>
@@ -3899,13 +3902,13 @@
         <v>94</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H54">
         <f>E54*VALUE(LEFT(G54, FIND(":", G54)-1))</f>
@@ -3925,13 +3928,13 @@
         <v>95</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H55">
         <f>E55*VALUE(LEFT(G55, FIND(":", G55)-1))</f>
@@ -3951,13 +3954,13 @@
         <v>96</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H56">
         <f>E56*VALUE(LEFT(G56, FIND(":", G56)-1))</f>
@@ -3977,13 +3980,13 @@
         <v>97</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H57">
         <f>E57*VALUE(LEFT(G57, FIND(":", G57)-1))</f>
@@ -4003,16 +4006,16 @@
         <v>98</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H58">
         <f>E58*VALUE(LEFT(G58, FIND(":", G58)-1))</f>
@@ -4034,13 +4037,13 @@
         <v>99</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H59">
         <f>E59*VALUE(LEFT(G59, FIND(":", G59)-1))</f>
@@ -4060,13 +4063,13 @@
         <v>100</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H60">
         <f>E60*VALUE(LEFT(G60, FIND(":", G60)-1))</f>
@@ -4086,13 +4089,13 @@
         <v>101</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H61">
         <f>E61*VALUE(LEFT(G61, FIND(":", G61)-1))</f>
@@ -4112,13 +4115,13 @@
         <v>102</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H62">
         <f>E62*VALUE(LEFT(G62, FIND(":", G62)-1))</f>
@@ -4138,13 +4141,13 @@
         <v>103</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H63">
         <f>E63*VALUE(LEFT(G63, FIND(":", G63)-1))</f>
@@ -4164,13 +4167,13 @@
         <v>104</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H64">
         <f>E64*VALUE(LEFT(G64, FIND(":", G64)-1))</f>
@@ -4192,16 +4195,16 @@
         <v>105</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H65">
         <f>E65*VALUE(LEFT(G65, FIND(":", G65)-1))</f>
@@ -4221,16 +4224,16 @@
         <v>106</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H66">
         <f>E66*VALUE(LEFT(G66, FIND(":", G66)-1))</f>
@@ -4250,16 +4253,16 @@
         <v>107</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H67">
         <f>E67*VALUE(LEFT(G67, FIND(":", G67)-1))</f>
@@ -4279,16 +4282,16 @@
         <v>108</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H68">
         <f>E68*VALUE(LEFT(G68, FIND(":", G68)-1))</f>
@@ -4308,16 +4311,16 @@
         <v>109</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H69">
         <f>E69*VALUE(LEFT(G69, FIND(":", G69)-1))</f>
@@ -4337,16 +4340,16 @@
         <v>110</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H70">
         <f>E70*VALUE(LEFT(G70, FIND(":", G70)-1))</f>
@@ -4366,13 +4369,13 @@
         <v>111</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H71">
         <f>E71*VALUE(LEFT(G71, FIND(":", G71)-1))</f>
@@ -4394,16 +4397,16 @@
         <v>112</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H72">
         <f>E72*VALUE(LEFT(G72, FIND(":", G72)-1))</f>
@@ -4423,16 +4426,16 @@
         <v>113</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H73">
         <f>E73*VALUE(LEFT(G73, FIND(":", G73)-1))</f>
@@ -4452,13 +4455,13 @@
         <v>114</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H74">
         <f>E74*VALUE(LEFT(G74, FIND(":", G74)-1))</f>
@@ -4478,13 +4481,13 @@
         <v>115</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H75">
         <f>E75*VALUE(LEFT(G75, FIND(":", G75)-1))</f>
@@ -4504,13 +4507,13 @@
         <v>116</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H76">
         <f>E76*VALUE(LEFT(G76, FIND(":", G76)-1))</f>
@@ -4530,16 +4533,16 @@
         <v>117</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H77">
         <f>E77*VALUE(LEFT(G77, FIND(":", G77)-1))</f>
@@ -4559,13 +4562,13 @@
         <v>118</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H78">
         <f>E78*VALUE(LEFT(G78, FIND(":", G78)-1))</f>
@@ -4587,13 +4590,13 @@
         <v>119</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H79">
         <f>E79*VALUE(LEFT(G79, FIND(":", G79)-1))</f>
@@ -4613,13 +4616,13 @@
         <v>120</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H80">
         <f>E80*VALUE(LEFT(G80, FIND(":", G80)-1))</f>
@@ -4639,13 +4642,13 @@
         <v>121</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H81">
         <f>E81*VALUE(LEFT(G81, FIND(":", G81)-1))</f>
@@ -4665,13 +4668,13 @@
         <v>122</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H82">
         <f>E82*VALUE(LEFT(G82, FIND(":", G82)-1))</f>
@@ -4691,13 +4694,13 @@
         <v>123</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H83">
         <f>E83*VALUE(LEFT(G83, FIND(":", G83)-1))</f>
@@ -4717,16 +4720,16 @@
         <v>124</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E84">
         <v>1</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H84">
         <f>E84*VALUE(LEFT(G84, FIND(":", G84)-1))</f>
@@ -4746,16 +4749,16 @@
         <v>125</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E85">
         <v>1</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H85">
         <f>E85*VALUE(LEFT(G85, FIND(":", G85)-1))</f>
@@ -4775,13 +4778,13 @@
         <v>126</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H86">
         <f>E86*VALUE(LEFT(G86, FIND(":", G86)-1))</f>
@@ -4797,15 +4800,17 @@
     <row r="87" spans="1:10">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
+      <c r="C87" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="D87" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E87">
         <v>1</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H87">
         <f>E87*VALUE(LEFT(G87, FIND(":", G87)-1))</f>
@@ -4824,16 +4829,16 @@
         <v>29</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H88">
         <f>E88*VALUE(LEFT(G88, FIND(":", G88)-1))</f>
@@ -4850,19 +4855,19 @@
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H89">
         <f>E89*VALUE(LEFT(G89, FIND(":", G89)-1))</f>
@@ -4879,19 +4884,19 @@
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E90">
         <v>1</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H90">
         <f>E90*VALUE(LEFT(G90, FIND(":", G90)-1))</f>
@@ -4908,16 +4913,16 @@
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H91">
         <f>E91*VALUE(LEFT(G91, FIND(":", G91)-1))</f>
@@ -4934,16 +4939,16 @@
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H92">
         <f>E92*VALUE(LEFT(G92, FIND(":", G92)-1))</f>
@@ -4960,16 +4965,16 @@
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H93">
         <f>E93*VALUE(LEFT(G93, FIND(":", G93)-1))</f>
@@ -4986,16 +4991,16 @@
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H94">
         <f>E94*VALUE(LEFT(G94, FIND(":", G94)-1))</f>
@@ -5016,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H95">
         <f>E95*VALUE(LEFT(G95, FIND(":", G95)-1))</f>
@@ -5042,16 +5047,16 @@
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H96">
         <f>E96*VALUE(LEFT(G96, FIND(":", G96)-1))</f>
@@ -5068,16 +5073,16 @@
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H97">
         <f>E97*VALUE(LEFT(G97, FIND(":", G97)-1))</f>
@@ -5094,16 +5099,16 @@
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H98">
         <f>E98*VALUE(LEFT(G98, FIND(":", G98)-1))</f>
@@ -5120,16 +5125,16 @@
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E99">
         <v>1</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H99">
         <f>E99*VALUE(LEFT(G99, FIND(":", G99)-1))</f>
@@ -5146,16 +5151,16 @@
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H100">
         <f>E100*VALUE(LEFT(G100, FIND(":", G100)-1))</f>
@@ -5174,16 +5179,16 @@
         <v>15</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H101">
         <f>E101*VALUE(LEFT(G101, FIND(":", G101)-1))</f>
@@ -5200,16 +5205,16 @@
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E102">
         <v>1</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H102">
         <f>E102*VALUE(LEFT(G102, FIND(":", G102)-1))</f>
@@ -5226,16 +5231,16 @@
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H103">
         <f>E103*VALUE(LEFT(G103, FIND(":", G103)-1))</f>
@@ -5252,16 +5257,16 @@
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H104">
         <f>E104*VALUE(LEFT(G104, FIND(":", G104)-1))</f>
@@ -5278,16 +5283,16 @@
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H105">
         <f>E105*VALUE(LEFT(G105, FIND(":", G105)-1))</f>
@@ -5304,16 +5309,16 @@
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H106">
         <f>E106*VALUE(LEFT(G106, FIND(":", G106)-1))</f>
@@ -5332,16 +5337,16 @@
         <v>21</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H107">
         <f>E107*VALUE(LEFT(G107, FIND(":", G107)-1))</f>
@@ -5358,19 +5363,19 @@
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E108">
         <v>1</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H108">
         <f>E108*VALUE(LEFT(G108, FIND(":", G108)-1))</f>
@@ -5387,16 +5392,16 @@
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H109">
         <f>E109*VALUE(LEFT(G109, FIND(":", G109)-1))</f>
@@ -5413,19 +5418,19 @@
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E110">
         <v>1</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H110">
         <f>E110*VALUE(LEFT(G110, FIND(":", G110)-1))</f>
@@ -5442,16 +5447,16 @@
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E111">
         <v>1</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H111">
         <f>E111*VALUE(LEFT(G111, FIND(":", G111)-1))</f>
@@ -5468,19 +5473,19 @@
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E112">
         <v>1</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H112">
         <f>E112*VALUE(LEFT(G112, FIND(":", G112)-1))</f>
@@ -5499,16 +5504,16 @@
         <v>26</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H113">
         <f>E113*VALUE(LEFT(G113, FIND(":", G113)-1))</f>
@@ -5525,16 +5530,16 @@
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H114">
         <f>E114*VALUE(LEFT(G114, FIND(":", G114)-1))</f>
@@ -5551,16 +5556,16 @@
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E115">
         <v>0</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H115">
         <f>E115*VALUE(LEFT(G115, FIND(":", G115)-1))</f>
@@ -5577,16 +5582,16 @@
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E116">
         <v>0</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H116">
         <f>E116*VALUE(LEFT(G116, FIND(":", G116)-1))</f>
@@ -5603,19 +5608,19 @@
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E117">
         <v>1</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H117">
         <f>E117*VALUE(LEFT(G117, FIND(":", G117)-1))</f>
@@ -5632,16 +5637,16 @@
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E118">
         <v>1</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H118">
         <f>E118*VALUE(LEFT(G118, FIND(":", G118)-1))</f>
@@ -5658,16 +5663,16 @@
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E119">
         <v>0</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H119">
         <f>E119*VALUE(LEFT(G119, FIND(":", G119)-1))</f>
@@ -5686,19 +5691,19 @@
         <v>30</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E120">
         <v>1</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H120">
         <f>E120*VALUE(LEFT(G120, FIND(":", G120)-1))</f>
@@ -5715,16 +5720,16 @@
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E121">
         <v>0</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H121">
         <f>E121*VALUE(LEFT(G121, FIND(":", G121)-1))</f>
@@ -5741,16 +5746,16 @@
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E122">
         <v>0</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H122">
         <f>E122*VALUE(LEFT(G122, FIND(":", G122)-1))</f>
@@ -5767,16 +5772,16 @@
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E123">
         <v>0</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H123">
         <f>E123*VALUE(LEFT(G123, FIND(":", G123)-1))</f>
@@ -5793,16 +5798,16 @@
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H124">
         <f>E124*VALUE(LEFT(G124, FIND(":", G124)-1))</f>
@@ -5819,16 +5824,16 @@
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E125">
         <v>1</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H125">
         <f>E125*VALUE(LEFT(G125, FIND(":", G125)-1))</f>
@@ -5849,16 +5854,16 @@
         <v>27</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E126">
         <v>0</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H126">
         <f>E126*VALUE(LEFT(G126, FIND(":", G126)-1))</f>
@@ -5875,16 +5880,16 @@
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E127">
         <v>0</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H127">
         <f>E127*VALUE(LEFT(G127, FIND(":", G127)-1))</f>
@@ -5901,16 +5906,16 @@
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E128">
         <v>0</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H128">
         <f>E128*VALUE(LEFT(G128, FIND(":", G128)-1))</f>
@@ -5927,16 +5932,16 @@
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E129">
         <v>1</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H129">
         <f>E129*VALUE(LEFT(G129, FIND(":", G129)-1))</f>
@@ -5953,16 +5958,16 @@
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E130">
         <v>0</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H130">
         <f>E130*VALUE(LEFT(G130, FIND(":", G130)-1))</f>

--- a/assessments/FinOps++/assessment.xlsx
+++ b/assessments/FinOps++/assessment.xlsx
@@ -469,7 +469,7 @@
     <t>Run &amp; Refresh Rolling Forecasts</t>
   </si>
   <si>
-    <t>Compare Forecast vs Actuals</t>
+    <t>Compare Forecast to Actual</t>
   </si>
   <si>
     <t>Automate Variance Alerts</t>
@@ -1046,7 +1046,7 @@
   <si>
     <t>* Dashboard for showback
 * Dashboard where teams can dive in to investigate costs
-* Ad-hoc dashboards avaialble to teams
+* Ad-hoc dashboards available to teams
 * Dashboards for key metrics tracking (tagging, waste, etc.)
 10*Ceil(x/4)</t>
   </si>
@@ -1096,7 +1096,7 @@
     <t>[{'Score': 0, 'Condition': 'No items completed'}, {'Score': 2, 'Condition': '1 item completed'}, {'Score': 4, 'Condition': '2 items completed'}, {'Score': 6, 'Condition': '3 items completed'}, {'Score': 8, 'Condition': '4 items completed'}, {'Score': 10, 'Condition': '5 items completed'}]</t>
   </si>
   <si>
-    <t>[{'Score': 0, 'Condition': 'Not done'}, {'Score': 10, 'Condition': 'Done and clealy defined'}]</t>
+    <t>[{'Score': 0, 'Condition': 'Not done'}, {'Score': 10, 'Condition': 'Done and clearly defined'}]</t>
   </si>
   <si>
     <t>[{'Score': 0, 'Condition': 'No items completed'}, {'Score': 4, 'Condition': '1 item completed'}, {'Score': 7, 'Condition': '2 items completed'}, {'Score': 10, 'Condition': '3 items completed'}]</t>
@@ -1129,7 +1129,7 @@
     <t>[{'Score': 0, 'Condition': 'No items completed'}, {'Score': 2, 'Condition': '1 item completed'}, {'Score': 4, 'Condition': '2 items completed'}, {'Score': 5, 'Condition': '3 items completed'}, {'Score': 7, 'Condition': '4 items completed'}, {'Score': 9, 'Condition': '5 items completed'}, {'Score': 10, 'Condition': '6 items completed'}]</t>
   </si>
   <si>
-    <t>[{'Score': 0, 'Condition': 'No alerting in worflow tools'}, {'Score': 1, 'Condition': 'Alerting in at least one tool'}, {'Score': 3, 'Condition': 'Alerting in some tooling [20%]'}, {'Score': 6, 'Condition': 'Alerting in most tooling [60%]'}, {'Score': 10, 'Condition': 'Alerting in all workflow tools [100%]'}]</t>
+    <t>[{'Score': 0, 'Condition': 'No alerting in workflow tools'}, {'Score': 1, 'Condition': 'Alerting in at least one tool'}, {'Score': 3, 'Condition': 'Alerting in some tooling [20%]'}, {'Score': 6, 'Condition': 'Alerting in most tooling [60%]'}, {'Score': 10, 'Condition': 'Alerting in all workflow tools [100%]'}]</t>
   </si>
   <si>
     <t>[{'Score': 0, 'Condition': 'No items completed'}, {'Score': 2, 'Condition': '1 item completed'}, {'Score': 3, 'Condition': '2 items completed'}, {'Score': 4, 'Condition': '3 items completed'}, {'Score': 5, 'Condition': '4 items completed'}, {'Score': 7, 'Condition': '5 items completed'}, {'Score': 8, 'Condition': '6 items completed'}, {'Score': 9, 'Condition': '7 items completed'}, {'Score': 10, 'Condition': '8 items completed'}]</t>
@@ -1180,7 +1180,7 @@
     <t>0: No teardown/shutdown policy</t>
   </si>
   <si>
-    <t>0: No alerting in worflow tools</t>
+    <t>0: No alerting in workflow tools</t>
   </si>
   <si>
     <t>0: Never</t>
@@ -6097,7 +6097,7 @@
       <formula1>"0: None"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G31">
-      <formula1>"0: Not done,10: Done and clealy defined"</formula1>
+      <formula1>"0: Not done,10: Done and clearly defined"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G32">
       <formula1>"0: None"</formula1>
@@ -6226,7 +6226,7 @@
       <formula1>"0: No items completed,2: 1 item completed,4: 2 items completed,5: 3 items completed,7: 4 items completed,9: 5 items completed,10: 6 items completed"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G74">
-      <formula1>"0: No alerting in worflow tools,1: Alerting in at least one tool,3: Alerting in some tooling [20%],6: Alerting in most tooling [60%],10: Alerting in all workflow tools [100%]"</formula1>
+      <formula1>"0: No alerting in workflow tools,1: Alerting in at least one tool,3: Alerting in some tooling [20%],6: Alerting in most tooling [60%],10: Alerting in all workflow tools [100%]"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G75">
       <formula1>"0: None"</formula1>
@@ -6280,7 +6280,7 @@
       <formula1>"0: None"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G92">
-      <formula1>"0: No alerting in worflow tools,1: Alerting in at least one tool,3: Alerting in some tooling [20%],6: Alerting in most tooling [60%],10: Alerting in all workflow tools [100%]"</formula1>
+      <formula1>"0: No alerting in workflow tools,1: Alerting in at least one tool,3: Alerting in some tooling [20%],6: Alerting in most tooling [60%],10: Alerting in all workflow tools [100%]"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G93">
       <formula1>"0: None"</formula1>
